--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0FBD0B-2FC5-48DB-9CDA-01C8329498C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35AA58F2-DF3B-4DA2-BAAE-16319AFB91D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CE73B23D-518D-41EE-B573-9A11037FF340}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C008D3F3-54A4-4FD9-96C0-ECA628B34371}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8552EE57-8EA6-4840-968F-ADE921CE6AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C58E0C5-BBC8-436F-A304-CCB3A4C011DB}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4220,7 +4220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7589DF-66FE-4A0F-8E5C-8087EB45F19E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB4EFB5-F0D2-44A5-8666-E4143D369C38}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4506,7 +4506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0956CA-9AA6-42DB-8C4B-BA9BCF89845F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003A8FE3-64EF-4734-87CC-6043B1F58B04}">
   <dimension ref="A1:T141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8833,13 +8833,13 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -8865,7 +8865,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8897,7 +8897,7 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8929,7 +8929,7 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8961,13 +8961,13 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H99" s="4">
         <v>21.450000000000003</v>
@@ -9025,7 +9025,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.4E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9057,7 +9057,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9089,13 +9089,13 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9121,7 +9121,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>2.3E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9130,7 +9130,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9153,7 +9153,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9185,13 +9185,13 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.8E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9217,13 +9217,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9249,7 +9249,7 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9281,7 +9281,7 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9313,7 +9313,7 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9345,7 +9345,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9354,7 +9354,7 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -9377,13 +9377,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9409,7 +9409,7 @@
         <v>2012</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9441,13 +9441,13 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>8.0999999999999996E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
       </c>
       <c r="G114" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H114" s="3">
         <v>21.450000000000003</v>
@@ -9473,7 +9473,7 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9505,7 +9505,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9537,13 +9537,13 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -9569,7 +9569,7 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9601,7 +9601,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9729,7 +9729,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9761,7 +9761,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9793,7 +9793,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9825,7 +9825,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>2.3E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9889,7 +9889,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9921,7 +9921,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9953,7 +9953,7 @@
         <v>2015</v>
       </c>
       <c r="E130" s="3">
-        <v>1E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9994,7 +9994,7 @@
         <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -10081,7 +10081,7 @@
         <v>2016</v>
       </c>
       <c r="E134" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -10090,7 +10090,7 @@
         <v>1336.5</v>
       </c>
       <c r="H134" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7A6E4F-403B-435D-BD41-22CEA8093FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49251F0-E08F-4D63-AAC7-71EFB68A002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E8526D35-8E88-4EE9-BE3E-A6F19A32E754}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{20582E40-0F7B-46CD-8D60-C744537CD181}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="242">
   <si>
     <t>~fi_t</t>
   </si>
@@ -85,340 +85,322 @@
     <t>gas</t>
   </si>
   <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>ep_gas_combined_cycle_</t>
+  </si>
+  <si>
+    <t>ep_gas_gas_turbine__m</t>
+  </si>
+  <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603509</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603510</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603511</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603512</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603513</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603514</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603515</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603516</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603517</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603521</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603522</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603523</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603524</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603525</t>
+  </si>
+  <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603527</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603529</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603531</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603532</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603533</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603539</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603541</t>
+  </si>
+  <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603543</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603545</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603546</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603547</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603548</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603551</t>
+  </si>
+  <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603553</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603554</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603555</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603557</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603558</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603559</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603561</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603562</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000603563</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603519</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603520</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603535</t>
+  </si>
+  <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603536</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603540</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603542</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603544</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603549</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603550</t>
+  </si>
+  <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603564</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps_G100000603565</t>
+  </si>
+  <si>
+    <t>ep_hydro_ror</t>
+  </si>
+  <si>
     <t>e_w1105061707-220</t>
   </si>
   <si>
-    <t>e_w55698557-225</t>
-  </si>
-  <si>
-    <t>ep_gas_combined_cycle_</t>
-  </si>
-  <si>
-    <t>ep_gas_gas_turbine__m</t>
-  </si>
-  <si>
-    <t>e_w1284913429-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>e_CH20-220</t>
-  </si>
-  <si>
-    <t>e_CH13-220</t>
-  </si>
-  <si>
-    <t>e_w431234146-220</t>
-  </si>
-  <si>
-    <t>e_CH29-380</t>
-  </si>
-  <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
-    <t>e_w240959264-220</t>
-  </si>
-  <si>
-    <t>e_w210568055-220</t>
-  </si>
-  <si>
-    <t>e_CH27-220</t>
-  </si>
-  <si>
-    <t>e_w281804158-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603509</t>
-  </si>
-  <si>
-    <t>e_w140873735-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603510</t>
-  </si>
-  <si>
-    <t>e_w212498548-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603511</t>
-  </si>
-  <si>
-    <t>e_w1092884227-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603512</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603513</t>
-  </si>
-  <si>
-    <t>e_w234983117-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603514</t>
-  </si>
-  <si>
-    <t>e_w109037817-380</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603515</t>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
   </si>
   <si>
     <t>e_w969819301-220</t>
   </si>
   <si>
-    <t>ep_hydro_dam_G100000603516</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603517</t>
-  </si>
-  <si>
-    <t>e_CH42-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603521</t>
-  </si>
-  <si>
-    <t>e_w802058337-225</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603522</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603523</t>
-  </si>
-  <si>
-    <t>e_w281815404-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603524</t>
-  </si>
-  <si>
-    <t>e_w130198336-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603525</t>
-  </si>
-  <si>
-    <t>e_w1086214433-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603527</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603529</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603531</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603532</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603533</t>
-  </si>
-  <si>
-    <t>e_w936521586-380</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603539</t>
-  </si>
-  <si>
-    <t>e_CH47-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603541</t>
-  </si>
-  <si>
-    <t>e_CH22-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603543</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603545</t>
-  </si>
-  <si>
-    <t>e_w969811258-380</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603546</t>
-  </si>
-  <si>
-    <t>e_CH32-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603547</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603548</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603551</t>
-  </si>
-  <si>
-    <t>e_w36348118-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603553</t>
-  </si>
-  <si>
-    <t>e_w71500123-380</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603554</t>
-  </si>
-  <si>
-    <t>e_CH23-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603555</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603557</t>
-  </si>
-  <si>
-    <t>e_w236819191-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603558</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603559</t>
-  </si>
-  <si>
-    <t>e_CH18-380</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603561</t>
-  </si>
-  <si>
-    <t>e_w281800404-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603562</t>
-  </si>
-  <si>
-    <t>e_w177392130-400</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603563</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>e_w212722603-380</t>
-  </si>
-  <si>
-    <t>e_w228003081-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603519</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603520</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603535</t>
-  </si>
-  <si>
-    <t>e_w238138373-380</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603536</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603540</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603542</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603544</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603549</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603550</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603564</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000603565</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror</t>
-  </si>
-  <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
-  </si>
-  <si>
-    <t>e_CH57-220</t>
-  </si>
-  <si>
-    <t>e_CH53-225</t>
-  </si>
-  <si>
-    <t>e_w391576135-220</t>
-  </si>
-  <si>
-    <t>e_CH22-380</t>
-  </si>
-  <si>
-    <t>e_w364949845-220</t>
-  </si>
-  <si>
     <t>ep_nuclear_G100000500087</t>
   </si>
   <si>
     <t>nuclear</t>
   </si>
   <si>
-    <t>e_w98648381-380</t>
+    <t>e_w98648381-220</t>
   </si>
   <si>
     <t>ep_nuclear_G100000500203</t>
   </si>
   <si>
-    <t>e_w356292116-220</t>
+    <t>e_w190819048-220</t>
   </si>
   <si>
     <t>ep_nuclear_G100000500504</t>
-  </si>
-  <si>
-    <t>e_w98648381-220</t>
   </si>
   <si>
     <t>ep_nuclear_G100000500505</t>
@@ -1234,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2D91ED-1745-4D2E-970D-732342E05BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A035F6B9-ACFD-42F6-B2AD-092544882B46}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1254,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1278,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1301,39 +1283,39 @@
         <v>2050</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3">
         <v>0.30000000000000004</v>
@@ -1348,34 +1330,34 @@
         <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4">
         <v>0.60000000000000009</v>
@@ -1387,37 +1369,37 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3">
         <v>5750</v>
@@ -1432,34 +1414,34 @@
         <v>7</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4">
         <v>200</v>
@@ -1474,34 +1456,34 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
@@ -1513,37 +1495,37 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4">
         <v>0.37</v>
@@ -1558,34 +1540,34 @@
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3">
         <v>0.60000000000000009</v>
@@ -1597,37 +1579,37 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4">
         <v>600</v>
@@ -1642,34 +1624,34 @@
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3">
         <v>25</v>
@@ -1684,34 +1666,34 @@
         <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1723,37 +1705,37 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3">
         <v>0.35000000000000003</v>
@@ -1768,34 +1750,34 @@
         <v>6</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4">
         <v>0.60000000000000009</v>
@@ -1807,37 +1789,37 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
         <v>2400</v>
@@ -1852,34 +1834,34 @@
         <v>7</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4">
         <v>85</v>
@@ -1894,34 +1876,34 @@
         <v>8</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1933,37 +1915,37 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4">
         <v>0.70000000000000007</v>
@@ -1978,34 +1960,34 @@
         <v>6</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D20" s="3">
         <v>0.70000000000000007</v>
@@ -2017,37 +1999,37 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4">
         <v>3750</v>
@@ -2062,34 +2044,34 @@
         <v>7</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3">
         <v>140</v>
@@ -2104,34 +2086,34 @@
         <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2143,37 +2125,37 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3">
         <v>0.59</v>
@@ -2188,34 +2170,34 @@
         <v>6</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4">
         <v>1000</v>
@@ -2230,34 +2212,34 @@
         <v>7</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D26" s="3">
         <v>25</v>
@@ -2272,34 +2254,34 @@
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4">
         <v>0.51</v>
@@ -2314,34 +2296,34 @@
         <v>6</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3">
         <v>3100</v>
@@ -2356,34 +2338,34 @@
         <v>7</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4">
         <v>75</v>
@@ -2398,34 +2380,34 @@
         <v>8</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D30" s="3">
         <v>0.82000000000000006</v>
@@ -2442,13 +2424,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4">
         <v>1300</v>
@@ -2465,13 +2447,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3">
         <v>40</v>
@@ -2488,13 +2470,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4">
         <v>0.37</v>
@@ -2511,13 +2493,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D34" s="3">
         <v>5500</v>
@@ -2534,13 +2516,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4">
         <v>165</v>
@@ -2557,13 +2539,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D36" s="3">
         <v>0.4</v>
@@ -2580,13 +2562,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4">
         <v>0.3</v>
@@ -2598,18 +2580,18 @@
         <v>0.42</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D38" s="3">
         <v>5650</v>
@@ -2626,13 +2608,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4">
         <v>210</v>
@@ -2649,13 +2631,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -2667,18 +2649,18 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4">
         <v>0.5</v>
@@ -2695,13 +2677,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D42" s="3">
         <v>5000</v>
@@ -2718,13 +2700,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4">
         <v>100</v>
@@ -2741,13 +2723,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D44" s="3">
         <v>0.4</v>
@@ -2764,13 +2746,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4">
         <v>500</v>
@@ -2787,13 +2769,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D46" s="3">
         <v>20</v>
@@ -2810,13 +2792,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4">
         <v>0.1</v>
@@ -2833,13 +2815,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D48" s="3">
         <v>0.85000000000000009</v>
@@ -2851,18 +2833,18 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4">
         <v>2850</v>
@@ -2879,13 +2861,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D50" s="3">
         <v>55</v>
@@ -2902,13 +2884,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -2920,18 +2902,18 @@
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -2948,13 +2930,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D53" s="4">
         <v>0.35000000000000003</v>
@@ -2966,18 +2948,18 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D54" s="3">
         <v>2650</v>
@@ -2994,13 +2976,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D55" s="4">
         <v>65</v>
@@ -3017,13 +2999,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D56" s="3">
         <v>4</v>
@@ -3035,18 +3017,18 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -3063,13 +3045,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D58" s="3">
         <v>0.25</v>
@@ -3081,18 +3063,18 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D59" s="4">
         <v>3850</v>
@@ -3109,13 +3091,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D60" s="3">
         <v>75</v>
@@ -3132,13 +3114,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D61" s="4">
         <v>4</v>
@@ -3150,18 +3132,18 @@
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D62" s="3">
         <v>0.45</v>
@@ -3178,13 +3160,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D63" s="4">
         <v>2500</v>
@@ -3201,13 +3183,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D64" s="3">
         <v>95</v>
@@ -3224,13 +3206,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D65" s="4">
         <v>0.36</v>
@@ -3247,13 +3229,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D66" s="3">
         <v>5850</v>
@@ -3270,13 +3252,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D67" s="4">
         <v>205</v>
@@ -3293,13 +3275,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -3316,13 +3298,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D69" s="4">
         <v>0.25</v>
@@ -3334,18 +3316,18 @@
         <v>0.25</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D70" s="3">
         <v>6950</v>
@@ -3362,13 +3344,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D71" s="4">
         <v>200</v>
@@ -3385,13 +3367,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
@@ -3403,18 +3385,18 @@
         <v>4</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D73" s="4">
         <v>0.33</v>
@@ -3431,13 +3413,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D74" s="3">
         <v>6600</v>
@@ -3454,13 +3436,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D75" s="4">
         <v>165</v>
@@ -3477,13 +3459,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D76" s="3">
         <v>0.37</v>
@@ -3500,13 +3482,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D77" s="4">
         <v>5700</v>
@@ -3523,13 +3505,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D78" s="3">
         <v>170</v>
@@ -3546,13 +3528,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -3569,13 +3551,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D80" s="3">
         <v>0.13</v>
@@ -3587,18 +3569,18 @@
         <v>0.13</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D81" s="4">
         <v>990</v>
@@ -3615,13 +3597,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D82" s="3">
         <v>14</v>
@@ -3638,13 +3620,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -3656,18 +3638,18 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -3684,13 +3666,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D85" s="4">
         <v>0.14000000000000001</v>
@@ -3702,18 +3684,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D86" s="3">
         <v>750</v>
@@ -3730,13 +3712,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D87" s="4">
         <v>12</v>
@@ -3753,13 +3735,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D88" s="3">
         <v>1.5</v>
@@ -3771,18 +3753,18 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D89" s="4">
         <v>0.39</v>
@@ -3799,13 +3781,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D90" s="3">
         <v>1700</v>
@@ -3822,13 +3804,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D91" s="4">
         <v>45</v>
@@ -3845,13 +3827,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D92" s="3">
         <v>0.43</v>
@@ -3868,13 +3850,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
         <v>2000</v>
@@ -3891,13 +3873,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D94" s="3">
         <v>60</v>
@@ -3914,13 +3896,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D95" s="4">
         <v>0.46</v>
@@ -3937,13 +3919,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D96" s="3">
         <v>2200</v>
@@ -3960,13 +3942,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D97" s="4">
         <v>65</v>
@@ -3983,13 +3965,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
@@ -4006,13 +3988,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D99" s="4">
         <v>0.5</v>
@@ -4024,18 +4006,18 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D100" s="3">
         <v>3120</v>
@@ -4052,13 +4034,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D101" s="4">
         <v>60</v>
@@ -4075,13 +4057,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>3</v>
@@ -4093,18 +4075,18 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -4121,13 +4103,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D104" s="3">
         <v>0.28999999999999998</v>
@@ -4139,18 +4121,18 @@
         <v>0.3</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D105" s="4">
         <v>1630</v>
@@ -4167,13 +4149,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D106" s="3">
         <v>42</v>
@@ -4190,13 +4172,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D107" s="4">
         <v>1.5</v>
@@ -4208,7 +4190,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4220,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A59FDA-3248-4D9D-87F1-2C132D93C10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFF6D97-3281-4F7E-9F5A-881556D4BD8B}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4242,7 +4224,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4270,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4296,48 +4278,48 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3">
         <v>0.52272499999999988</v>
@@ -4364,36 +4346,36 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4">
         <v>0.46865000000000007</v>
@@ -4420,36 +4402,36 @@
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="T5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3">
         <v>0.27938750000000001</v>
@@ -4476,25 +4458,25 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="T6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4506,8 +4488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BE18BD-9313-4A3E-AB49-45DBC599BBDA}">
-  <dimension ref="A1:T141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFC89D8-21DC-4B01-AE59-665A5DD6FD14}">
+  <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4528,7 +4510,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4555,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4590,25 +4572,25 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -4641,25 +4623,25 @@
         <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
@@ -4694,25 +4676,25 @@
         <v>67</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
@@ -4747,25 +4729,25 @@
         <v>50</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
@@ -4798,25 +4780,25 @@
         <v>50</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -4851,25 +4833,25 @@
         <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
@@ -4904,25 +4886,25 @@
         <v>148</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
@@ -4957,25 +4939,25 @@
         <v>134</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
@@ -5010,25 +4992,25 @@
         <v>129</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
@@ -5063,25 +5045,25 @@
         <v>108</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
@@ -5116,25 +5098,25 @@
         <v>101</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
@@ -5169,25 +5151,25 @@
         <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
@@ -5222,25 +5204,25 @@
         <v>100</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
@@ -5251,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5275,25 +5257,25 @@
         <v>100</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
@@ -5304,7 +5286,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4">
         <v>1967</v>
@@ -5328,25 +5310,25 @@
         <v>100</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
@@ -5357,7 +5339,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5381,25 +5363,25 @@
         <v>100</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
@@ -5410,7 +5392,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4">
         <v>2012</v>
@@ -5434,25 +5416,25 @@
         <v>100</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
@@ -5463,7 +5445,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5487,25 +5469,25 @@
         <v>100</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
@@ -5516,7 +5498,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4">
         <v>2015</v>
@@ -5540,30 +5522,30 @@
         <v>100</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -5591,36 +5573,36 @@
         <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="4">
         <v>1923</v>
@@ -5644,36 +5626,36 @@
         <v>132</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3">
         <v>1962</v>
@@ -5697,36 +5679,36 @@
         <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4">
         <v>1966</v>
@@ -5750,36 +5732,36 @@
         <v>100</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T25" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3">
         <v>1959</v>
@@ -5803,36 +5785,36 @@
         <v>100</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D27" s="4">
         <v>1999</v>
@@ -5856,25 +5838,25 @@
         <v>100</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T27" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
@@ -5909,25 +5891,25 @@
         <v>100</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
@@ -5962,25 +5944,25 @@
         <v>100</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T29" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
@@ -6015,25 +5997,25 @@
         <v>100</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
@@ -6044,7 +6026,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D31" s="4">
         <v>1955</v>
@@ -6068,36 +6050,36 @@
         <v>100</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T31" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3">
         <v>1957</v>
@@ -6121,36 +6103,36 @@
         <v>100</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="4">
         <v>1958</v>
@@ -6174,36 +6156,36 @@
         <v>100</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T33" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3">
         <v>1965</v>
@@ -6227,36 +6209,36 @@
         <v>100</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T34" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="4">
         <v>1962</v>
@@ -6280,36 +6262,36 @@
         <v>100</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T35" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="3">
         <v>1981</v>
@@ -6333,36 +6315,36 @@
         <v>100</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" s="4">
         <v>1928</v>
@@ -6386,36 +6368,36 @@
         <v>127</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T37" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" s="3">
         <v>1950</v>
@@ -6439,36 +6421,36 @@
         <v>105</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T38" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4">
         <v>2016</v>
@@ -6492,36 +6474,36 @@
         <v>100</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T39" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" s="3">
         <v>1943</v>
@@ -6545,36 +6527,36 @@
         <v>112</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T40" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="4">
         <v>1978</v>
@@ -6598,36 +6580,36 @@
         <v>100</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T41" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D42" s="3">
         <v>1976</v>
@@ -6651,36 +6633,36 @@
         <v>100</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D43" s="4">
         <v>1910</v>
@@ -6704,36 +6686,36 @@
         <v>145</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T43" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3">
         <v>1960</v>
@@ -6757,36 +6739,36 @@
         <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4">
         <v>1966</v>
@@ -6810,36 +6792,36 @@
         <v>100</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T45" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3">
         <v>1962</v>
@@ -6863,36 +6845,36 @@
         <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" s="4">
         <v>1970</v>
@@ -6916,36 +6898,36 @@
         <v>100</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T47" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D48" s="3">
         <v>1956</v>
@@ -6969,36 +6951,36 @@
         <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T48" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D49" s="4">
         <v>1958</v>
@@ -7022,36 +7004,36 @@
         <v>100</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T49" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T49" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="3">
         <v>1978</v>
@@ -7075,36 +7057,36 @@
         <v>100</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T50" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4">
         <v>1968</v>
@@ -7128,30 +7110,30 @@
         <v>100</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S51" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T51" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>21</v>
@@ -7181,36 +7163,36 @@
         <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="Q52" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D53" s="4">
         <v>1965</v>
@@ -7234,36 +7216,36 @@
         <v>100</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T53" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T53" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D54" s="3">
         <v>1962</v>
@@ -7287,36 +7269,36 @@
         <v>100</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T54" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D55" s="4">
         <v>1964</v>
@@ -7340,36 +7322,36 @@
         <v>100</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T55" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T55" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D56" s="3">
         <v>1953</v>
@@ -7393,36 +7375,36 @@
         <v>102</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T56" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T56" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D57" s="4">
         <v>1943</v>
@@ -7446,36 +7428,36 @@
         <v>112</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T57" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="3">
         <v>1928</v>
@@ -7499,36 +7481,36 @@
         <v>127</v>
       </c>
       <c r="N58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="Q58" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D59" s="4">
         <v>1926</v>
@@ -7552,36 +7534,36 @@
         <v>129</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T59" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T59" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D60" s="3">
         <v>1955</v>
@@ -7605,36 +7587,36 @@
         <v>100</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S60" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T60" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>1958</v>
@@ -7658,36 +7640,36 @@
         <v>100</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T61" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="T61" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D62" s="3">
         <v>1966</v>
@@ -7711,36 +7693,36 @@
         <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S62" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="4">
         <v>1976</v>
@@ -7764,33 +7746,33 @@
         <v>100</v>
       </c>
       <c r="N63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P63" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="Q63" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>24</v>
@@ -7817,36 +7799,36 @@
         <v>118</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D65" s="4">
         <v>1962</v>
@@ -7870,36 +7852,36 @@
         <v>100</v>
       </c>
       <c r="N65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O65" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="Q65" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D66" s="3">
         <v>1923</v>
@@ -7925,13 +7907,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D67" s="4">
         <v>2016</v>
@@ -7957,13 +7939,13 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D68" s="3">
         <v>1977</v>
@@ -7989,13 +7971,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D69" s="4">
         <v>2022</v>
@@ -8021,13 +8003,13 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D70" s="3">
         <v>2009</v>
@@ -8053,10 +8035,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>25</v>
@@ -8085,13 +8067,13 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D72" s="3">
         <v>1968</v>
@@ -8117,10 +8099,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>16</v>
@@ -8149,10 +8131,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>16</v>
@@ -8181,13 +8163,13 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D75" s="4">
         <v>1908</v>
@@ -8213,13 +8195,13 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D76" s="3">
         <v>1920</v>
@@ -8245,13 +8227,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D77" s="4">
         <v>1920</v>
@@ -8277,13 +8259,13 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D78" s="3">
         <v>1925</v>
@@ -8309,13 +8291,13 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D79" s="4">
         <v>1932</v>
@@ -8341,13 +8323,13 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D80" s="3">
         <v>1947</v>
@@ -8373,13 +8355,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D81" s="4">
         <v>1950</v>
@@ -8405,31 +8387,31 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8437,31 +8419,31 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8469,13 +8451,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D84" s="3">
         <v>1958</v>
@@ -8501,7 +8483,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -8533,13 +8515,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D86" s="3">
         <v>1960</v>
@@ -8565,13 +8547,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D87" s="4">
         <v>1967</v>
@@ -8597,13 +8579,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D88" s="3">
         <v>1975</v>
@@ -8629,13 +8611,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D89" s="4">
         <v>1984</v>
@@ -8661,13 +8643,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D90" s="3">
         <v>1979</v>
@@ -8693,13 +8675,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D91" s="4">
         <v>1969</v>
@@ -8725,13 +8707,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D92" s="3">
         <v>1972</v>
@@ -8757,13 +8739,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D93" s="4">
         <v>2009</v>
@@ -8789,13 +8771,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D94" s="3">
         <v>2010</v>
@@ -8821,25 +8803,25 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D95" s="4">
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -8853,19 +8835,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8885,19 +8867,19 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8917,19 +8899,19 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8949,25 +8931,25 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D99" s="4">
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H99" s="4">
         <v>21.450000000000003</v>
@@ -8981,13 +8963,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D100" s="3">
         <v>2011</v>
@@ -9013,25 +8995,25 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H101" s="4">
         <v>21.450000000000003</v>
@@ -9045,19 +9027,19 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>2E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9077,19 +9059,19 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>2.3E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9098,7 +9080,7 @@
         <v>1336.5</v>
       </c>
       <c r="H103" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I103" s="4">
         <v>0</v>
@@ -9109,25 +9091,25 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H104" s="3">
         <v>21.450000000000003</v>
@@ -9141,19 +9123,19 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9173,13 +9155,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
@@ -9205,19 +9187,19 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.4E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9237,25 +9219,25 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9269,28 +9251,28 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.8E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H109" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -9301,19 +9283,19 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9333,19 +9315,19 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9365,25 +9347,25 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D112" s="3">
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9397,16 +9379,16 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D113" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E113" s="4">
         <v>1E-3</v>
@@ -9424,18 +9406,18 @@
         <v>0</v>
       </c>
       <c r="J113" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
@@ -9461,25 +9443,25 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>8.0999999999999996E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9493,13 +9475,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
@@ -9525,19 +9507,19 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9557,25 +9539,25 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -9589,19 +9571,19 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D119" s="4">
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9621,13 +9603,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D120" s="3">
         <v>2014</v>
@@ -9653,19 +9635,19 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9685,19 +9667,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>2.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9717,19 +9699,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9749,19 +9731,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9781,19 +9763,19 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9813,13 +9795,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
@@ -9845,19 +9827,19 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>2.7000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9877,19 +9859,19 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9909,19 +9891,19 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D129" s="4">
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9941,19 +9923,19 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D130" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9968,24 +9950,24 @@
         <v>0</v>
       </c>
       <c r="J130" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D131" s="4">
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9994,7 +9976,7 @@
         <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -10005,13 +9987,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
@@ -10037,13 +10019,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D133" s="4">
         <v>2016</v>
@@ -10069,19 +10051,19 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D134" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E134" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -10090,94 +10072,94 @@
         <v>1336.5</v>
       </c>
       <c r="H134" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
       </c>
       <c r="J134" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D135" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4311999999999996</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
       </c>
       <c r="G135" s="4">
-        <v>1336.5</v>
+        <v>990</v>
       </c>
       <c r="H135" s="4">
-        <v>21.450000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="I135" s="4">
         <v>0</v>
       </c>
       <c r="J135" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D136" s="3">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E136" s="3">
-        <v>4.4311999999999996</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>990</v>
+        <v>2376</v>
       </c>
       <c r="H136" s="3">
-        <v>16.5</v>
+        <v>57.2</v>
       </c>
       <c r="I136" s="3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J136" s="3">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D137" s="4">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E137" s="4">
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10186,30 +10168,30 @@
         <v>2376</v>
       </c>
       <c r="H137" s="4">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I137" s="4">
         <v>2.52</v>
       </c>
       <c r="J137" s="4">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D138" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E138" s="3">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10218,30 +10200,30 @@
         <v>2376</v>
       </c>
       <c r="H138" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I138" s="3">
         <v>2.52</v>
       </c>
       <c r="J138" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D139" s="4">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>4.6999999999999993E-2</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10256,24 +10238,24 @@
         <v>2.52</v>
       </c>
       <c r="J139" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D140" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E140" s="3">
-        <v>4.6999999999999993E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10288,38 +10270,6 @@
         <v>2.52</v>
       </c>
       <c r="J140" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A141" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D141" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E141" s="4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F141" s="4">
-        <v>1</v>
-      </c>
-      <c r="G141" s="4">
-        <v>2376</v>
-      </c>
-      <c r="H141" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="I141" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="J141" s="4">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49251F0-E08F-4D63-AAC7-71EFB68A002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{308C25CE-6916-48AE-9847-03094230764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{20582E40-0F7B-46CD-8D60-C744537CD181}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AC8FF9C3-CAEC-4B46-87F2-4B909305E958}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A035F6B9-ACFD-42F6-B2AD-092544882B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340ECB02-B14A-4D2C-9841-8AA4F8073220}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFF6D97-3281-4F7E-9F5A-881556D4BD8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD7571D-59DE-4665-B069-45C1D4C04BCA}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFC89D8-21DC-4B01-AE59-665A5DD6FD14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5C3AAA-2923-4BA8-986C-5B2829CFDB9B}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8815,13 +8815,13 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8943,7 +8943,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -8975,13 +8975,13 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9007,13 +9007,13 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.5E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H101" s="4">
         <v>21.450000000000003</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>1336.5</v>
       </c>
       <c r="H102" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9103,13 +9103,13 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H104" s="3">
         <v>21.450000000000003</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,13 +9199,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9263,7 +9263,7 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>2.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>1336.5</v>
       </c>
       <c r="H109" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -9295,7 +9295,7 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,7 +9455,7 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>1336.5</v>
       </c>
       <c r="H130" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I130" s="3">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.4E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{308C25CE-6916-48AE-9847-03094230764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{635D6FDD-75BB-4F73-B144-CFC6F79C8534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AC8FF9C3-CAEC-4B46-87F2-4B909305E958}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6456A4C8-1B86-4489-8784-91C19B5A4DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -121,10 +121,10 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
     <t>e_CH44-220</t>
-  </si>
-  <si>
-    <t>e_w207993342-220</t>
   </si>
   <si>
     <t>e_w234983117-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340ECB02-B14A-4D2C-9841-8AA4F8073220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E79DA0-7BB2-4AC2-84A0-3FD5A78CB6F3}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD7571D-59DE-4665-B069-45C1D4C04BCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0F6037-9D75-4744-99D1-4B5AD471CD10}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5C3AAA-2923-4BA8-986C-5B2829CFDB9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B23182-47B3-4C66-B70B-114C4F2C0020}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5133,7 +5133,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5186,7 +5186,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7139,7 +7139,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8393,25 +8393,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H82" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I82" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8425,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H83" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8943,7 +8943,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -8975,13 +8975,13 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9007,13 +9007,13 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H101" s="4">
         <v>21.450000000000003</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>2.3E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9048,7 +9048,7 @@
         <v>1336.5</v>
       </c>
       <c r="H102" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -9071,13 +9071,13 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,13 +9199,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9231,7 +9231,7 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9263,7 +9263,7 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9295,13 +9295,13 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9551,13 +9551,13 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>1336.5</v>
       </c>
       <c r="H130" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I130" s="3">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{635D6FDD-75BB-4F73-B144-CFC6F79C8534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6172B1C2-4C13-45FD-8DA0-C88494E69FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6456A4C8-1B86-4489-8784-91C19B5A4DD1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{284758C4-D49E-47BB-B722-1CC8C8E6957C}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E79DA0-7BB2-4AC2-84A0-3FD5A78CB6F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE779704-52ED-4CDC-BA4E-0EA397446680}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0F6037-9D75-4744-99D1-4B5AD471CD10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3015D-77B3-4DC9-93FC-3406103B6F03}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B23182-47B3-4C66-B70B-114C4F2C0020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D40D34D-D831-4E4B-8A13-8329119D3F3F}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8879,7 +8879,7 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8943,7 +8943,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9007,13 +9007,13 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H101" s="4">
         <v>21.450000000000003</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9071,13 +9071,13 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>2.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,13 +9199,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9263,7 +9263,7 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>1336.5</v>
       </c>
       <c r="H109" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -9295,13 +9295,13 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,13 +9487,13 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9551,7 +9551,7 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>1336.5</v>
       </c>
       <c r="H130" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I130" s="3">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.4E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6172B1C2-4C13-45FD-8DA0-C88494E69FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A50F13-F4A4-46D3-BD0C-688679B684BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{284758C4-D49E-47BB-B722-1CC8C8E6957C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{43623A44-6750-4A20-86A4-143E288CD0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -370,10 +370,10 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
     <t>e_w1105061707-220</t>
-  </si>
-  <si>
-    <t>e_w50561341-220</t>
   </si>
   <si>
     <t>e_w969811258-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE779704-52ED-4CDC-BA4E-0EA397446680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E9C3FA-DC33-4E6A-8D8F-F65275882101}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3015D-77B3-4DC9-93FC-3406103B6F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDB3A0C-929D-4074-A731-3B6ED3966274}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D40D34D-D831-4E4B-8A13-8329119D3F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CB7ECE-7C70-4D04-B1A2-6E136B35B283}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8207,7 +8207,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8239,7 +8239,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8251,7 +8251,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8393,25 +8393,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8425,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8815,7 +8815,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8975,13 +8975,13 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9007,13 +9007,13 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H101" s="4">
         <v>21.450000000000003</v>
@@ -9039,13 +9039,13 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9071,13 +9071,13 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.5E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,13 +9199,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,7 +9455,7 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9487,13 +9487,13 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -9519,13 +9519,13 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -9551,7 +9551,7 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A50F13-F4A4-46D3-BD0C-688679B684BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D34F3D-37C0-4DC3-85FF-3791F53D18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{43623A44-6750-4A20-86A4-143E288CD0C2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90B65240-0299-4D88-A062-AAE9D4277857}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -121,12 +121,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_w207993342-220</t>
   </si>
   <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -370,10 +370,10 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
-  </si>
-  <si>
-    <t>e_w1105061707-220</t>
   </si>
   <si>
     <t>e_w969811258-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E9C3FA-DC33-4E6A-8D8F-F65275882101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD443479-7475-43FA-B5F5-5742F20AB637}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDB3A0C-929D-4074-A731-3B6ED3966274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A967627-42CA-4D20-A798-749A7E4CFDBD}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CB7ECE-7C70-4D04-B1A2-6E136B35B283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9971C3EC-596B-471B-A48A-56EFDCBAE4D4}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5133,7 +5133,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5186,7 +5186,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7139,7 +7139,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8207,7 +8207,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8239,7 +8239,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8251,7 +8251,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8815,7 +8815,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8879,13 +8879,13 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -8911,7 +8911,7 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8975,13 +8975,13 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9007,7 +9007,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9039,13 +9039,13 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9071,13 +9071,13 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9144,7 +9144,7 @@
         <v>1336.5</v>
       </c>
       <c r="H105" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I105" s="4">
         <v>0</v>
@@ -9199,13 +9199,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9231,7 +9231,7 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9263,7 +9263,7 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>2.3E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>1336.5</v>
       </c>
       <c r="H109" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -9295,13 +9295,13 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9327,13 +9327,13 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.5E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
       </c>
       <c r="G111" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H111" s="4">
         <v>21.450000000000003</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9487,13 +9487,13 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -9519,13 +9519,13 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -9551,7 +9551,7 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.5E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>1336.5</v>
       </c>
       <c r="H130" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I130" s="3">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.4E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D34F3D-37C0-4DC3-85FF-3791F53D18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80064514-3922-4689-A0C1-D7493CBB4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90B65240-0299-4D88-A062-AAE9D4277857}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{64CC0442-693E-40E0-A84F-001CABDD7465}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD443479-7475-43FA-B5F5-5742F20AB637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34663688-86B8-440C-989F-02A482580957}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A967627-42CA-4D20-A798-749A7E4CFDBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB63CA3-57B7-4701-AC53-7140BC5F4EF3}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9971C3EC-596B-471B-A48A-56EFDCBAE4D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D550C5B-8EDC-48C3-9965-D16CDD5895B6}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8393,25 +8393,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H82" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I82" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8425,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H83" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8815,7 +8815,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8879,13 +8879,13 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8975,7 +8975,7 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9039,13 +9039,13 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>2.3E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9144,7 +9144,7 @@
         <v>1336.5</v>
       </c>
       <c r="H105" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I105" s="4">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.5E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9208,7 +9208,7 @@
         <v>1336.5</v>
       </c>
       <c r="H107" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I107" s="4">
         <v>0</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9327,13 +9327,13 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
       </c>
       <c r="G111" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H111" s="4">
         <v>21.450000000000003</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,13 +9391,13 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
       </c>
       <c r="G113" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H113" s="4">
         <v>21.450000000000003</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,7 +9455,7 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9487,13 +9487,13 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80064514-3922-4689-A0C1-D7493CBB4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{400057C4-23D0-4115-8650-A097DF3B9965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{64CC0442-693E-40E0-A84F-001CABDD7465}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{45C6D45B-DE47-46FC-B7C7-0CBC514D10D9}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -370,10 +370,10 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
     <t>e_w1105061707-220</t>
-  </si>
-  <si>
-    <t>e_w50561341-220</t>
   </si>
   <si>
     <t>e_w969811258-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34663688-86B8-440C-989F-02A482580957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CCAA39-F1C9-459A-9710-450327DBA768}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB63CA3-57B7-4701-AC53-7140BC5F4EF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2512DC92-C850-4EC7-8922-A8934548CE14}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D550C5B-8EDC-48C3-9965-D16CDD5895B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAED677-95CF-4C5F-9027-27A28012C6B6}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8207,7 +8207,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8239,7 +8239,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8251,7 +8251,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8393,25 +8393,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8425,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8943,13 +8943,13 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H99" s="4">
         <v>21.450000000000003</v>
@@ -9007,7 +9007,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9016,7 +9016,7 @@
         <v>1336.5</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9039,13 +9039,13 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9103,13 +9103,13 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H104" s="3">
         <v>21.450000000000003</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9199,16 +9199,16 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>2.3E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H107" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I107" s="4">
         <v>0</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9263,7 +9263,7 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9295,13 +9295,13 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,13 +9391,13 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
       </c>
       <c r="G113" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H113" s="4">
         <v>21.450000000000003</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,7 +9455,7 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9551,13 +9551,13 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.4E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400057C4-23D0-4115-8650-A097DF3B9965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84AD9A6-1200-4111-B42C-F24A76BD4385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{45C6D45B-DE47-46FC-B7C7-0CBC514D10D9}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{AAB6E557-DF64-4BE5-96FD-0D65F088F50E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CCAA39-F1C9-459A-9710-450327DBA768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC95C0A-41CA-488D-A1D4-28DC19CF168D}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2512DC92-C850-4EC7-8922-A8934548CE14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA7325D-B278-4997-85CC-2BA1C898C686}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAED677-95CF-4C5F-9027-27A28012C6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C54C02-BCDE-4520-B265-9C6B4446B5A2}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8815,7 +8815,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8943,13 +8943,13 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H99" s="4">
         <v>21.450000000000003</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9103,13 +9103,13 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H104" s="3">
         <v>21.450000000000003</v>
@@ -9135,13 +9135,13 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H105" s="4">
         <v>21.450000000000003</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,13 +9199,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9263,13 +9263,13 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9295,7 +9295,7 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.8E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9551,13 +9551,13 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.4E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10008,7 +10008,7 @@
         <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84AD9A6-1200-4111-B42C-F24A76BD4385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB98CCF-7C3B-43DC-968E-7520B6DBB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{AAB6E557-DF64-4BE5-96FD-0D65F088F50E}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{95578056-1A5B-4E2A-ADDA-A7829ED54BB5}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -121,10 +121,10 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
     <t>e_CH44-220</t>
-  </si>
-  <si>
-    <t>e_w207993342-220</t>
   </si>
   <si>
     <t>e_w234983117-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC95C0A-41CA-488D-A1D4-28DC19CF168D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD732E42-11A4-42ED-A717-BBBC4169F3A3}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA7325D-B278-4997-85CC-2BA1C898C686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF79D14D-DAE3-4B24-8BDE-72C6F92F9489}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C54C02-BCDE-4520-B265-9C6B4446B5A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDC7EDD-4808-4B42-A621-6CD6ED1113EC}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5133,7 +5133,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5186,7 +5186,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7139,7 +7139,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8943,13 +8943,13 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H99" s="4">
         <v>21.450000000000003</v>
@@ -8975,7 +8975,7 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9167,13 +9167,13 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9231,7 +9231,7 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9263,13 +9263,13 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9295,13 +9295,13 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,13 +9391,13 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
       </c>
       <c r="G113" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H113" s="4">
         <v>21.450000000000003</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9551,7 +9551,7 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.5E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10008,7 +10008,7 @@
         <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB98CCF-7C3B-43DC-968E-7520B6DBB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BBD8A0-1BE2-4F39-B1EE-B593B1458A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{95578056-1A5B-4E2A-ADDA-A7829ED54BB5}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{9E32BF0B-AEB6-43D2-B641-9DE70B85F4F1}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -370,10 +370,10 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
-  </si>
-  <si>
-    <t>e_w1105061707-220</t>
   </si>
   <si>
     <t>e_w969811258-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD732E42-11A4-42ED-A717-BBBC4169F3A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02825E-5CF6-42F2-9331-EEA14F913DDE}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF79D14D-DAE3-4B24-8BDE-72C6F92F9489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABABCBA4-13C2-4847-9A0B-07B43A3DC219}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDC7EDD-4808-4B42-A621-6CD6ED1113EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B0F27-3EF6-4B3F-B1D5-E49CCB5B6C5A}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8207,7 +8207,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8239,7 +8239,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8251,7 +8251,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8879,13 +8879,13 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -8911,7 +8911,7 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8943,13 +8943,13 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H99" s="4">
         <v>21.450000000000003</v>
@@ -8975,7 +8975,7 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9135,13 +9135,13 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H105" s="4">
         <v>21.450000000000003</v>
@@ -9167,13 +9167,13 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9199,7 +9199,7 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9263,13 +9263,13 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9295,13 +9295,13 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9391,13 +9391,13 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
       </c>
       <c r="G113" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H113" s="4">
         <v>21.450000000000003</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9551,7 +9551,7 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.5E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BBD8A0-1BE2-4F39-B1EE-B593B1458A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C015850-8981-44AB-BCD6-CCB022AC5B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{9E32BF0B-AEB6-43D2-B641-9DE70B85F4F1}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{ADCE348D-B827-4311-967A-71B3389EB12F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -121,12 +121,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_w207993342-220</t>
   </si>
   <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -370,10 +370,10 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
     <t>e_w1105061707-220</t>
-  </si>
-  <si>
-    <t>e_w50561341-220</t>
   </si>
   <si>
     <t>e_w969811258-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02825E-5CF6-42F2-9331-EEA14F913DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393C0FC1-FEDE-419A-8C48-198F8CBC0986}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABABCBA4-13C2-4847-9A0B-07B43A3DC219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A51C46-F27D-4107-B184-04FC985363D2}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B0F27-3EF6-4B3F-B1D5-E49CCB5B6C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD64FF3-9056-4F9A-82AA-5E55B7F0D768}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5133,7 +5133,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5186,7 +5186,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7139,7 +7139,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8207,7 +8207,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8239,7 +8239,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8251,7 +8251,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8393,25 +8393,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H82" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I82" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8425,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H83" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8815,7 +8815,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8879,13 +8879,13 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8943,7 +8943,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9007,7 +9007,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>2.3E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9016,7 +9016,7 @@
         <v>1336.5</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9071,13 +9071,13 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9135,13 +9135,13 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H105" s="4">
         <v>21.450000000000003</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9295,7 +9295,7 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9551,13 +9551,13 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>1E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C015850-8981-44AB-BCD6-CCB022AC5B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CC0092-56FB-48DE-8C33-A43976B3B3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{ADCE348D-B827-4311-967A-71B3389EB12F}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{20F6CE37-497B-4BA4-B5CA-057E6B3D2BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393C0FC1-FEDE-419A-8C48-198F8CBC0986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7A2AC4-1A5A-4573-A650-CA1BDCF8B97E}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A51C46-F27D-4107-B184-04FC985363D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B3C915-6C9F-48D3-A7D0-542643AD1D5D}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD64FF3-9056-4F9A-82AA-5E55B7F0D768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B3D89-C974-4F9A-807B-D90808C9B0A4}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8393,25 +8393,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8425,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8815,13 +8815,13 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8975,7 +8975,7 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9007,7 +9007,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9039,13 +9039,13 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9071,16 +9071,16 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H103" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I103" s="4">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>2.3E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9231,7 +9231,7 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9263,13 +9263,13 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9295,7 +9295,7 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9327,13 +9327,13 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
       </c>
       <c r="G111" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H111" s="4">
         <v>21.450000000000003</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,7 +9455,7 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.5E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10008,7 +10008,7 @@
         <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CC0092-56FB-48DE-8C33-A43976B3B3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F8641E-77FD-4CDD-8116-45CA14E721CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{20F6CE37-497B-4BA4-B5CA-057E6B3D2BCD}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{2FEBA999-C2F1-4B55-B316-70BBA9D1427D}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7A2AC4-1A5A-4573-A650-CA1BDCF8B97E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057FD8A1-5EA0-477F-85AB-5B2D588E116F}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B3C915-6C9F-48D3-A7D0-542643AD1D5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE1A74B-E2D5-425E-9DEE-02A0DD8A3597}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B3D89-C974-4F9A-807B-D90808C9B0A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D38963-1F96-40DD-B8F2-B23E795264DE}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8815,13 +8815,13 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -8847,7 +8847,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -8943,7 +8943,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>2.3E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9080,7 +9080,7 @@
         <v>1336.5</v>
       </c>
       <c r="H103" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I103" s="4">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.5E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9263,13 +9263,13 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9295,7 +9295,7 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9327,13 +9327,13 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
       </c>
       <c r="G111" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H111" s="4">
         <v>21.450000000000003</v>
@@ -9359,13 +9359,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9391,7 +9391,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,7 +9487,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9551,13 +9551,13 @@
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -9583,7 +9583,7 @@
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10008,7 +10008,7 @@
         <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F8641E-77FD-4CDD-8116-45CA14E721CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8422C0DC-BF9C-450D-A619-0E000DC2B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{2FEBA999-C2F1-4B55-B316-70BBA9D1427D}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{72F71BA0-1004-4BDB-BDB8-656B047A177F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -121,10 +121,10 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
     <t>e_CH44-220</t>
-  </si>
-  <si>
-    <t>e_w207993342-220</t>
   </si>
   <si>
     <t>e_w234983117-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057FD8A1-5EA0-477F-85AB-5B2D588E116F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7195769A-1098-4128-90D9-AF69E7240075}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE1A74B-E2D5-425E-9DEE-02A0DD8A3597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53518CC3-D9C1-4F6C-B5D9-73B77CB3FC66}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D38963-1F96-40DD-B8F2-B23E795264DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB97747-5D0B-403C-9861-1111FF74C88A}">
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5133,7 +5133,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5186,7 +5186,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7139,7 +7139,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8879,13 +8879,13 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -8911,13 +8911,13 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -9007,7 +9007,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9016,7 +9016,7 @@
         <v>1336.5</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9039,13 +9039,13 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9071,7 +9071,7 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>2.3E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9167,13 +9167,13 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9231,13 +9231,13 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9263,13 +9263,13 @@
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9295,7 +9295,7 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9327,7 +9327,7 @@
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.5E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9455,13 +9455,13 @@
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -9487,13 +9487,13 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -9519,7 +9519,7 @@
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8422C0DC-BF9C-450D-A619-0E000DC2B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBC735B-C5A0-42FF-921E-1FE296BB6095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{72F71BA0-1004-4BDB-BDB8-656B047A177F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6683C4B6-288B-42F7-82B5-85ED71548FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="242">
   <si>
     <t>~fi_t</t>
   </si>
@@ -121,10 +121,10 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_w207993342-220</t>
-  </si>
-  <si>
-    <t>e_CH44-220</t>
   </si>
   <si>
     <t>e_w234983117-220</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7195769A-1098-4128-90D9-AF69E7240075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E02075-3858-4B65-AB73-3B4509B84AB7}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53518CC3-D9C1-4F6C-B5D9-73B77CB3FC66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2217057F-D860-4BA9-8FC5-8FC220FA5F2A}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4488,8 +4488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB97747-5D0B-403C-9861-1111FF74C88A}">
-  <dimension ref="A1:T140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB01E5DA-95F6-4646-9E7A-858750FEA1B3}">
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5133,7 +5133,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5186,7 +5186,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7139,7 +7139,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8393,25 +8393,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H82" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I82" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8425,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H83" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8815,7 +8815,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8879,13 +8879,13 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -8911,7 +8911,7 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -8975,13 +8975,13 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9007,7 +9007,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>2.3E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9016,7 +9016,7 @@
         <v>1336.5</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9039,7 +9039,7 @@
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9135,7 +9135,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9167,13 +9167,13 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9199,7 +9199,7 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9231,7 +9231,7 @@
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.5E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9295,13 +9295,13 @@
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9324,10 +9324,10 @@
         <v>124</v>
       </c>
       <c r="D111" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E111" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9336,13 +9336,13 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
       </c>
       <c r="J111" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
@@ -9356,16 +9356,16 @@
         <v>124</v>
       </c>
       <c r="D112" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E112" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
@@ -9423,7 +9423,7 @@
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9487,13 +9487,13 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -9516,10 +9516,10 @@
         <v>124</v>
       </c>
       <c r="D117" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E117" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
@@ -9548,10 +9548,10 @@
         <v>124</v>
       </c>
       <c r="D118" s="3">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E118" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
@@ -9580,10 +9580,10 @@
         <v>124</v>
       </c>
       <c r="D119" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
@@ -9612,10 +9612,10 @@
         <v>124</v>
       </c>
       <c r="D120" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E120" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
@@ -9647,7 +9647,7 @@
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9679,7 +9679,7 @@
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9711,7 +9711,7 @@
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.03E-2</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9804,10 +9804,10 @@
         <v>124</v>
       </c>
       <c r="D126" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E126" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
@@ -9836,10 +9836,10 @@
         <v>124</v>
       </c>
       <c r="D127" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E127" s="4">
-        <v>1E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
@@ -9868,10 +9868,10 @@
         <v>124</v>
       </c>
       <c r="D128" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E128" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9880,13 +9880,13 @@
         <v>1336.5</v>
       </c>
       <c r="H128" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I128" s="3">
         <v>0</v>
       </c>
       <c r="J128" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
@@ -9900,10 +9900,10 @@
         <v>124</v>
       </c>
       <c r="D129" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E129" s="4">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
@@ -9932,10 +9932,10 @@
         <v>124</v>
       </c>
       <c r="D130" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E130" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -9950,12 +9950,12 @@
         <v>0</v>
       </c>
       <c r="J130" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>123</v>
@@ -9964,150 +9964,150 @@
         <v>124</v>
       </c>
       <c r="D131" s="4">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E131" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>4.4311999999999996</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
       </c>
       <c r="G131" s="4">
-        <v>1336.5</v>
+        <v>990</v>
       </c>
       <c r="H131" s="4">
-        <v>21.450000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
       </c>
       <c r="J131" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D132" s="3">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E132" s="3">
-        <v>1.4E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>1336.5</v>
+        <v>2376</v>
       </c>
       <c r="H132" s="3">
-        <v>21.450000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="I132" s="3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J132" s="3">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D133" s="4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E133" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
       </c>
       <c r="G133" s="4">
-        <v>1336.5</v>
+        <v>2376</v>
       </c>
       <c r="H133" s="4">
-        <v>21.45</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I133" s="4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J133" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D134" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E134" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1336.5</v>
+        <v>2376</v>
       </c>
       <c r="H134" s="3">
-        <v>21.450000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="I134" s="3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J134" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D135" s="4">
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>4.4311999999999996</v>
+        <v>4.6999999999999993E-2</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
       </c>
       <c r="G135" s="4">
-        <v>990</v>
+        <v>2376</v>
       </c>
       <c r="H135" s="4">
-        <v>16.5</v>
+        <v>57.2</v>
       </c>
       <c r="I135" s="4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J135" s="4">
         <v>33</v>
@@ -10124,10 +10124,10 @@
         <v>128</v>
       </c>
       <c r="D136" s="3">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="E136" s="3">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10142,134 +10142,6 @@
         <v>2.52</v>
       </c>
       <c r="J136" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A137" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D137" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E137" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F137" s="4">
-        <v>1</v>
-      </c>
-      <c r="G137" s="4">
-        <v>2376</v>
-      </c>
-      <c r="H137" s="4">
-        <v>57.20000000000001</v>
-      </c>
-      <c r="I137" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="J137" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A138" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D138" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F138" s="3">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>2376</v>
-      </c>
-      <c r="H138" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="I138" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="J138" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A139" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D139" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E139" s="4">
-        <v>4.6999999999999993E-2</v>
-      </c>
-      <c r="F139" s="4">
-        <v>1</v>
-      </c>
-      <c r="G139" s="4">
-        <v>2376</v>
-      </c>
-      <c r="H139" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="I139" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="J139" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A140" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D140" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>2376</v>
-      </c>
-      <c r="H140" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="I140" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="J140" s="3">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBC735B-C5A0-42FF-921E-1FE296BB6095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40038CA5-F465-4AEA-A53F-EAE6B75C740F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6683C4B6-288B-42F7-82B5-85ED71548FD0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FE0ECE48-9088-4DAC-8318-4CF4794E6393}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="257">
   <si>
     <t>~fi_t</t>
   </si>
@@ -121,12 +121,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
     <t>e_CH44-220</t>
   </si>
   <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -370,12 +370,12 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
   </si>
   <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
@@ -412,7 +412,46 @@
     <t>solar</t>
   </si>
   <si>
-    <t>ELC_Sol-CHE</t>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
@@ -424,7 +463,13 @@
     <t>wind</t>
   </si>
   <si>
-    <t>ELC_Win-CHE</t>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
@@ -1216,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E02075-3858-4B65-AB73-3B4509B84AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC702F6-DBCC-4682-BB5C-3177C1B9469B}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1236,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1260,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1283,33 +1328,33 @@
         <v>2050</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1330,28 +1375,28 @@
         <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -1369,31 +1414,31 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1414,28 +1459,28 @@
         <v>7</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1456,28 +1501,28 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -1495,31 +1540,31 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1540,28 +1585,28 @@
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1579,31 +1624,31 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1624,28 +1669,28 @@
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1666,28 +1711,28 @@
         <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -1705,31 +1750,31 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1750,28 +1795,28 @@
         <v>6</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -1789,31 +1834,31 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -1834,28 +1879,28 @@
         <v>7</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1876,28 +1921,28 @@
         <v>8</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -1915,31 +1960,31 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -1960,28 +2005,28 @@
         <v>6</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1999,31 +2044,31 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
@@ -2044,28 +2089,28 @@
         <v>7</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -2086,28 +2131,28 @@
         <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -2125,31 +2170,31 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>14</v>
@@ -2170,28 +2215,28 @@
         <v>6</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -2212,28 +2257,28 @@
         <v>7</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>14</v>
@@ -2254,28 +2299,28 @@
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -2296,28 +2341,28 @@
         <v>6</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>14</v>
@@ -2338,28 +2383,28 @@
         <v>7</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -2380,28 +2425,28 @@
         <v>8</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>14</v>
@@ -2424,7 +2469,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -2447,7 +2492,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -2470,10 +2515,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>91</v>
@@ -2493,10 +2538,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>91</v>
@@ -2516,10 +2561,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>91</v>
@@ -2539,7 +2584,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>123</v>
@@ -2562,7 +2607,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>123</v>
@@ -2580,12 +2625,12 @@
         <v>0.42</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>123</v>
@@ -2608,7 +2653,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>123</v>
@@ -2631,7 +2676,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>123</v>
@@ -2649,15 +2694,15 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>91</v>
@@ -2677,10 +2722,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>91</v>
@@ -2700,10 +2745,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>91</v>
@@ -2723,7 +2768,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -2746,7 +2791,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>14</v>
@@ -2769,7 +2814,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>14</v>
@@ -2792,10 +2837,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>91</v>
@@ -2815,10 +2860,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>91</v>
@@ -2833,15 +2878,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>91</v>
@@ -2861,10 +2906,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>91</v>
@@ -2884,10 +2929,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>91</v>
@@ -2902,12 +2947,12 @@
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>21</v>
@@ -2930,7 +2975,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>21</v>
@@ -2948,12 +2993,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>21</v>
@@ -2976,7 +3021,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>21</v>
@@ -2999,7 +3044,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>21</v>
@@ -3017,12 +3062,12 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>21</v>
@@ -3045,7 +3090,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>21</v>
@@ -3063,12 +3108,12 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>21</v>
@@ -3091,7 +3136,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>21</v>
@@ -3114,7 +3159,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>21</v>
@@ -3132,12 +3177,12 @@
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>14</v>
@@ -3160,7 +3205,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>14</v>
@@ -3183,7 +3228,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>14</v>
@@ -3206,10 +3251,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>91</v>
@@ -3229,10 +3274,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>91</v>
@@ -3252,10 +3297,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>91</v>
@@ -3275,10 +3320,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>91</v>
@@ -3298,10 +3343,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>91</v>
@@ -3316,15 +3361,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>91</v>
@@ -3344,10 +3389,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>91</v>
@@ -3367,10 +3412,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>91</v>
@@ -3385,12 +3430,12 @@
         <v>4</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>116</v>
@@ -3413,7 +3458,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>116</v>
@@ -3436,7 +3481,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>116</v>
@@ -3459,10 +3504,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>91</v>
@@ -3482,10 +3527,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>91</v>
@@ -3505,10 +3550,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>91</v>
@@ -3528,7 +3573,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>123</v>
@@ -3551,7 +3596,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>123</v>
@@ -3569,12 +3614,12 @@
         <v>0.13</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>123</v>
@@ -3597,7 +3642,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>123</v>
@@ -3620,7 +3665,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>123</v>
@@ -3638,12 +3683,12 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>123</v>
@@ -3666,7 +3711,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>123</v>
@@ -3684,12 +3729,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>123</v>
@@ -3712,7 +3757,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>123</v>
@@ -3735,7 +3780,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>123</v>
@@ -3753,15 +3798,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>91</v>
@@ -3781,10 +3826,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>91</v>
@@ -3804,10 +3849,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>91</v>
@@ -3827,10 +3872,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>91</v>
@@ -3850,10 +3895,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>91</v>
@@ -3873,10 +3918,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>91</v>
@@ -3896,10 +3941,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>91</v>
@@ -3919,10 +3964,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>91</v>
@@ -3942,10 +3987,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>91</v>
@@ -3965,10 +4010,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>91</v>
@@ -3988,10 +4033,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>91</v>
@@ -4006,15 +4051,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>91</v>
@@ -4034,10 +4079,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>91</v>
@@ -4057,10 +4102,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>91</v>
@@ -4075,15 +4120,15 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>91</v>
@@ -4103,10 +4148,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>91</v>
@@ -4121,15 +4166,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>91</v>
@@ -4149,10 +4194,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>91</v>
@@ -4172,10 +4217,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>91</v>
@@ -4190,7 +4235,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4202,7 +4247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2217057F-D860-4BA9-8FC5-8FC220FA5F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0FD2D-A502-4024-AEA2-8CC6632D42D3}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4224,7 +4269,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4252,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4278,42 +4323,42 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -4346,30 +4391,30 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -4402,30 +4447,30 @@
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -4458,25 +4503,25 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB01E5DA-95F6-4646-9E7A-858750FEA1B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A780AF0-9EF4-4925-B4D1-C5FCDC752AA6}">
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4510,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4537,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4572,25 +4617,25 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -4623,25 +4668,25 @@
         <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
@@ -4676,25 +4721,25 @@
         <v>67</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
@@ -4729,25 +4774,25 @@
         <v>50</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
@@ -4780,25 +4825,25 @@
         <v>50</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -4833,25 +4878,25 @@
         <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
@@ -4886,25 +4931,25 @@
         <v>148</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
@@ -4939,25 +4984,25 @@
         <v>134</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
@@ -4992,25 +5037,25 @@
         <v>129</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
@@ -5045,25 +5090,25 @@
         <v>108</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
@@ -5098,25 +5143,25 @@
         <v>101</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
@@ -5133,7 +5178,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5142,7 +5187,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5151,25 +5196,25 @@
         <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
@@ -5186,7 +5231,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5195,7 +5240,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5204,25 +5249,25 @@
         <v>100</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
@@ -5257,25 +5302,25 @@
         <v>100</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
@@ -5310,25 +5355,25 @@
         <v>100</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="P17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="R17" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
@@ -5363,25 +5408,25 @@
         <v>100</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="P18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
@@ -5416,25 +5461,25 @@
         <v>100</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="P19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="T19" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
@@ -5469,25 +5514,25 @@
         <v>100</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
@@ -5522,25 +5567,25 @@
         <v>100</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
@@ -5573,25 +5618,25 @@
         <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
@@ -5626,25 +5671,25 @@
         <v>132</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
@@ -5679,25 +5724,25 @@
         <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
@@ -5732,25 +5777,25 @@
         <v>100</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="P25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T25" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
@@ -5785,25 +5830,25 @@
         <v>100</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
@@ -5838,25 +5883,25 @@
         <v>100</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
@@ -5891,25 +5936,25 @@
         <v>100</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>64</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
@@ -5944,25 +5989,25 @@
         <v>100</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
@@ -5997,25 +6042,25 @@
         <v>100</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>67</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
@@ -6050,25 +6095,25 @@
         <v>100</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>69</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
@@ -6103,25 +6148,25 @@
         <v>100</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.45">
@@ -6156,25 +6201,25 @@
         <v>100</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>71</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
@@ -6209,25 +6254,25 @@
         <v>100</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>73</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.45">
@@ -6262,25 +6307,25 @@
         <v>100</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>75</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
@@ -6315,25 +6360,25 @@
         <v>100</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>76</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
@@ -6368,25 +6413,25 @@
         <v>127</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>78</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.45">
@@ -6421,25 +6466,25 @@
         <v>105</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>80</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.45">
@@ -6474,25 +6519,25 @@
         <v>100</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>81</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.45">
@@ -6527,25 +6572,25 @@
         <v>112</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>82</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.45">
@@ -6580,25 +6625,25 @@
         <v>100</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.45">
@@ -6633,25 +6678,25 @@
         <v>100</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>85</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.45">
@@ -6686,25 +6731,25 @@
         <v>145</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>86</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.45">
@@ -6739,25 +6784,25 @@
         <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>87</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.45">
@@ -6792,25 +6837,25 @@
         <v>100</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
@@ -6845,25 +6890,25 @@
         <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>90</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.45">
@@ -6898,25 +6943,25 @@
         <v>100</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>95</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.45">
@@ -6951,25 +6996,25 @@
         <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>96</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.45">
@@ -7004,25 +7049,25 @@
         <v>100</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>98</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.45">
@@ -7057,25 +7102,25 @@
         <v>100</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>100</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.45">
@@ -7110,25 +7155,25 @@
         <v>100</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>101</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
@@ -7139,7 +7184,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -7163,25 +7208,25 @@
         <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>102</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.45">
@@ -7216,25 +7261,25 @@
         <v>100</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>103</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.45">
@@ -7269,25 +7314,25 @@
         <v>100</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>104</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.45">
@@ -7322,25 +7367,25 @@
         <v>100</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>105</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.45">
@@ -7375,25 +7420,25 @@
         <v>102</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>107</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.45">
@@ -7428,25 +7473,25 @@
         <v>112</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>108</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.45">
@@ -7481,25 +7526,25 @@
         <v>127</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>109</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.45">
@@ -7534,25 +7579,25 @@
         <v>129</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>115</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.45">
@@ -7587,25 +7632,25 @@
         <v>100</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>118</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.45">
@@ -7640,25 +7685,25 @@
         <v>100</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>120</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.45">
@@ -7693,25 +7738,25 @@
         <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.45">
@@ -7746,25 +7791,25 @@
         <v>100</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>122</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.45">
@@ -7799,25 +7844,25 @@
         <v>118</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.45">
@@ -7852,25 +7897,25 @@
         <v>100</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.45">
@@ -8207,7 +8252,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8219,7 +8264,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8239,7 +8284,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8251,7 +8296,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8393,25 +8438,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8425,25 +8470,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8777,7 +8822,7 @@
         <v>123</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D94" s="3">
         <v>2010</v>
@@ -8809,13 +8854,13 @@
         <v>123</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D95" s="4">
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8841,7 +8886,7 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
@@ -8873,13 +8918,13 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8905,7 +8950,7 @@
         <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
@@ -8937,7 +8982,7 @@
         <v>123</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D99" s="4">
         <v>2011</v>
@@ -8969,7 +9014,7 @@
         <v>123</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D100" s="3">
         <v>2011</v>
@@ -9001,7 +9046,7 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
@@ -9033,13 +9078,13 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9065,19 +9110,19 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9097,13 +9142,13 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9129,13 +9174,13 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9161,19 +9206,19 @@
         <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9193,13 +9238,13 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9225,13 +9270,13 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9257,19 +9302,19 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9289,19 +9334,19 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.8E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9321,13 +9366,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D111" s="4">
         <v>2013</v>
       </c>
       <c r="E111" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9336,7 +9381,7 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -9353,13 +9398,13 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D112" s="3">
         <v>2013</v>
       </c>
       <c r="E112" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9385,13 +9430,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9400,7 +9445,7 @@
         <v>1336.5</v>
       </c>
       <c r="H113" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I113" s="4">
         <v>0</v>
@@ -9417,13 +9462,13 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9449,13 +9494,13 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9481,13 +9526,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9513,7 +9558,7 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D117" s="4">
         <v>2014</v>
@@ -9545,13 +9590,13 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D118" s="3">
         <v>2015</v>
       </c>
       <c r="E118" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.03E-2</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9577,13 +9622,13 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D119" s="4">
         <v>2015</v>
       </c>
       <c r="E119" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9609,13 +9654,13 @@
         <v>123</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D120" s="3">
         <v>2015</v>
       </c>
       <c r="E120" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -9641,13 +9686,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -9673,13 +9718,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9705,13 +9750,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9737,13 +9782,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.03E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9769,13 +9814,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9801,13 +9846,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D126" s="3">
         <v>2016</v>
       </c>
       <c r="E126" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9833,13 +9878,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D127" s="4">
         <v>2016</v>
       </c>
       <c r="E127" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9865,13 +9910,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D128" s="3">
         <v>2016</v>
       </c>
       <c r="E128" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9880,7 +9925,7 @@
         <v>1336.5</v>
       </c>
       <c r="H128" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I128" s="3">
         <v>0</v>
@@ -9897,13 +9942,13 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D129" s="4">
         <v>2016</v>
       </c>
       <c r="E129" s="4">
-        <v>1.4E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9912,7 +9957,7 @@
         <v>1336.5</v>
       </c>
       <c r="H129" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I129" s="4">
         <v>0</v>
@@ -9929,7 +9974,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D130" s="3">
         <v>2021</v>
@@ -9955,14 +10000,12 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="C131" s="4"/>
       <c r="D131" s="4">
         <v>2022</v>
       </c>
@@ -9987,13 +10030,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D132" s="3">
         <v>2010</v>
@@ -10019,13 +10062,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D133" s="4">
         <v>2015</v>
@@ -10051,13 +10094,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D134" s="3">
         <v>2016</v>
@@ -10083,14 +10126,12 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C135" s="4"/>
       <c r="D135" s="4">
         <v>2022</v>
       </c>
@@ -10115,13 +10156,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D136" s="3">
         <v>2023</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40038CA5-F465-4AEA-A53F-EAE6B75C740F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A03BF17F-6325-4519-B880-8298DD160EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FE0ECE48-9088-4DAC-8318-4CF4794E6393}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9277E982-BD91-4411-83CF-BADC19133567}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="257">
   <si>
     <t>~fi_t</t>
   </si>
@@ -121,12 +121,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_w207993342-220</t>
   </si>
   <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -370,12 +370,12 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
     <t>e_w1105061707-220</t>
   </si>
   <si>
-    <t>e_w50561341-220</t>
-  </si>
-  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
@@ -418,21 +418,24 @@
     <t>elc_spv-CHE_0018</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0013</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0004</t>
   </si>
   <si>
     <t>elc_spv-CHE_0010</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0009</t>
   </si>
   <si>
@@ -440,9 +443,6 @@
   </si>
   <si>
     <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
   </si>
   <si>
     <t>elc_spv-CHE_0021</t>
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC702F6-DBCC-4682-BB5C-3177C1B9469B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210AFC17-ABFF-42DB-AC07-F767C0EC7353}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4247,15 +4247,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0FD2D-A502-4024-AEA2-8CC6632D42D3}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0638C3-8E83-4ED1-BE10-E1AC2C1F3025}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.59765625" customWidth="1"/>
     <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.59765625" customWidth="1"/>
     <col min="15" max="15" width="10.59765625" customWidth="1"/>
@@ -4420,7 +4422,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>0.46865000000000007</v>
@@ -4470,16 +4472,16 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
-        <v>0.27938750000000001</v>
+        <v>0.46865000000000007</v>
       </c>
       <c r="E6" s="3">
         <v>1365</v>
@@ -4494,7 +4496,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -4522,6 +4524,41 @@
       </c>
       <c r="U6" s="3" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F7" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4533,7 +4570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A780AF0-9EF4-4925-B4D1-C5FCDC752AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9880301A-4313-4906-8F77-694D734ACBF5}">
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5178,7 +5215,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5187,7 +5224,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5231,7 +5268,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5240,7 +5277,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7184,7 +7221,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8252,7 +8289,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8264,7 +8301,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8284,7 +8321,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8296,7 +8333,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8438,25 +8475,25 @@
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H82" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I82" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8470,25 +8507,25 @@
         <v>21</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H83" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -8860,7 +8897,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -8886,13 +8923,13 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8918,13 +8955,13 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -8956,7 +8993,7 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -9046,13 +9083,13 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9078,13 +9115,13 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9116,13 +9153,13 @@
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9142,19 +9179,19 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H104" s="3">
         <v>21.450000000000003</v>
@@ -9180,7 +9217,7 @@
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>5.7000000000000002E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9206,19 +9243,19 @@
         <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9244,13 +9281,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9366,13 +9403,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D111" s="4">
         <v>2013</v>
       </c>
       <c r="E111" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9398,13 +9435,13 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D112" s="3">
         <v>2013</v>
       </c>
       <c r="E112" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -9430,13 +9467,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9445,7 +9482,7 @@
         <v>1336.5</v>
       </c>
       <c r="H113" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I113" s="4">
         <v>0</v>
@@ -9462,7 +9499,7 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
@@ -9494,13 +9531,13 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -9509,7 +9546,7 @@
         <v>1336.5</v>
       </c>
       <c r="H115" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I115" s="4">
         <v>0</v>
@@ -9526,13 +9563,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9590,7 +9627,7 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D118" s="3">
         <v>2015</v>
@@ -9622,7 +9659,7 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" s="4">
         <v>2015</v>
@@ -9686,7 +9723,7 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
@@ -9718,13 +9755,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9750,13 +9787,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9782,13 +9819,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9846,13 +9883,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D126" s="3">
         <v>2016</v>
       </c>
       <c r="E126" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9878,13 +9915,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D127" s="4">
         <v>2016</v>
       </c>
       <c r="E127" s="4">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9910,7 +9947,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D128" s="3">
         <v>2016</v>
@@ -9942,7 +9979,7 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D129" s="4">
         <v>2016</v>
@@ -9974,7 +10011,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D130" s="3">
         <v>2021</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A03BF17F-6325-4519-B880-8298DD160EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{144819AB-B091-4411-BBE5-D0D873AA1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9277E982-BD91-4411-83CF-BADC19133567}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{04A5A810-CF3E-48C2-BCE3-E973E6FEE9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="278">
   <si>
     <t>~fi_t</t>
   </si>
@@ -79,6 +79,9 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>ELC</t>
+  </si>
+  <si>
     <t>ep_gas_combined_cycle</t>
   </si>
   <si>
@@ -313,9 +316,6 @@
     <t>ep_hydro_ps</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
     <t>e_CH16-380</t>
   </si>
   <si>
@@ -370,12 +370,12 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
   </si>
   <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
@@ -412,46 +412,46 @@
     <t>solar</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
@@ -463,15 +463,6 @@
     <t>wind</t>
   </si>
   <si>
-    <t>elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0016</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -685,7 +676,79 @@
     <t>annual</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity - CHE_10</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity - CHE_19</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
   </si>
   <si>
     <t>AF</t>
@@ -1261,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210AFC17-ABFF-42DB-AC07-F767C0EC7353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC76D3B-AD59-4B94-9B9E-7A4B035F6E05}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1281,7 +1344,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1305,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1328,39 +1391,39 @@
         <v>2050</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>0.30000000000000004</v>
@@ -1375,34 +1438,34 @@
         <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>0.60000000000000009</v>
@@ -1414,37 +1477,37 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>5750</v>
@@ -1459,34 +1522,34 @@
         <v>7</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4">
         <v>200</v>
@@ -1501,34 +1564,34 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
@@ -1540,37 +1603,37 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4">
         <v>0.37</v>
@@ -1585,34 +1648,34 @@
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>0.60000000000000009</v>
@@ -1624,37 +1687,37 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>600</v>
@@ -1669,34 +1732,34 @@
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>25</v>
@@ -1711,34 +1774,34 @@
         <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1750,37 +1813,37 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>0.35000000000000003</v>
@@ -1795,34 +1858,34 @@
         <v>6</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>0.60000000000000009</v>
@@ -1834,37 +1897,37 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>2400</v>
@@ -1879,34 +1942,34 @@
         <v>7</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
         <v>85</v>
@@ -1921,34 +1984,34 @@
         <v>8</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1960,37 +2023,37 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
         <v>0.70000000000000007</v>
@@ -2005,34 +2068,34 @@
         <v>6</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
         <v>0.70000000000000007</v>
@@ -2044,37 +2107,37 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4">
         <v>3750</v>
@@ -2089,34 +2152,34 @@
         <v>7</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3">
         <v>140</v>
@@ -2131,34 +2194,34 @@
         <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2170,37 +2233,37 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
         <v>0.59</v>
@@ -2215,34 +2278,34 @@
         <v>6</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4">
         <v>1000</v>
@@ -2257,34 +2320,34 @@
         <v>7</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
         <v>25</v>
@@ -2299,34 +2362,34 @@
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4">
         <v>0.51</v>
@@ -2341,34 +2404,34 @@
         <v>6</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3">
         <v>3100</v>
@@ -2383,34 +2446,34 @@
         <v>7</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4">
         <v>75</v>
@@ -2425,34 +2488,34 @@
         <v>8</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3">
         <v>0.82000000000000006</v>
@@ -2469,13 +2532,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4">
         <v>1300</v>
@@ -2492,13 +2555,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D32" s="3">
         <v>40</v>
@@ -2515,13 +2578,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4">
         <v>0.37</v>
@@ -2538,13 +2601,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3">
         <v>5500</v>
@@ -2561,13 +2624,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D35" s="4">
         <v>165</v>
@@ -2584,13 +2647,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3">
         <v>0.4</v>
@@ -2607,13 +2670,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4">
         <v>0.3</v>
@@ -2625,18 +2688,18 @@
         <v>0.42</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3">
         <v>5650</v>
@@ -2653,13 +2716,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4">
         <v>210</v>
@@ -2676,13 +2739,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -2694,18 +2757,18 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4">
         <v>0.5</v>
@@ -2722,13 +2785,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3">
         <v>5000</v>
@@ -2745,13 +2808,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4">
         <v>100</v>
@@ -2768,13 +2831,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3">
         <v>0.4</v>
@@ -2791,13 +2854,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4">
         <v>500</v>
@@ -2814,13 +2877,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D46" s="3">
         <v>20</v>
@@ -2837,13 +2900,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D47" s="4">
         <v>0.1</v>
@@ -2860,13 +2923,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D48" s="3">
         <v>0.85000000000000009</v>
@@ -2878,18 +2941,18 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4">
         <v>2850</v>
@@ -2906,13 +2969,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3">
         <v>55</v>
@@ -2929,13 +2992,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -2947,18 +3010,18 @@
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -2975,13 +3038,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D53" s="4">
         <v>0.35000000000000003</v>
@@ -2993,18 +3056,18 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3">
         <v>2650</v>
@@ -3021,13 +3084,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D55" s="4">
         <v>65</v>
@@ -3044,13 +3107,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D56" s="3">
         <v>4</v>
@@ -3062,18 +3125,18 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -3090,13 +3153,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3">
         <v>0.25</v>
@@ -3108,18 +3171,18 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D59" s="4">
         <v>3850</v>
@@ -3136,13 +3199,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D60" s="3">
         <v>75</v>
@@ -3159,13 +3222,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D61" s="4">
         <v>4</v>
@@ -3177,18 +3240,18 @@
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D62" s="3">
         <v>0.45</v>
@@ -3205,13 +3268,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D63" s="4">
         <v>2500</v>
@@ -3228,13 +3291,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D64" s="3">
         <v>95</v>
@@ -3251,13 +3314,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D65" s="4">
         <v>0.36</v>
@@ -3274,13 +3337,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D66" s="3">
         <v>5850</v>
@@ -3297,13 +3360,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D67" s="4">
         <v>205</v>
@@ -3320,13 +3383,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -3343,13 +3406,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D69" s="4">
         <v>0.25</v>
@@ -3361,18 +3424,18 @@
         <v>0.25</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D70" s="3">
         <v>6950</v>
@@ -3389,13 +3452,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D71" s="4">
         <v>200</v>
@@ -3412,13 +3475,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
@@ -3430,18 +3493,18 @@
         <v>4</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D73" s="4">
         <v>0.33</v>
@@ -3458,13 +3521,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D74" s="3">
         <v>6600</v>
@@ -3481,13 +3544,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D75" s="4">
         <v>165</v>
@@ -3504,13 +3567,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D76" s="3">
         <v>0.37</v>
@@ -3527,13 +3590,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D77" s="4">
         <v>5700</v>
@@ -3550,13 +3613,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D78" s="3">
         <v>170</v>
@@ -3573,13 +3636,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -3596,13 +3659,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D80" s="3">
         <v>0.13</v>
@@ -3614,18 +3677,18 @@
         <v>0.13</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D81" s="4">
         <v>990</v>
@@ -3642,13 +3705,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D82" s="3">
         <v>14</v>
@@ -3665,13 +3728,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -3683,18 +3746,18 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -3711,13 +3774,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D85" s="4">
         <v>0.14000000000000001</v>
@@ -3729,18 +3792,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D86" s="3">
         <v>750</v>
@@ -3757,13 +3820,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D87" s="4">
         <v>12</v>
@@ -3780,13 +3843,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D88" s="3">
         <v>1.5</v>
@@ -3798,18 +3861,18 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D89" s="4">
         <v>0.39</v>
@@ -3826,13 +3889,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D90" s="3">
         <v>1700</v>
@@ -3849,13 +3912,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D91" s="4">
         <v>45</v>
@@ -3872,13 +3935,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D92" s="3">
         <v>0.43</v>
@@ -3895,13 +3958,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D93" s="4">
         <v>2000</v>
@@ -3918,13 +3981,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D94" s="3">
         <v>60</v>
@@ -3941,13 +4004,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D95" s="4">
         <v>0.46</v>
@@ -3964,13 +4027,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D96" s="3">
         <v>2200</v>
@@ -3987,13 +4050,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D97" s="4">
         <v>65</v>
@@ -4010,13 +4073,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
@@ -4033,13 +4096,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D99" s="4">
         <v>0.5</v>
@@ -4051,18 +4114,18 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D100" s="3">
         <v>3120</v>
@@ -4079,13 +4142,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D101" s="4">
         <v>60</v>
@@ -4102,13 +4165,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D102" s="3">
         <v>3</v>
@@ -4120,18 +4183,18 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -4148,13 +4211,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D104" s="3">
         <v>0.28999999999999998</v>
@@ -4166,18 +4229,18 @@
         <v>0.3</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D105" s="4">
         <v>1630</v>
@@ -4194,13 +4257,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D106" s="3">
         <v>42</v>
@@ -4217,13 +4280,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D107" s="4">
         <v>1.5</v>
@@ -4235,7 +4298,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0638C3-8E83-4ED1-BE10-E1AC2C1F3025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A4ED00-D845-4B0F-A211-2D0167C0CDC4}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4271,7 +4334,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4299,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4325,48 +4388,48 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>0.52272499999999988</v>
@@ -4384,7 +4447,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -4393,36 +4456,36 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>0.46865000000000007</v>
@@ -4440,7 +4503,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -4449,36 +4512,36 @@
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="T5" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>0.46865000000000007</v>
@@ -4496,7 +4559,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -4505,36 +4568,36 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>0.27938750000000001</v>
@@ -4552,7 +4615,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
@@ -4570,8 +4633,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9880301A-4313-4906-8F77-694D734ACBF5}">
-  <dimension ref="A1:T136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC3940-898B-4867-9FCA-CC0F3014BBAB}">
+  <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4592,7 +4655,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4619,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4654,25 +4717,25 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -4682,7 +4745,9 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="3">
         <v>2022</v>
       </c>
@@ -4705,36 +4770,36 @@
         <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>1988</v>
@@ -4758,36 +4823,36 @@
         <v>67</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="S5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>2009</v>
@@ -4811,35 +4876,37 @@
         <v>50</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="4">
         <v>2022</v>
       </c>
@@ -4862,36 +4929,36 @@
         <v>50</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>2023</v>
@@ -4915,36 +4982,36 @@
         <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+      <c r="S8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4">
         <v>1907</v>
@@ -4968,36 +5035,36 @@
         <v>148</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="S9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3">
         <v>1921</v>
@@ -5021,36 +5088,36 @@
         <v>134</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S10" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4">
         <v>1926</v>
@@ -5074,36 +5141,36 @@
         <v>129</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S11" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3">
         <v>1947</v>
@@ -5127,36 +5194,36 @@
         <v>108</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4">
         <v>1954</v>
@@ -5180,36 +5247,36 @@
         <v>101</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S13" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>1957</v>
@@ -5233,36 +5300,36 @@
         <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4">
         <v>1957</v>
@@ -5286,36 +5353,36 @@
         <v>100</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S15" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5339,36 +5406,36 @@
         <v>100</v>
       </c>
       <c r="N16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S16" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4">
         <v>1967</v>
@@ -5392,36 +5459,36 @@
         <v>100</v>
       </c>
       <c r="N17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S17" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5445,36 +5512,36 @@
         <v>100</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4">
         <v>2012</v>
@@ -5498,36 +5565,36 @@
         <v>100</v>
       </c>
       <c r="N19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S19" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5551,36 +5618,36 @@
         <v>100</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S20" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4">
         <v>2015</v>
@@ -5604,35 +5671,37 @@
         <v>100</v>
       </c>
       <c r="N21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S21" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="3">
         <v>2022</v>
       </c>
@@ -5655,36 +5724,36 @@
         <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S22" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4">
         <v>1923</v>
@@ -5708,36 +5777,36 @@
         <v>132</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S23" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3">
         <v>1962</v>
@@ -5761,36 +5830,36 @@
         <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S24" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4">
         <v>1966</v>
@@ -5814,36 +5883,36 @@
         <v>100</v>
       </c>
       <c r="N25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S25" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="3">
         <v>1959</v>
@@ -5867,36 +5936,36 @@
         <v>100</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S26" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4">
         <v>1999</v>
@@ -5920,36 +5989,36 @@
         <v>100</v>
       </c>
       <c r="N27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S27" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3">
         <v>1955</v>
@@ -5973,36 +6042,36 @@
         <v>100</v>
       </c>
       <c r="N28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S28" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4">
         <v>1969</v>
@@ -6026,36 +6095,36 @@
         <v>100</v>
       </c>
       <c r="N29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S29" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3">
         <v>1959</v>
@@ -6079,36 +6148,36 @@
         <v>100</v>
       </c>
       <c r="N30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S30" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4">
         <v>1955</v>
@@ -6132,36 +6201,36 @@
         <v>100</v>
       </c>
       <c r="N31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S31" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3">
         <v>1957</v>
@@ -6185,36 +6254,36 @@
         <v>100</v>
       </c>
       <c r="N32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S32" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D33" s="4">
         <v>1958</v>
@@ -6238,36 +6307,36 @@
         <v>100</v>
       </c>
       <c r="N33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S33" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3">
         <v>1965</v>
@@ -6291,36 +6360,36 @@
         <v>100</v>
       </c>
       <c r="N34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S34" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4">
         <v>1962</v>
@@ -6344,36 +6413,36 @@
         <v>100</v>
       </c>
       <c r="N35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S35" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3">
         <v>1981</v>
@@ -6397,36 +6466,36 @@
         <v>100</v>
       </c>
       <c r="N36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S36" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="4">
         <v>1928</v>
@@ -6450,36 +6519,36 @@
         <v>127</v>
       </c>
       <c r="N37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S37" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3">
         <v>1950</v>
@@ -6503,36 +6572,36 @@
         <v>105</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S38" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4">
         <v>2016</v>
@@ -6556,36 +6625,36 @@
         <v>100</v>
       </c>
       <c r="N39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S39" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" s="3">
         <v>1943</v>
@@ -6609,36 +6678,36 @@
         <v>112</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S40" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="4">
         <v>1978</v>
@@ -6662,36 +6731,36 @@
         <v>100</v>
       </c>
       <c r="N41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S41" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3">
         <v>1976</v>
@@ -6715,36 +6784,36 @@
         <v>100</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S42" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" s="4">
         <v>1910</v>
@@ -6768,36 +6837,36 @@
         <v>145</v>
       </c>
       <c r="N43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R43" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S43" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="3">
         <v>1960</v>
@@ -6821,36 +6890,36 @@
         <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S44" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="4">
         <v>1966</v>
@@ -6874,36 +6943,36 @@
         <v>100</v>
       </c>
       <c r="N45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R45" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="S45" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" s="3">
         <v>1962</v>
@@ -6927,36 +6996,36 @@
         <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D47" s="4">
         <v>1970</v>
@@ -6980,36 +7049,36 @@
         <v>100</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>95</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" s="3">
         <v>1956</v>
@@ -7033,36 +7102,36 @@
         <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>96</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="4">
         <v>1958</v>
@@ -7086,36 +7155,36 @@
         <v>100</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>98</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D50" s="3">
         <v>1978</v>
@@ -7139,36 +7208,36 @@
         <v>100</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>100</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" s="4">
         <v>1968</v>
@@ -7192,36 +7261,36 @@
         <v>100</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>101</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -7245,36 +7314,36 @@
         <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>102</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" s="4">
         <v>1965</v>
@@ -7298,36 +7367,36 @@
         <v>100</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>103</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D54" s="3">
         <v>1962</v>
@@ -7351,36 +7420,36 @@
         <v>100</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>104</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D55" s="4">
         <v>1964</v>
@@ -7404,36 +7473,36 @@
         <v>100</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>105</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" s="3">
         <v>1953</v>
@@ -7457,36 +7526,36 @@
         <v>102</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>107</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57" s="4">
         <v>1943</v>
@@ -7510,36 +7579,36 @@
         <v>112</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>108</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="3">
         <v>1928</v>
@@ -7563,33 +7632,33 @@
         <v>127</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>109</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>92</v>
@@ -7616,33 +7685,33 @@
         <v>129</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>115</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>93</v>
@@ -7669,36 +7738,36 @@
         <v>100</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>118</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D61" s="4">
         <v>1958</v>
@@ -7722,33 +7791,33 @@
         <v>100</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>120</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>94</v>
@@ -7775,36 +7844,36 @@
         <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" s="4">
         <v>1976</v>
@@ -7828,25 +7897,25 @@
         <v>100</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>122</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T63" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="T63" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.45">
@@ -7854,10 +7923,10 @@
         <v>95</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="3">
         <v>1937</v>
@@ -7881,25 +7950,25 @@
         <v>118</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T64" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="T64" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.45">
@@ -7907,7 +7976,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>97</v>
@@ -7934,25 +8003,25 @@
         <v>100</v>
       </c>
       <c r="N65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R65" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O65" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q65" s="4" t="s">
+      <c r="S65" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T65" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S65" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="T65" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.45">
@@ -7960,7 +8029,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>99</v>
@@ -7985,6 +8054,27 @@
       </c>
       <c r="J66" s="3">
         <v>132</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.45">
@@ -7992,10 +8082,10 @@
         <v>100</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D67" s="4">
         <v>2016</v>
@@ -8017,6 +8107,27 @@
       </c>
       <c r="J67" s="4">
         <v>100</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
@@ -8024,10 +8135,10 @@
         <v>101</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D68" s="3">
         <v>1977</v>
@@ -8049,6 +8160,27 @@
       </c>
       <c r="J68" s="3">
         <v>100</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.45">
@@ -8056,7 +8188,7 @@
         <v>102</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>99</v>
@@ -8081,6 +8213,27 @@
       </c>
       <c r="J69" s="4">
         <v>100</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.45">
@@ -8088,10 +8241,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D70" s="3">
         <v>2009</v>
@@ -8113,6 +8266,27 @@
       </c>
       <c r="J70" s="3">
         <v>100</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.45">
@@ -8120,10 +8294,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D71" s="4">
         <v>2026</v>
@@ -8145,6 +8319,27 @@
       </c>
       <c r="J71" s="4">
         <v>100</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.45">
@@ -8152,7 +8347,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>106</v>
@@ -8177,6 +8372,27 @@
       </c>
       <c r="J72" s="3">
         <v>100</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.45">
@@ -8184,10 +8400,10 @@
         <v>107</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4">
         <v>1972</v>
@@ -8209,6 +8425,27 @@
       </c>
       <c r="J73" s="4">
         <v>100</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.45">
@@ -8216,10 +8453,10 @@
         <v>108</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74" s="3">
         <v>2017</v>
@@ -8241,6 +8478,27 @@
       </c>
       <c r="J74" s="3">
         <v>100</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.45">
@@ -8248,7 +8506,7 @@
         <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>92</v>
@@ -8273,6 +8531,27 @@
       </c>
       <c r="J75" s="4">
         <v>147</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.45">
@@ -8280,7 +8559,7 @@
         <v>109</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>110</v>
@@ -8289,7 +8568,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8301,10 +8580,31 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.45">
@@ -8312,7 +8612,7 @@
         <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>111</v>
@@ -8321,7 +8621,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8333,10 +8633,31 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.45">
@@ -8344,10 +8665,10 @@
         <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D78" s="3">
         <v>1925</v>
@@ -8369,6 +8690,27 @@
       </c>
       <c r="J78" s="3">
         <v>130</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.45">
@@ -8376,7 +8718,7 @@
         <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>112</v>
@@ -8401,6 +8743,27 @@
       </c>
       <c r="J79" s="4">
         <v>123</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.45">
@@ -8408,10 +8771,10 @@
         <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80" s="3">
         <v>1947</v>
@@ -8434,16 +8797,37 @@
       <c r="J80" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N80" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D81" s="4">
         <v>1950</v>
@@ -8466,16 +8850,37 @@
       <c r="J81" s="4">
         <v>105</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N81" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
@@ -8498,13 +8903,34 @@
       <c r="J82" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N82" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>94</v>
@@ -8530,16 +8956,37 @@
       <c r="J83" s="4">
         <v>103</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N83" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D84" s="3">
         <v>1958</v>
@@ -8562,16 +9009,37 @@
       <c r="J84" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N84" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D85" s="4">
         <v>1959</v>
@@ -8594,16 +9062,37 @@
       <c r="J85" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" s="3">
         <v>1960</v>
@@ -8626,13 +9115,34 @@
       <c r="J86" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N86" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>113</v>
@@ -8658,13 +9168,34 @@
       <c r="J87" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N87" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>114</v>
@@ -8690,8 +9221,29 @@
       <c r="J88" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>115</v>
       </c>
@@ -8722,8 +9274,29 @@
       <c r="J89" s="4">
         <v>71</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N89" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>118</v>
       </c>
@@ -8755,7 +9328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>120</v>
       </c>
@@ -8787,7 +9360,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>121</v>
       </c>
@@ -8819,7 +9392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>122</v>
       </c>
@@ -8827,7 +9400,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4">
         <v>2009</v>
@@ -8851,7 +9424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>122</v>
       </c>
@@ -8859,7 +9432,7 @@
         <v>123</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D94" s="3">
         <v>2010</v>
@@ -8883,7 +9456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>122</v>
       </c>
@@ -8891,7 +9464,7 @@
         <v>123</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D95" s="4">
         <v>2011</v>
@@ -8915,7 +9488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -8923,13 +9496,13 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -8955,19 +9528,19 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -8987,7 +9560,7 @@
         <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
@@ -9019,13 +9592,13 @@
         <v>123</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D99" s="4">
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9051,19 +9624,19 @@
         <v>123</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D100" s="3">
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9083,13 +9656,13 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9115,19 +9688,19 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9147,13 +9720,13 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9179,19 +9752,19 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.8E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H104" s="3">
         <v>21.450000000000003</v>
@@ -9243,13 +9816,13 @@
         <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9275,7 +9848,7 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
@@ -9307,7 +9880,7 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
@@ -9339,7 +9912,7 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
@@ -9371,7 +9944,7 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
@@ -9403,13 +9976,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D111" s="4">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9418,13 +9991,13 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
       </c>
       <c r="J111" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
@@ -9435,19 +10008,19 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D112" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -9456,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
@@ -9467,13 +10040,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -9499,13 +10072,13 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -9531,22 +10104,22 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H115" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I115" s="4">
         <v>0</v>
@@ -9569,7 +10142,7 @@
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -9595,13 +10168,13 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D117" s="4">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -9616,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
@@ -9627,13 +10200,13 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="D118" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.03E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -9648,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
@@ -9659,13 +10232,13 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D119" s="4">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -9680,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
@@ -9694,10 +10267,10 @@
         <v>135</v>
       </c>
       <c r="D120" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E120" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -9712,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
@@ -9723,7 +10296,7 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
@@ -9755,13 +10328,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -9787,13 +10360,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -9819,13 +10392,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -9851,13 +10424,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -9883,13 +10456,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D126" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.4E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -9904,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
@@ -9915,13 +10488,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D127" s="4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -9936,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
@@ -9947,13 +10520,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D128" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -9968,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
@@ -9979,13 +10552,13 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="D129" s="4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -9994,13 +10567,13 @@
         <v>1336.5</v>
       </c>
       <c r="H129" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I129" s="4">
         <v>0</v>
       </c>
       <c r="J129" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
@@ -10011,13 +10584,13 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D130" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10032,160 +10605,164 @@
         <v>0</v>
       </c>
       <c r="J130" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="4"/>
+      <c r="C131" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D131" s="4">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>4.4311999999999996</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
       </c>
       <c r="G131" s="4">
-        <v>990</v>
+        <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>16.5</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
       </c>
       <c r="J131" s="4">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D132" s="3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.6E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>2376</v>
+        <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>57.2</v>
+        <v>21.45</v>
       </c>
       <c r="I132" s="3">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J132" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D133" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>1.2E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
       </c>
       <c r="G133" s="4">
-        <v>2376</v>
+        <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>57.20000000000001</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I133" s="4">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J133" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D134" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E134" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>2376</v>
+        <v>1336.5</v>
       </c>
       <c r="H134" s="3">
-        <v>57.2</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I134" s="3">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C135" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D135" s="4">
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>4.6999999999999993E-2</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
       </c>
       <c r="G135" s="4">
-        <v>2376</v>
+        <v>1138.5</v>
       </c>
       <c r="H135" s="4">
-        <v>57.2</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I135" s="4">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J135" s="4">
         <v>33</v>
@@ -10193,33 +10770,929 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.16277902359433066</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H136" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A137" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.1586174511333161</v>
+      </c>
+      <c r="F137" s="4">
+        <v>1</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H137" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+      <c r="J137" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.15521278721895346</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H138" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A139" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0.15291072157643879</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H139" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I139" s="4">
+        <v>0</v>
+      </c>
+      <c r="J139" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.17279262926045061</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H140" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A141" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0.1930981018275324</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H141" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I141" s="4">
+        <v>0</v>
+      </c>
+      <c r="J141" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.19828629679661561</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H142" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A143" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0.15409499379434963</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H143" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I143" s="4">
+        <v>0</v>
+      </c>
+      <c r="J143" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0.20091315882928704</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H144" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A145" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.16152827258311295</v>
+      </c>
+      <c r="F145" s="4">
+        <v>1</v>
+      </c>
+      <c r="G145" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H145" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I145" s="4">
+        <v>0</v>
+      </c>
+      <c r="J145" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.21731537653220406</v>
+      </c>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H146" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A147" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0.19614947844032105</v>
+      </c>
+      <c r="F147" s="4">
+        <v>1</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H147" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I147" s="4">
+        <v>0</v>
+      </c>
+      <c r="J147" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.15338177131187081</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H148" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A149" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0.19328994063107527</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H149" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I149" s="4">
+        <v>0</v>
+      </c>
+      <c r="J149" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0.17082200788742341</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H150" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A151" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0.16699472878703805</v>
+      </c>
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H151" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I151" s="4">
+        <v>0</v>
+      </c>
+      <c r="J151" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.13606784444360143</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H152" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A153" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.16637932510042519</v>
+      </c>
+      <c r="F153" s="4">
+        <v>1</v>
+      </c>
+      <c r="G153" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H153" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I153" s="4">
+        <v>0</v>
+      </c>
+      <c r="J153" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0.19782569372870323</v>
+      </c>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H154" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0</v>
+      </c>
+      <c r="J154" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A155" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0.13710016513395351</v>
+      </c>
+      <c r="F155" s="4">
+        <v>1</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H155" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I155" s="4">
+        <v>0</v>
+      </c>
+      <c r="J155" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.21471510601685545</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H156" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0</v>
+      </c>
+      <c r="J156" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A157" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0.18308354646436523</v>
+      </c>
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
+      <c r="G157" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H157" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I157" s="4">
+        <v>0</v>
+      </c>
+      <c r="J157" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.21077006448261207</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1138.5</v>
+      </c>
+      <c r="H158" s="3">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0</v>
+      </c>
+      <c r="J158" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A159" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.16554834018408843</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1138.5</v>
+      </c>
+      <c r="H159" s="4">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I159" s="4">
+        <v>0</v>
+      </c>
+      <c r="J159" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A160" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B160" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D136" s="3">
+      <c r="C160" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H160" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I160" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J160" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A161" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+      <c r="G161" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H161" s="4">
+        <v>57.20000000000001</v>
+      </c>
+      <c r="I161" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J161" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H162" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I162" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J162" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A163" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E163" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F163" s="4">
+        <v>1</v>
+      </c>
+      <c r="G163" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H163" s="4">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="I163" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J163" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D164" s="3">
         <v>2023</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E164" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="F136" s="3">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
         <v>2376</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H164" s="3">
         <v>57.2</v>
       </c>
-      <c r="I136" s="3">
+      <c r="I164" s="3">
         <v>2.52</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J164" s="3">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{144819AB-B091-4411-BBE5-D0D873AA1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2241CC13-21B0-4432-8F02-51B4B0EFC0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{04A5A810-CF3E-48C2-BCE3-E973E6FEE9DB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{527BC5CE-F2EB-42F6-8002-07B72F8E75CD}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -370,12 +370,12 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
     <t>e_w1105061707-220</t>
   </si>
   <si>
-    <t>e_w50561341-220</t>
-  </si>
-  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
@@ -412,48 +412,48 @@
     <t>solar</t>
   </si>
   <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
     <t>e_w27435934-220</t>
   </si>
   <si>
-    <t>e_w146225999-220</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
+    <t>e_CH31-220</t>
   </si>
   <si>
     <t>e_w97941869-220</t>
   </si>
   <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
     <t>e_w33271433-220</t>
   </si>
   <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
     <t>e_CH11-220</t>
   </si>
   <si>
     <t>e_w108257952-220</t>
   </si>
   <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
     <t>e_w55695765-220</t>
   </si>
   <si>
-    <t>e_w165254212-220</t>
-  </si>
-  <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
@@ -676,16 +676,46 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
@@ -697,58 +727,28 @@
     <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity - CHE_10</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity - CHE_19</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
   </si>
   <si>
     <t>AF</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC76D3B-AD59-4B94-9B9E-7A4B035F6E05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91F795A-B49A-442C-A627-99E05DE2BD97}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A4ED00-D845-4B0F-A211-2D0167C0CDC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813B8350-3312-44C0-BA02-55B505D1E5EE}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4633,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC3940-898B-4867-9FCA-CC0F3014BBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454C10B7-B157-47A5-9C95-A8A74127EAFC}">
   <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8568,7 +8568,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8580,7 +8580,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8621,7 +8621,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8633,7 +8633,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -9470,7 +9470,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -9496,13 +9496,13 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -9528,19 +9528,19 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -9566,7 +9566,7 @@
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -9630,13 +9630,13 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9656,13 +9656,13 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.5E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9671,7 +9671,7 @@
         <v>1336.5</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9688,19 +9688,19 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9720,13 +9720,13 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9752,13 +9752,13 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9784,13 +9784,13 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9816,13 +9816,13 @@
         <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9848,19 +9848,19 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9880,19 +9880,19 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9912,19 +9912,19 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9944,13 +9944,13 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9976,13 +9976,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>2.3E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -9991,7 +9991,7 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -10014,13 +10014,13 @@
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.8E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -10040,13 +10040,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10072,13 +10072,13 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10104,19 +10104,19 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -10136,13 +10136,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10168,19 +10168,19 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -10200,13 +10200,13 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10232,13 +10232,13 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="D119" s="4">
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10296,13 +10296,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10328,13 +10328,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10360,13 +10360,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10392,13 +10392,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10424,13 +10424,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10456,13 +10456,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10488,13 +10488,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10520,13 +10520,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10552,13 +10552,13 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="D129" s="4">
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -10584,13 +10584,13 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="D130" s="3">
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10616,13 +10616,13 @@
         <v>123</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D131" s="4">
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10648,13 +10648,13 @@
         <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10663,7 +10663,7 @@
         <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D133" s="4">
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>0.211523174241075</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>2022</v>
       </c>
       <c r="E136" s="3">
-        <v>0.16277902359433066</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>2022</v>
       </c>
       <c r="E137" s="4">
-        <v>0.1586174511333161</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>2022</v>
       </c>
       <c r="E138" s="3">
-        <v>0.15521278721895346</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>0.15291072157643879</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10910,7 +10910,7 @@
         <v>2022</v>
       </c>
       <c r="E140" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10942,7 +10942,7 @@
         <v>2022</v>
       </c>
       <c r="E141" s="4">
-        <v>0.1930981018275324</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -10974,7 +10974,7 @@
         <v>2022</v>
       </c>
       <c r="E142" s="3">
-        <v>0.19828629679661561</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>2022</v>
       </c>
       <c r="E143" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11038,7 +11038,7 @@
         <v>2022</v>
       </c>
       <c r="E144" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11070,7 +11070,7 @@
         <v>2022</v>
       </c>
       <c r="E145" s="4">
-        <v>0.16152827258311295</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>2022</v>
       </c>
       <c r="E146" s="3">
-        <v>0.21731537653220406</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11134,7 +11134,7 @@
         <v>2022</v>
       </c>
       <c r="E147" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>2022</v>
       </c>
       <c r="E148" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11198,7 +11198,7 @@
         <v>2022</v>
       </c>
       <c r="E149" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11230,7 +11230,7 @@
         <v>2022</v>
       </c>
       <c r="E150" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11262,7 +11262,7 @@
         <v>2022</v>
       </c>
       <c r="E151" s="4">
-        <v>0.16699472878703805</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>2022</v>
       </c>
       <c r="E152" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.19782569372870323</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11390,7 +11390,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11422,7 +11422,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11454,7 +11454,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D160" s="3">
         <v>2010</v>
@@ -11608,7 +11608,7 @@
         <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D162" s="3">
         <v>2016</v>
@@ -11672,7 +11672,7 @@
         <v>140</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D164" s="3">
         <v>2023</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2241CC13-21B0-4432-8F02-51B4B0EFC0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77371C1-8E2C-4CAD-82C1-0617DAFC7535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{527BC5CE-F2EB-42F6-8002-07B72F8E75CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E603B617-0778-4DA0-961A-0A94EEE5701A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,12 +124,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
     <t>e_CH44-220</t>
   </si>
   <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -415,33 +415,33 @@
     <t>e_w146225999-220</t>
   </si>
   <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
     <t>e_w89977424-220</t>
   </si>
   <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>e_w27435934-220</t>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
   </si>
   <si>
     <t>e_CH31-220</t>
   </si>
   <si>
-    <t>e_w97941869-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
-    <t>e_w33271433-220</t>
-  </si>
-  <si>
     <t>e_CH11-220</t>
   </si>
   <si>
@@ -676,79 +676,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity - CHE_10</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity - CHE_19</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity - CHE_10</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity - CHE_19</t>
   </si>
   <si>
     <t>AF</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91F795A-B49A-442C-A627-99E05DE2BD97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01480AAC-CAF4-4580-9EB7-5554A4E51E6A}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813B8350-3312-44C0-BA02-55B505D1E5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B6C6EF-6760-4B5C-BD06-FA3795F9E132}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4633,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454C10B7-B157-47A5-9C95-A8A74127EAFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DB363-EAAF-4661-A103-D1322485DBFC}">
   <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5282,7 +5282,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5335,7 +5335,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7290,7 +7290,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8880,25 +8880,25 @@
         <v>22</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8933,25 +8933,25 @@
         <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -9502,7 +9502,7 @@
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -9528,19 +9528,19 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -9560,7 +9560,7 @@
         <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
@@ -9598,7 +9598,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9630,13 +9630,13 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H100" s="3">
         <v>21.450000000000003</v>
@@ -9656,22 +9656,22 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>2.3E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9688,13 +9688,13 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9720,13 +9720,13 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9752,13 +9752,13 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9784,19 +9784,19 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H105" s="4">
         <v>21.450000000000003</v>
@@ -9816,13 +9816,13 @@
         <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9848,19 +9848,19 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9880,19 +9880,19 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9912,22 +9912,22 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.8E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H109" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -9944,13 +9944,13 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9976,13 +9976,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10008,13 +10008,13 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D112" s="3">
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10040,13 +10040,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10072,13 +10072,13 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10104,13 +10104,13 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10136,13 +10136,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10168,19 +10168,19 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -10200,19 +10200,19 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -10232,13 +10232,13 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D119" s="4">
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10296,13 +10296,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10328,13 +10328,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10360,13 +10360,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10392,13 +10392,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10424,13 +10424,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10456,13 +10456,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10488,13 +10488,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10520,13 +10520,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10584,13 +10584,13 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D130" s="3">
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>1.4E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10616,13 +10616,13 @@
         <v>123</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="D131" s="4">
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10648,13 +10648,13 @@
         <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10663,7 +10663,7 @@
         <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D133" s="4">
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>2022</v>
       </c>
       <c r="E136" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>2022</v>
       </c>
       <c r="E137" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>2022</v>
       </c>
       <c r="E138" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10910,7 +10910,7 @@
         <v>2022</v>
       </c>
       <c r="E140" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10942,7 +10942,7 @@
         <v>2022</v>
       </c>
       <c r="E141" s="4">
-        <v>0.13606784444360143</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -10974,7 +10974,7 @@
         <v>2022</v>
       </c>
       <c r="E142" s="3">
-        <v>0.21731537653220406</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>2022</v>
       </c>
       <c r="E143" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11038,7 +11038,7 @@
         <v>2022</v>
       </c>
       <c r="E144" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11070,7 +11070,7 @@
         <v>2022</v>
       </c>
       <c r="E145" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>2022</v>
       </c>
       <c r="E146" s="3">
-        <v>0.16554834018408843</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11134,7 +11134,7 @@
         <v>2022</v>
       </c>
       <c r="E147" s="4">
-        <v>0.15291072157643879</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>2022</v>
       </c>
       <c r="E148" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11198,7 +11198,7 @@
         <v>2022</v>
       </c>
       <c r="E149" s="4">
-        <v>0.1930981018275324</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11230,7 +11230,7 @@
         <v>2022</v>
       </c>
       <c r="E150" s="3">
-        <v>0.15409499379434963</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11262,7 +11262,7 @@
         <v>2022</v>
       </c>
       <c r="E151" s="4">
-        <v>0.20091315882928704</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>2022</v>
       </c>
       <c r="E152" s="3">
-        <v>0.211523174241075</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11390,7 +11390,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11422,7 +11422,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.16637932510042519</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D160" s="3">
         <v>2010</v>
@@ -11608,7 +11608,7 @@
         <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D162" s="3">
         <v>2016</v>
@@ -11672,7 +11672,7 @@
         <v>140</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D164" s="3">
         <v>2023</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77371C1-8E2C-4CAD-82C1-0617DAFC7535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAA7167-8653-4D31-8F13-9C048D3EE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E603B617-0778-4DA0-961A-0A94EEE5701A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A81B0F88-5749-4DF2-91F1-B4EDD9464CB7}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,12 +124,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_w207993342-220</t>
   </si>
   <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -412,48 +412,48 @@
     <t>solar</t>
   </si>
   <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
     <t>e_w146225999-220</t>
   </si>
   <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
   </si>
   <si>
     <t>e_w83861269-220</t>
   </si>
   <si>
-    <t>e_w97941869-220</t>
-  </si>
-  <si>
-    <t>e_w33271433-220</t>
-  </si>
-  <si>
     <t>e_w127004407-380</t>
   </si>
   <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
     <t>e_CH11-220</t>
   </si>
   <si>
     <t>e_w108257952-220</t>
   </si>
   <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
     <t>e_w165254212-220</t>
   </si>
   <si>
-    <t>e_w55695765-220</t>
-  </si>
-  <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
@@ -679,42 +679,63 @@
     <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity - CHE_10</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity - CHE_19</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
   </si>
   <si>
@@ -724,31 +745,10 @@
     <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity - CHE_19</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
   </si>
   <si>
     <t>AF</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01480AAC-CAF4-4580-9EB7-5554A4E51E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50060EAF-A6D4-4B17-8358-6EC05BE5EADF}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B6C6EF-6760-4B5C-BD06-FA3795F9E132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E972C908-96DC-44F2-A794-3B9656363555}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4633,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DB363-EAAF-4661-A103-D1322485DBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD03B56B-3156-4F0F-98BC-2B7CB0A13CBC}">
   <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5282,7 +5282,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5335,7 +5335,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7290,7 +7290,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8880,25 +8880,25 @@
         <v>22</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H82" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I82" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8933,25 +8933,25 @@
         <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H83" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -9470,7 +9470,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -9496,13 +9496,13 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
@@ -9560,13 +9560,13 @@
         <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9656,22 +9656,22 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.8E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9688,13 +9688,13 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -9720,19 +9720,19 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9758,7 +9758,7 @@
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9784,19 +9784,19 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H105" s="4">
         <v>21.450000000000003</v>
@@ -9822,7 +9822,7 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9854,13 +9854,13 @@
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9880,13 +9880,13 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -9912,13 +9912,13 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>2.3E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>1336.5</v>
       </c>
       <c r="H109" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -9944,19 +9944,19 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9976,13 +9976,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10008,13 +10008,13 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D112" s="3">
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
@@ -10072,13 +10072,13 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10104,19 +10104,19 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -10136,13 +10136,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10168,13 +10168,13 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10200,19 +10200,19 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -10232,13 +10232,13 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D119" s="4">
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10296,13 +10296,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10328,13 +10328,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10360,13 +10360,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10392,13 +10392,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10424,13 +10424,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10456,13 +10456,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10488,13 +10488,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10520,13 +10520,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10552,13 +10552,13 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D129" s="4">
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -10584,13 +10584,13 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D130" s="3">
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10648,7 +10648,7 @@
         <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
@@ -10680,13 +10680,13 @@
         <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D133" s="4">
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10750,7 +10750,7 @@
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>2022</v>
       </c>
       <c r="E136" s="3">
-        <v>0.16637932510042519</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>2022</v>
       </c>
       <c r="E137" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>2022</v>
       </c>
       <c r="E138" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10910,7 +10910,7 @@
         <v>2022</v>
       </c>
       <c r="E140" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10942,7 +10942,7 @@
         <v>2022</v>
       </c>
       <c r="E141" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -10974,7 +10974,7 @@
         <v>2022</v>
       </c>
       <c r="E142" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>2022</v>
       </c>
       <c r="E143" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11038,7 +11038,7 @@
         <v>2022</v>
       </c>
       <c r="E144" s="3">
-        <v>0.16554834018408843</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11070,7 +11070,7 @@
         <v>2022</v>
       </c>
       <c r="E145" s="4">
-        <v>0.15291072157643879</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>2022</v>
       </c>
       <c r="E146" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11134,7 +11134,7 @@
         <v>2022</v>
       </c>
       <c r="E147" s="4">
-        <v>0.1930981018275324</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>2022</v>
       </c>
       <c r="E148" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11198,7 +11198,7 @@
         <v>2022</v>
       </c>
       <c r="E149" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11230,7 +11230,7 @@
         <v>2022</v>
       </c>
       <c r="E150" s="3">
-        <v>0.19614947844032105</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11262,7 +11262,7 @@
         <v>2022</v>
       </c>
       <c r="E151" s="4">
-        <v>0.15338177131187081</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>2022</v>
       </c>
       <c r="E152" s="3">
-        <v>0.19328994063107527</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.15409499379434963</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11390,7 +11390,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.16699472878703805</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11422,7 +11422,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11454,7 +11454,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.17082200788742341</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.211523174241075</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D160" s="3">
         <v>2010</v>
@@ -11608,7 +11608,7 @@
         <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D162" s="3">
         <v>2016</v>
@@ -11672,7 +11672,7 @@
         <v>140</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D164" s="3">
         <v>2023</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAA7167-8653-4D31-8F13-9C048D3EE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9830380A-4646-4611-A5F1-827E17EDD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A81B0F88-5749-4DF2-91F1-B4EDD9464CB7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1A709EC-6304-4CA9-9C8F-9C5EFB686692}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,12 +124,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
     <t>e_CH44-220</t>
   </si>
   <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -412,48 +412,48 @@
     <t>solar</t>
   </si>
   <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
-  </si>
-  <si>
     <t>e_w281809991-220</t>
   </si>
   <si>
-    <t>e_w146225999-220</t>
-  </si>
-  <si>
     <t>e_w97941869-220</t>
   </si>
   <si>
     <t>e_w33271433-220</t>
   </si>
   <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
     <t>e_CH31-220</t>
   </si>
   <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
     <t>e_CH11-220</t>
   </si>
   <si>
     <t>e_w108257952-220</t>
   </si>
   <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
     <t>e_w55695765-220</t>
   </si>
   <si>
-    <t>e_w165254212-220</t>
-  </si>
-  <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
@@ -676,6 +676,45 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity - CHE_10</t>
   </si>
   <si>
@@ -685,19 +724,19 @@
     <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
@@ -706,49 +745,10 @@
     <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
   </si>
   <si>
     <t>AF</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50060EAF-A6D4-4B17-8358-6EC05BE5EADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD480C-E61D-4D98-BC5B-629DF89A37E1}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E972C908-96DC-44F2-A794-3B9656363555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC70DE00-B505-4861-8053-932946BE7BCB}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4633,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD03B56B-3156-4F0F-98BC-2B7CB0A13CBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20FF747-07F2-453E-9480-007BB06E4137}">
   <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5282,7 +5282,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5335,7 +5335,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7290,7 +7290,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8880,25 +8880,25 @@
         <v>22</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8933,25 +8933,25 @@
         <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -9470,7 +9470,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -9496,13 +9496,13 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
@@ -9560,13 +9560,13 @@
         <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9630,7 +9630,7 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9656,13 +9656,13 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>2.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9671,7 +9671,7 @@
         <v>1336.5</v>
       </c>
       <c r="H101" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -9688,19 +9688,19 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.5E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9720,19 +9720,19 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9752,13 +9752,13 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9767,7 +9767,7 @@
         <v>1336.5</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9784,13 +9784,13 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.5E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9822,13 +9822,13 @@
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H106" s="3">
         <v>21.450000000000003</v>
@@ -9848,19 +9848,19 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9880,19 +9880,19 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9912,13 +9912,13 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -9944,19 +9944,19 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H110" s="3">
         <v>21.450000000000003</v>
@@ -9976,13 +9976,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10008,13 +10008,13 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D112" s="3">
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
@@ -10072,19 +10072,19 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
       </c>
       <c r="G114" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H114" s="3">
         <v>21.450000000000003</v>
@@ -10104,19 +10104,19 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>7.0999999999999995E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -10136,13 +10136,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10168,13 +10168,13 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10200,13 +10200,13 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10232,13 +10232,13 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D119" s="4">
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10296,13 +10296,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10328,7 +10328,7 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
@@ -10360,13 +10360,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10392,7 +10392,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
@@ -10520,13 +10520,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10552,7 +10552,7 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D129" s="4">
         <v>2015</v>
@@ -10584,7 +10584,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D130" s="3">
         <v>2016</v>
@@ -10648,7 +10648,7 @@
         <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
@@ -10750,7 +10750,7 @@
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>0.21471510601685545</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>2022</v>
       </c>
       <c r="E136" s="3">
-        <v>0.18308354646436523</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>2022</v>
       </c>
       <c r="E137" s="4">
-        <v>0.211523174241075</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>2022</v>
       </c>
       <c r="E138" s="3">
-        <v>0.16277902359433066</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10910,7 +10910,7 @@
         <v>2022</v>
       </c>
       <c r="E140" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10942,7 +10942,7 @@
         <v>2022</v>
       </c>
       <c r="E141" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -10974,7 +10974,7 @@
         <v>2022</v>
       </c>
       <c r="E142" s="3">
-        <v>0.16554834018408843</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>2022</v>
       </c>
       <c r="E143" s="4">
-        <v>0.15291072157643879</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11038,7 +11038,7 @@
         <v>2022</v>
       </c>
       <c r="E144" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11070,7 +11070,7 @@
         <v>2022</v>
       </c>
       <c r="E145" s="4">
-        <v>0.1930981018275324</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>2022</v>
       </c>
       <c r="E146" s="3">
-        <v>0.16637932510042519</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11134,7 +11134,7 @@
         <v>2022</v>
       </c>
       <c r="E147" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>2022</v>
       </c>
       <c r="E148" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11198,7 +11198,7 @@
         <v>2022</v>
       </c>
       <c r="E149" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11230,7 +11230,7 @@
         <v>2022</v>
       </c>
       <c r="E150" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11262,7 +11262,7 @@
         <v>2022</v>
       </c>
       <c r="E151" s="4">
-        <v>0.13606784444360143</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>2022</v>
       </c>
       <c r="E152" s="3">
-        <v>0.19614947844032105</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.15338177131187081</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.19328994063107527</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11390,7 +11390,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11422,7 +11422,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.15409499379434963</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11454,7 +11454,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.20091315882928704</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.17082200788742341</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D160" s="3">
         <v>2010</v>
@@ -11608,7 +11608,7 @@
         <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D162" s="3">
         <v>2016</v>
@@ -11672,7 +11672,7 @@
         <v>140</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D164" s="3">
         <v>2023</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9830380A-4646-4611-A5F1-827E17EDD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6E8568-2D17-4E81-A759-7D59537E5ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1A709EC-6304-4CA9-9C8F-9C5EFB686692}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5AE7E573-8008-4576-8FCF-31C0AB410F96}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,12 +124,12 @@
     <t>e_CH29-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_w207993342-220</t>
   </si>
   <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
     <t>e_w234983117-220</t>
   </si>
   <si>
@@ -370,12 +370,12 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
   </si>
   <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
@@ -412,21 +412,21 @@
     <t>solar</t>
   </si>
   <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
     <t>e_w146225999-220</t>
   </si>
   <si>
-    <t>e_w89977424-220</t>
-  </si>
-  <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
     <t>e_w97941869-220</t>
   </si>
   <si>
@@ -676,79 +676,79 @@
     <t>annual</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity - CHE_9</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity - CHE_17</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity - CHE_6</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity - CHE_15</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity - CHE_0</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity - CHE_24</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity - CHE_25</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity - CHE_1</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity - CHE_14</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity - CHE_8</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity - CHE_2</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity - CHE_4</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity - CHE_21</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity - CHE_10</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity - CHE_19</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity - CHE_11</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity - CHE_12</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity - CHE_7</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity - CHE_18</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity - CHE_13</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity - CHE_3</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity - CHE_5</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity - CHE_20</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity - CHE_23</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity - CHE_22</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD480C-E61D-4D98-BC5B-629DF89A37E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A88D64A-44FA-42B2-BFD8-5F749A8F17F5}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC70DE00-B505-4861-8053-932946BE7BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428238C-71FC-4DAC-99E7-76768A4B7FF2}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4633,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20FF747-07F2-453E-9480-007BB06E4137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFBCA08-080D-4F8D-8CBE-F8B6B6BDE284}">
   <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5282,7 +5282,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5335,7 +5335,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -7290,7 +7290,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3">
         <v>1961</v>
@@ -8568,7 +8568,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8580,7 +8580,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8621,7 +8621,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8633,7 +8633,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -9470,13 +9470,13 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -9534,13 +9534,13 @@
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -9630,7 +9630,7 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9656,13 +9656,13 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9688,19 +9688,19 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9720,13 +9720,13 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9752,22 +9752,22 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>2.3E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H104" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -9784,13 +9784,13 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9816,22 +9816,22 @@
         <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H106" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I106" s="3">
         <v>0</v>
@@ -9848,19 +9848,19 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9880,19 +9880,19 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>1.8E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9912,19 +9912,19 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H109" s="4">
         <v>21.450000000000003</v>
@@ -9944,7 +9944,7 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
@@ -9976,13 +9976,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10040,13 +10040,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10072,19 +10072,19 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>7.0999999999999995E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
       </c>
       <c r="G114" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H114" s="3">
         <v>21.450000000000003</v>
@@ -10104,13 +10104,13 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10136,13 +10136,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10168,13 +10168,13 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10200,13 +10200,13 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10232,19 +10232,19 @@
         <v>123</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D119" s="4">
         <v>2013</v>
       </c>
       <c r="E119" s="4">
-        <v>1E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
       </c>
       <c r="G119" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H119" s="4">
         <v>21.450000000000003</v>
@@ -10296,13 +10296,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10328,13 +10328,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10360,13 +10360,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.5E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10392,13 +10392,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10424,13 +10424,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10456,13 +10456,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10488,13 +10488,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10520,13 +10520,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10552,13 +10552,13 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D129" s="4">
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -10584,13 +10584,13 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D130" s="3">
         <v>2016</v>
       </c>
       <c r="E130" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10648,13 +10648,13 @@
         <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10663,7 +10663,7 @@
         <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D133" s="4">
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>0.211523174241075</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>2022</v>
       </c>
       <c r="E136" s="3">
-        <v>0.16277902359433066</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>2022</v>
       </c>
       <c r="E137" s="4">
-        <v>0.21471510601685545</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>2022</v>
       </c>
       <c r="E138" s="3">
-        <v>0.18308354646436523</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10910,7 +10910,7 @@
         <v>2022</v>
       </c>
       <c r="E140" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10942,7 +10942,7 @@
         <v>2022</v>
       </c>
       <c r="E141" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -10974,7 +10974,7 @@
         <v>2022</v>
       </c>
       <c r="E142" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>2022</v>
       </c>
       <c r="E143" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11038,7 +11038,7 @@
         <v>2022</v>
       </c>
       <c r="E144" s="3">
-        <v>0.16554834018408843</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11070,7 +11070,7 @@
         <v>2022</v>
       </c>
       <c r="E145" s="4">
-        <v>0.15291072157643879</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>2022</v>
       </c>
       <c r="E146" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11134,7 +11134,7 @@
         <v>2022</v>
       </c>
       <c r="E147" s="4">
-        <v>0.1930981018275324</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>2022</v>
       </c>
       <c r="E148" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11198,7 +11198,7 @@
         <v>2022</v>
       </c>
       <c r="E149" s="4">
-        <v>0.16699472878703805</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11262,7 +11262,7 @@
         <v>2022</v>
       </c>
       <c r="E151" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>2022</v>
       </c>
       <c r="E152" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.15409499379434963</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11390,7 +11390,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11422,7 +11422,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.19782569372870323</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11454,7 +11454,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.21077006448261207</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6E8568-2D17-4E81-A759-7D59537E5ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74A0032-7C06-45EE-AEFA-B82E46CC42C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5AE7E573-8008-4576-8FCF-31C0AB410F96}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8FCC0AE2-41D7-4CDF-A2AF-BDB7DCF56099}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -370,12 +370,12 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
     <t>e_w1105061707-220</t>
   </si>
   <si>
-    <t>e_w50561341-220</t>
-  </si>
-  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
@@ -412,19 +412,22 @@
     <t>solar</t>
   </si>
   <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
     <t>e_w27435934-220</t>
   </si>
   <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
     <t>e_w89977424-220</t>
   </si>
   <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>e_w146225999-220</t>
+    <t>e_CH31-220</t>
   </si>
   <si>
     <t>e_w97941869-220</t>
@@ -439,9 +442,6 @@
     <t>e_w83861269-220</t>
   </si>
   <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
     <t>e_CH11-220</t>
   </si>
   <si>
@@ -676,79 +676,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A88D64A-44FA-42B2-BFD8-5F749A8F17F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC132C1-8204-46C1-BE6F-892A2D28B819}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428238C-71FC-4DAC-99E7-76768A4B7FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860E6C02-E6BC-46DE-8BFA-20D2E88AEDB9}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4633,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFBCA08-080D-4F8D-8CBE-F8B6B6BDE284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2247C961-3502-4DB3-BDFC-AADCC42C4C44}">
   <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8568,7 +8568,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8580,7 +8580,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
@@ -8621,7 +8621,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8633,7 +8633,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
@@ -8880,25 +8880,25 @@
         <v>22</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H82" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I82" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
@@ -8933,25 +8933,25 @@
         <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H83" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I83" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
@@ -9470,13 +9470,13 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H95" s="4">
         <v>21.450000000000003</v>
@@ -9496,13 +9496,13 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -9528,19 +9528,19 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -9560,13 +9560,13 @@
         <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9656,13 +9656,13 @@
         <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9688,7 +9688,7 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
@@ -9720,19 +9720,19 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>1.5E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9752,19 +9752,19 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H104" s="3">
         <v>21.450000000000003</v>
@@ -9784,13 +9784,13 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -9848,19 +9848,19 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H107" s="4">
         <v>21.450000000000003</v>
@@ -9880,19 +9880,19 @@
         <v>123</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H108" s="3">
         <v>21.450000000000003</v>
@@ -9912,7 +9912,7 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
@@ -9976,7 +9976,7 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
@@ -10008,13 +10008,13 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D112" s="3">
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10040,13 +10040,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10072,13 +10072,13 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10104,13 +10104,13 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10136,13 +10136,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10168,13 +10168,13 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10200,13 +10200,13 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10296,13 +10296,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10328,13 +10328,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10360,13 +10360,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>5.7999999999999996E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10392,13 +10392,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
@@ -10456,13 +10456,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>1E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10488,13 +10488,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10520,13 +10520,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D130" s="3">
         <v>2016</v>
@@ -10616,13 +10616,13 @@
         <v>123</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="D131" s="4">
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.4E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10631,7 +10631,7 @@
         <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -10648,13 +10648,13 @@
         <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10680,13 +10680,13 @@
         <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D133" s="4">
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>2022</v>
       </c>
       <c r="E136" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>2022</v>
       </c>
       <c r="E137" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>2022</v>
       </c>
       <c r="E138" s="3">
-        <v>0.19614947844032105</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10910,7 +10910,7 @@
         <v>2022</v>
       </c>
       <c r="E140" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10942,7 +10942,7 @@
         <v>2022</v>
       </c>
       <c r="E141" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -10974,7 +10974,7 @@
         <v>2022</v>
       </c>
       <c r="E142" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>2022</v>
       </c>
       <c r="E143" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11038,7 +11038,7 @@
         <v>2022</v>
       </c>
       <c r="E144" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11070,7 +11070,7 @@
         <v>2022</v>
       </c>
       <c r="E145" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>2022</v>
       </c>
       <c r="E146" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11134,7 +11134,7 @@
         <v>2022</v>
       </c>
       <c r="E147" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>2022</v>
       </c>
       <c r="E148" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11198,7 +11198,7 @@
         <v>2022</v>
       </c>
       <c r="E149" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11230,7 +11230,7 @@
         <v>2022</v>
       </c>
       <c r="E150" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11262,7 +11262,7 @@
         <v>2022</v>
       </c>
       <c r="E151" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>2022</v>
       </c>
       <c r="E152" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.19828629679661561</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.1586174511333161</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11544,7 +11544,7 @@
         <v>140</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D160" s="3">
         <v>2010</v>
@@ -11608,7 +11608,7 @@
         <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D162" s="3">
         <v>2016</v>
@@ -11672,7 +11672,7 @@
         <v>140</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D164" s="3">
         <v>2023</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74A0032-7C06-45EE-AEFA-B82E46CC42C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B1397D9-8CA4-44AF-8B2F-B31726E6BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8FCC0AE2-41D7-4CDF-A2AF-BDB7DCF56099}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A19BB9FA-393B-4216-9E29-AE1CD0926C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="329">
   <si>
     <t>~fi_t</t>
   </si>
@@ -370,12 +370,12 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
   </si>
   <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
@@ -412,36 +412,36 @@
     <t>solar</t>
   </si>
   <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>e_w146225999-220</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
   </si>
   <si>
     <t>e_CH31-220</t>
   </si>
   <si>
-    <t>e_w97941869-220</t>
-  </si>
-  <si>
-    <t>e_w33271433-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
     <t>e_CH11-220</t>
   </si>
   <si>
@@ -457,12 +457,165 @@
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -676,79 +829,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1324,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC132C1-8204-46C1-BE6F-892A2D28B819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414BE3F8-87E9-4821-990E-3F3CB47571A6}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1344,7 +1497,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1368,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1391,33 +1544,33 @@
         <v>2050</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1438,28 +1591,28 @@
         <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -1477,31 +1630,31 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1522,28 +1675,28 @@
         <v>7</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1564,28 +1717,28 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -1603,31 +1756,31 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1648,28 +1801,28 @@
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1687,31 +1840,31 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1732,28 +1885,28 @@
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1774,28 +1927,28 @@
         <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -1813,31 +1966,31 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1858,28 +2011,28 @@
         <v>6</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -1897,31 +2050,31 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -1942,28 +2095,28 @@
         <v>7</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1984,28 +2137,28 @@
         <v>8</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -2023,31 +2176,31 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -2068,28 +2221,28 @@
         <v>6</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -2107,31 +2260,31 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
@@ -2152,28 +2305,28 @@
         <v>7</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -2194,28 +2347,28 @@
         <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -2233,31 +2386,31 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -2278,28 +2431,28 @@
         <v>6</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>15</v>
@@ -2320,28 +2473,28 @@
         <v>7</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>15</v>
@@ -2362,28 +2515,28 @@
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -2404,28 +2557,28 @@
         <v>6</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>15</v>
@@ -2446,28 +2599,28 @@
         <v>7</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -2488,28 +2641,28 @@
         <v>8</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>15</v>
@@ -2532,7 +2685,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -2555,7 +2708,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>15</v>
@@ -2578,10 +2731,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -2601,10 +2754,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -2624,10 +2777,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
@@ -2647,7 +2800,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>123</v>
@@ -2670,7 +2823,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>123</v>
@@ -2688,12 +2841,12 @@
         <v>0.42</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>123</v>
@@ -2716,7 +2869,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>123</v>
@@ -2739,7 +2892,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>123</v>
@@ -2757,15 +2910,15 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -2785,10 +2938,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
@@ -2808,10 +2961,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -2831,7 +2984,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -2854,7 +3007,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>15</v>
@@ -2877,7 +3030,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -2900,10 +3053,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>13</v>
@@ -2923,10 +3076,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
@@ -2941,15 +3094,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>13</v>
@@ -2969,10 +3122,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
@@ -2992,10 +3145,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>13</v>
@@ -3010,12 +3163,12 @@
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>22</v>
@@ -3038,7 +3191,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>22</v>
@@ -3056,12 +3209,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>22</v>
@@ -3084,7 +3237,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -3107,7 +3260,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>22</v>
@@ -3125,12 +3278,12 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -3153,7 +3306,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>22</v>
@@ -3171,12 +3324,12 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>22</v>
@@ -3199,7 +3352,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>22</v>
@@ -3222,7 +3375,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>22</v>
@@ -3240,12 +3393,12 @@
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -3268,7 +3421,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>15</v>
@@ -3291,7 +3444,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>15</v>
@@ -3314,10 +3467,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>13</v>
@@ -3337,10 +3490,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
@@ -3360,10 +3513,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>13</v>
@@ -3383,10 +3536,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -3406,10 +3559,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>13</v>
@@ -3424,15 +3577,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
@@ -3452,10 +3605,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>13</v>
@@ -3475,10 +3628,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
@@ -3493,12 +3646,12 @@
         <v>4</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>116</v>
@@ -3521,7 +3674,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>116</v>
@@ -3544,7 +3697,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>116</v>
@@ -3567,10 +3720,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
@@ -3590,10 +3743,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>13</v>
@@ -3613,10 +3766,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>13</v>
@@ -3636,7 +3789,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>123</v>
@@ -3659,7 +3812,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>123</v>
@@ -3677,12 +3830,12 @@
         <v>0.13</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>123</v>
@@ -3705,7 +3858,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>123</v>
@@ -3728,7 +3881,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>123</v>
@@ -3746,12 +3899,12 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>123</v>
@@ -3774,7 +3927,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>123</v>
@@ -3792,12 +3945,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>123</v>
@@ -3820,7 +3973,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>123</v>
@@ -3843,7 +3996,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>123</v>
@@ -3861,15 +4014,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>13</v>
@@ -3889,10 +4042,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>13</v>
@@ -3912,10 +4065,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>13</v>
@@ -3935,10 +4088,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>13</v>
@@ -3958,10 +4111,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>13</v>
@@ -3981,10 +4134,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>13</v>
@@ -4004,10 +4157,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>13</v>
@@ -4027,10 +4180,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>13</v>
@@ -4050,10 +4203,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>13</v>
@@ -4073,10 +4226,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>13</v>
@@ -4096,10 +4249,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>13</v>
@@ -4114,15 +4267,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>13</v>
@@ -4142,10 +4295,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>13</v>
@@ -4165,10 +4318,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>13</v>
@@ -4183,15 +4336,15 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>13</v>
@@ -4211,10 +4364,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>13</v>
@@ -4229,15 +4382,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>13</v>
@@ -4257,10 +4410,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>13</v>
@@ -4280,10 +4433,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>13</v>
@@ -4298,7 +4451,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860E6C02-E6BC-46DE-8BFA-20D2E88AEDB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF948692-0A65-4EEA-98CE-F750B73C9A24}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4334,7 +4487,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4362,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4388,42 +4541,42 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4456,30 +4609,30 @@
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -4512,30 +4665,30 @@
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4568,30 +4721,30 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -4633,8 +4786,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2247C961-3502-4DB3-BDFC-AADCC42C4C44}">
-  <dimension ref="A1:T164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D244B9-03AA-40BD-A9FC-A815FCADB793}">
+  <dimension ref="A1:T189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4655,7 +4808,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4682,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -4717,25 +4870,25 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -4770,25 +4923,25 @@
         <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
@@ -4823,25 +4976,25 @@
         <v>67</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
@@ -4876,25 +5029,25 @@
         <v>50</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
@@ -4929,25 +5082,25 @@
         <v>50</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -4982,25 +5135,25 @@
         <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
@@ -5035,25 +5188,25 @@
         <v>148</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
@@ -5088,25 +5241,25 @@
         <v>134</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
@@ -5141,25 +5294,25 @@
         <v>129</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
@@ -5194,25 +5347,25 @@
         <v>108</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
@@ -5247,25 +5400,25 @@
         <v>101</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
@@ -5300,25 +5453,25 @@
         <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
@@ -5353,25 +5506,25 @@
         <v>100</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
@@ -5406,25 +5559,25 @@
         <v>100</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
@@ -5459,25 +5612,25 @@
         <v>100</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>49</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
@@ -5512,25 +5665,25 @@
         <v>100</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
@@ -5565,25 +5718,25 @@
         <v>100</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
@@ -5618,25 +5771,25 @@
         <v>100</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
@@ -5671,25 +5824,25 @@
         <v>100</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
@@ -5724,25 +5877,25 @@
         <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
@@ -5777,25 +5930,25 @@
         <v>132</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
@@ -5830,25 +5983,25 @@
         <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
@@ -5883,25 +6036,25 @@
         <v>100</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>62</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
@@ -5936,25 +6089,25 @@
         <v>100</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
@@ -5989,25 +6142,25 @@
         <v>100</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
@@ -6042,25 +6195,25 @@
         <v>100</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>65</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
@@ -6095,25 +6248,25 @@
         <v>100</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>67</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
@@ -6148,25 +6301,25 @@
         <v>100</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
@@ -6201,25 +6354,25 @@
         <v>100</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>70</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
@@ -6254,25 +6407,25 @@
         <v>100</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>71</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.45">
@@ -6307,25 +6460,25 @@
         <v>100</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>72</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
@@ -6360,25 +6513,25 @@
         <v>100</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.45">
@@ -6413,25 +6566,25 @@
         <v>100</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>76</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
@@ -6466,25 +6619,25 @@
         <v>100</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>77</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
@@ -6519,25 +6672,25 @@
         <v>127</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>79</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.45">
@@ -6572,25 +6725,25 @@
         <v>105</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>81</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.45">
@@ -6625,25 +6778,25 @@
         <v>100</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>82</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.45">
@@ -6678,25 +6831,25 @@
         <v>112</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.45">
@@ -6731,25 +6884,25 @@
         <v>100</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>84</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.45">
@@ -6784,25 +6937,25 @@
         <v>100</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>86</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.45">
@@ -6837,25 +6990,25 @@
         <v>145</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>87</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.45">
@@ -6890,25 +7043,25 @@
         <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.45">
@@ -6943,25 +7096,25 @@
         <v>100</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>90</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
@@ -6996,25 +7149,25 @@
         <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.45">
@@ -7049,25 +7202,25 @@
         <v>100</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>95</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.45">
@@ -7102,25 +7255,25 @@
         <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>96</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.45">
@@ -7155,25 +7308,25 @@
         <v>100</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>98</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.45">
@@ -7208,25 +7361,25 @@
         <v>100</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>100</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.45">
@@ -7261,25 +7414,25 @@
         <v>100</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>101</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
@@ -7314,25 +7467,25 @@
         <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>102</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.45">
@@ -7367,25 +7520,25 @@
         <v>100</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>103</v>
       </c>
       <c r="P53" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q53" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Q53" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="R53" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.45">
@@ -7420,25 +7573,25 @@
         <v>100</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>104</v>
       </c>
       <c r="P54" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R54" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="S54" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.45">
@@ -7473,25 +7626,25 @@
         <v>100</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>105</v>
       </c>
       <c r="P55" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="S55" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="Q55" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S55" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="T55" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.45">
@@ -7526,25 +7679,25 @@
         <v>102</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>107</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.45">
@@ -7579,25 +7732,25 @@
         <v>112</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>108</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.45">
@@ -7632,25 +7785,25 @@
         <v>127</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>109</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.45">
@@ -7685,25 +7838,25 @@
         <v>129</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>115</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.45">
@@ -7738,25 +7891,25 @@
         <v>100</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>118</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.45">
@@ -7791,25 +7944,25 @@
         <v>100</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>120</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.45">
@@ -7844,25 +7997,25 @@
         <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P62" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.45">
@@ -7897,25 +8050,25 @@
         <v>100</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>122</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.45">
@@ -7950,25 +8103,25 @@
         <v>118</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.45">
@@ -8003,25 +8156,25 @@
         <v>100</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O65" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.45">
@@ -8056,25 +8209,25 @@
         <v>132</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.45">
@@ -8109,25 +8262,25 @@
         <v>100</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S67" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T67" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
@@ -8162,25 +8315,25 @@
         <v>100</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.45">
@@ -8215,25 +8368,25 @@
         <v>100</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T69" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.45">
@@ -8268,25 +8421,25 @@
         <v>100</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.45">
@@ -8321,25 +8474,25 @@
         <v>100</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T71" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.45">
@@ -8374,25 +8527,25 @@
         <v>100</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.45">
@@ -8427,25 +8580,25 @@
         <v>100</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S73" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T73" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.45">
@@ -8480,25 +8633,25 @@
         <v>100</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.45">
@@ -8533,25 +8686,25 @@
         <v>147</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O75" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T75" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.45">
@@ -8568,7 +8721,7 @@
         <v>1920</v>
       </c>
       <c r="E76" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8580,31 +8733,31 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I76" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J76" s="3">
         <v>135</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.45">
@@ -8621,7 +8774,7 @@
         <v>1920</v>
       </c>
       <c r="E77" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -8633,31 +8786,31 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I77" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J77" s="4">
         <v>135</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O77" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T77" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.45">
@@ -8692,25 +8845,25 @@
         <v>130</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.45">
@@ -8745,25 +8898,25 @@
         <v>123</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O79" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.45">
@@ -8798,25 +8951,25 @@
         <v>108</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.45">
@@ -8851,25 +9004,25 @@
         <v>105</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O81" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S81" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T81" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.45">
@@ -8880,49 +9033,49 @@
         <v>22</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D82" s="3">
         <v>1952</v>
       </c>
       <c r="E82" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H82" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I82" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J82" s="3">
         <v>103</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.45">
@@ -8933,49 +9086,49 @@
         <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D83" s="4">
         <v>1952</v>
       </c>
       <c r="E83" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H83" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J83" s="4">
         <v>103</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S83" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.45">
@@ -9010,25 +9163,25 @@
         <v>100</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.45">
@@ -9063,25 +9216,25 @@
         <v>100</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O85" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S85" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T85" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.45">
@@ -9116,25 +9269,25 @@
         <v>100</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.45">
@@ -9169,25 +9322,25 @@
         <v>100</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O87" s="4" t="s">
         <v>138</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.45">
@@ -9222,25 +9375,25 @@
         <v>100</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>138</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.45">
@@ -9275,25 +9428,25 @@
         <v>71</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.45">
@@ -9470,7 +9623,7 @@
         <v>2011</v>
       </c>
       <c r="E95" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -9496,13 +9649,13 @@
         <v>123</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -9528,19 +9681,19 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D97" s="4">
         <v>2011</v>
       </c>
       <c r="E97" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H97" s="4">
         <v>21.450000000000003</v>
@@ -9560,19 +9713,19 @@
         <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
       </c>
       <c r="E98" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H98" s="3">
         <v>21.450000000000003</v>
@@ -9592,13 +9745,13 @@
         <v>123</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="D99" s="4">
         <v>2011</v>
       </c>
       <c r="E99" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -9630,7 +9783,7 @@
         <v>2011</v>
       </c>
       <c r="E100" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9662,7 +9815,7 @@
         <v>2012</v>
       </c>
       <c r="E101" s="4">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9688,19 +9841,19 @@
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>1.5E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H102" s="3">
         <v>21.450000000000003</v>
@@ -9720,19 +9873,19 @@
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H103" s="4">
         <v>21.450000000000003</v>
@@ -9752,13 +9905,13 @@
         <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -9784,19 +9937,19 @@
         <v>123</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H105" s="4">
         <v>21.450000000000003</v>
@@ -9816,13 +9969,13 @@
         <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>2.3E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -9831,7 +9984,7 @@
         <v>1336.5</v>
       </c>
       <c r="H106" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I106" s="3">
         <v>0</v>
@@ -9848,13 +10001,13 @@
         <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -9912,22 +10065,22 @@
         <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>1.8E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H109" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -9944,13 +10097,13 @@
         <v>123</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
@@ -9976,13 +10129,13 @@
         <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10008,13 +10161,13 @@
         <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D112" s="3">
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10040,13 +10193,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D113" s="4">
         <v>2013</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10072,13 +10225,13 @@
         <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D114" s="3">
         <v>2013</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10104,13 +10257,13 @@
         <v>123</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D115" s="4">
         <v>2013</v>
       </c>
       <c r="E115" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10136,13 +10289,13 @@
         <v>123</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10168,13 +10321,13 @@
         <v>123</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10200,13 +10353,13 @@
         <v>123</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10296,7 +10449,7 @@
         <v>123</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
@@ -10328,13 +10481,13 @@
         <v>123</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10360,13 +10513,13 @@
         <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10392,13 +10545,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10424,13 +10577,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10456,13 +10609,13 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10488,13 +10641,13 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10520,13 +10673,13 @@
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10552,13 +10705,13 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="D129" s="4">
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -10584,7 +10737,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D130" s="3">
         <v>2016</v>
@@ -10616,13 +10769,13 @@
         <v>123</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="D131" s="4">
         <v>2016</v>
       </c>
       <c r="E131" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10631,7 +10784,7 @@
         <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -10648,13 +10801,13 @@
         <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="D132" s="3">
         <v>2016</v>
       </c>
       <c r="E132" s="3">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10680,13 +10833,13 @@
         <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D133" s="4">
         <v>2016</v>
       </c>
       <c r="E133" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10695,7 +10848,7 @@
         <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10744,13 +10897,13 @@
         <v>123</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D135" s="4">
         <v>2022</v>
       </c>
       <c r="E135" s="4">
-        <v>0.16699472878703805</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10776,13 +10929,13 @@
         <v>123</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D136" s="3">
         <v>2022</v>
       </c>
       <c r="E136" s="3">
-        <v>0.13710016513395351</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -10808,13 +10961,13 @@
         <v>123</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D137" s="4">
         <v>2022</v>
       </c>
       <c r="E137" s="4">
-        <v>0.13606784444360143</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -10840,13 +10993,13 @@
         <v>123</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="D138" s="3">
         <v>2022</v>
       </c>
       <c r="E138" s="3">
-        <v>0.21731537653220406</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -10872,13 +11025,13 @@
         <v>123</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="D139" s="4">
         <v>2022</v>
       </c>
       <c r="E139" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -10904,13 +11057,13 @@
         <v>123</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D140" s="3">
         <v>2022</v>
       </c>
       <c r="E140" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10936,13 +11089,13 @@
         <v>123</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="D141" s="4">
         <v>2022</v>
       </c>
       <c r="E141" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -10968,13 +11121,13 @@
         <v>123</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="D142" s="3">
         <v>2022</v>
       </c>
       <c r="E142" s="3">
-        <v>0.16554834018408843</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11000,13 +11153,13 @@
         <v>123</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D143" s="4">
         <v>2022</v>
       </c>
       <c r="E143" s="4">
-        <v>0.17082200788742341</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11032,7 +11185,7 @@
         <v>123</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D144" s="3">
         <v>2022</v>
@@ -11064,13 +11217,13 @@
         <v>123</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="D145" s="4">
         <v>2022</v>
       </c>
       <c r="E145" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11096,13 +11249,13 @@
         <v>123</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D146" s="3">
         <v>2022</v>
       </c>
       <c r="E146" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11128,13 +11281,13 @@
         <v>123</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="D147" s="4">
         <v>2022</v>
       </c>
       <c r="E147" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11160,13 +11313,13 @@
         <v>123</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="D148" s="3">
         <v>2022</v>
       </c>
       <c r="E148" s="3">
-        <v>0.19828629679661561</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11192,13 +11345,13 @@
         <v>123</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="D149" s="4">
         <v>2022</v>
       </c>
       <c r="E149" s="4">
-        <v>0.21077006448261207</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11224,13 +11377,13 @@
         <v>123</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="D150" s="3">
         <v>2022</v>
       </c>
       <c r="E150" s="3">
-        <v>0.19328994063107527</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11256,13 +11409,13 @@
         <v>123</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="D151" s="4">
         <v>2022</v>
       </c>
       <c r="E151" s="4">
-        <v>0.21471510601685545</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11288,13 +11441,13 @@
         <v>123</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="D152" s="3">
         <v>2022</v>
       </c>
       <c r="E152" s="3">
-        <v>0.19782569372870323</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11320,13 +11473,13 @@
         <v>123</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="D153" s="4">
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11352,7 +11505,7 @@
         <v>123</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D154" s="3">
         <v>2022</v>
@@ -11384,13 +11537,13 @@
         <v>123</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="D155" s="4">
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.211523174241075</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11416,13 +11569,13 @@
         <v>123</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D156" s="3">
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.1930981018275324</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11448,13 +11601,13 @@
         <v>123</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.16152827258311295</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11480,13 +11633,13 @@
         <v>123</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11512,13 +11665,13 @@
         <v>123</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.15291072157643879</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11538,10 +11691,10 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>132</v>
@@ -11570,10 +11723,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" s="4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>26</v>
@@ -11602,10 +11755,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>132</v>
@@ -11634,19 +11787,19 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>4.7E-2</v>
+        <v>2.7384072037362388E-3</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11666,19 +11819,19 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D164" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>1.4E-2</v>
+        <v>1.690330250635249E-3</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11687,12 +11840,812 @@
         <v>2376</v>
       </c>
       <c r="H164" s="3">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I164" s="3">
         <v>2.52</v>
       </c>
       <c r="J164" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A165" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2.5474215275387651E-3</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+      <c r="G165" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H165" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I165" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J165" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A166" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1.1277974215720789E-3</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H166" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I166" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J166" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A167" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1.1043455067346437E-3</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1</v>
+      </c>
+      <c r="G167" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H167" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I167" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J167" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2.5998728400519421E-3</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H168" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I168" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J168" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A169" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E169" s="4">
+        <v>2.1331300002536448E-3</v>
+      </c>
+      <c r="F169" s="4">
+        <v>1</v>
+      </c>
+      <c r="G169" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H169" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I169" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J169" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A170" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1.934352727405538E-3</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H170" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I170" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J170" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A171" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1.3323227019608895E-3</v>
+      </c>
+      <c r="F171" s="4">
+        <v>1</v>
+      </c>
+      <c r="G171" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H171" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I171" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J171" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A172" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1.4142299914721912E-3</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H172" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I172" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J172" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A173" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1.2766843688204856E-3</v>
+      </c>
+      <c r="F173" s="4">
+        <v>1</v>
+      </c>
+      <c r="G173" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H173" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I173" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J173" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A174" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1.9134792076700303E-3</v>
+      </c>
+      <c r="F174" s="3">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H174" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I174" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J174" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A175" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1.9458009250579126E-3</v>
+      </c>
+      <c r="F175" s="4">
+        <v>1</v>
+      </c>
+      <c r="G175" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H175" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I175" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J175" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A176" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2.0977752916527944E-3</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H176" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I176" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J176" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A177" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1.8001961925811674E-3</v>
+      </c>
+      <c r="F177" s="4">
+        <v>1</v>
+      </c>
+      <c r="G177" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H177" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I177" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J177" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1.7389570502530283E-3</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H178" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I178" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J178" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A179" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E179" s="4">
+        <v>1.4544028018509782E-3</v>
+      </c>
+      <c r="F179" s="4">
+        <v>1</v>
+      </c>
+      <c r="G179" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H179" s="4">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="I179" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J179" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A180" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E180" s="3">
+        <v>2.0565820088599379E-3</v>
+      </c>
+      <c r="F180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H180" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I180" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J180" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A181" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E181" s="4">
+        <v>1.4799586835658777E-3</v>
+      </c>
+      <c r="F181" s="4">
+        <v>1</v>
+      </c>
+      <c r="G181" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H181" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I181" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J181" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A182" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1.995984545579471E-3</v>
+      </c>
+      <c r="F182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H182" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I182" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J182" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A183" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1.873956449897916E-3</v>
+      </c>
+      <c r="F183" s="4">
+        <v>1</v>
+      </c>
+      <c r="G183" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H183" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I183" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J183" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A184" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1.9471149127506567E-3</v>
+      </c>
+      <c r="F184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H184" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I184" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J184" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A185" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E185" s="4">
+        <v>1.5846491049785966E-3</v>
+      </c>
+      <c r="F185" s="4">
+        <v>1</v>
+      </c>
+      <c r="G185" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H185" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I185" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J185" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A186" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1.487025085935642E-3</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H186" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I186" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J186" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A187" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E187" s="4">
+        <v>1.2648340199792366E-3</v>
+      </c>
+      <c r="F187" s="4">
+        <v>1</v>
+      </c>
+      <c r="G187" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H187" s="4">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="I187" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J187" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A188" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D188" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2.4603891792050864E-3</v>
+      </c>
+      <c r="F188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>2376</v>
+      </c>
+      <c r="H188" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I188" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J188" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A189" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D189" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E189" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F189" s="4">
+        <v>1</v>
+      </c>
+      <c r="G189" s="4">
+        <v>2376</v>
+      </c>
+      <c r="H189" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="I189" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J189" s="4">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B69FE8-8E05-4712-87D2-D35FBDE14A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFE5369-A384-4676-A562-16521EAE4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D77E8482-D455-40E5-A536-ADF04034B41D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E8156EA0-9B67-4277-88DE-54FCADD64DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -121,12 +121,12 @@
     <t>CH29-220</t>
   </si>
   <si>
+    <t>CH44-220</t>
+  </si>
+  <si>
     <t>w207993342-220</t>
   </si>
   <si>
-    <t>CH44-220</t>
-  </si>
-  <si>
     <t>w234983117-220</t>
   </si>
   <si>
@@ -142,48 +142,63 @@
     <t>w281804158-220</t>
   </si>
   <si>
+    <t>r7933294-380</t>
+  </si>
+  <si>
     <t>CH60-225</t>
   </si>
   <si>
+    <t>w50561341-220</t>
+  </si>
+  <si>
+    <t>w100662075-220</t>
+  </si>
+  <si>
+    <t>CH45-220</t>
+  </si>
+  <si>
+    <t>CH57-220</t>
+  </si>
+  <si>
+    <t>w1208713169-220</t>
+  </si>
+  <si>
+    <t>CH16-380</t>
+  </si>
+  <si>
+    <t>CH59-220</t>
+  </si>
+  <si>
+    <t>w109037817-220</t>
+  </si>
+  <si>
+    <t>CH22-220</t>
+  </si>
+  <si>
+    <t>CH42-220</t>
+  </si>
+  <si>
+    <t>w969811258-220</t>
+  </si>
+  <si>
+    <t>w212498548-220</t>
+  </si>
+  <si>
+    <t>w969819301-220</t>
+  </si>
+  <si>
+    <t>w1086214433-220</t>
+  </si>
+  <si>
+    <t>w1105061707-220</t>
+  </si>
+  <si>
+    <t>w208780268-380</t>
+  </si>
+  <si>
     <t>w391576135-220</t>
   </si>
   <si>
-    <t>CH59-220</t>
-  </si>
-  <si>
-    <t>w109037817-220</t>
-  </si>
-  <si>
-    <t>r7933294-380</t>
-  </si>
-  <si>
-    <t>w50561341-220</t>
-  </si>
-  <si>
-    <t>w1208713169-220</t>
-  </si>
-  <si>
-    <t>CH57-220</t>
-  </si>
-  <si>
-    <t>w1086214433-220</t>
-  </si>
-  <si>
-    <t>w1105061707-220</t>
-  </si>
-  <si>
-    <t>w208780268-380</t>
-  </si>
-  <si>
-    <t>w100662075-220</t>
-  </si>
-  <si>
-    <t>w969819301-220</t>
-  </si>
-  <si>
-    <t>CH16-380</t>
-  </si>
-  <si>
     <t>CH40-220</t>
   </si>
   <si>
@@ -202,39 +217,24 @@
     <t>w36348118-220</t>
   </si>
   <si>
-    <t>CH22-220</t>
-  </si>
-  <si>
-    <t>CH42-220</t>
-  </si>
-  <si>
-    <t>CH45-220</t>
-  </si>
-  <si>
-    <t>w969811258-220</t>
-  </si>
-  <si>
-    <t>w212498548-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
+    <t>w281803398-220</t>
+  </si>
+  <si>
+    <t>w260211728-225</t>
+  </si>
+  <si>
     <t>CH18-220</t>
   </si>
   <si>
+    <t>CH46-220</t>
+  </si>
+  <si>
     <t>w758943072-220</t>
   </si>
   <si>
-    <t>CH46-220</t>
-  </si>
-  <si>
-    <t>w260211728-225</t>
-  </si>
-  <si>
-    <t>w281803398-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -418,15 +418,15 @@
     <t>elc_spv-CHE_0003</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0004</t>
   </si>
   <si>
     <t>elc_spv-CHE_0010</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0013</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>elc_spv-CHE_0000</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0006</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0022</t>
   </si>
   <si>
@@ -454,39 +454,39 @@
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0024</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0002</t>
+    <t>elc_spv-CHE_0020</t>
   </si>
   <si>
     <t>elc_spv-CHE_0007</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
@@ -499,78 +499,78 @@
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
+    <t>elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0013</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005</t>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
   </si>
   <si>
     <t>elc_won-CHE_0015</t>
   </si>
   <si>
-    <t>elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -619,27 +619,27 @@
     <t>Aggregated Plant - IRENA Gap - way/281803398-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH49-225_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/234983117-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/240959264-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/260211728-225_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH49-225_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/240959264-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/234983117-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -802,79 +802,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1444,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B563EE1B-9B91-43C7-8427-D86888534179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B9E804-07E0-4E5E-A272-7EA16951607C}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4430,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4057398B-FD42-4DA0-9EF6-434D72C66783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C0ED98-3133-405B-A9CC-2580AA1284D0}">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4661,7 +4661,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>0.52272499999999988</v>
@@ -4696,7 +4696,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>0.52272499999999988</v>
@@ -4731,7 +4731,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
         <v>0.52272499999999988</v>
@@ -4802,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5410FF-0FED-4800-AC3A-EFBC8628D64B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997A8DFB-457F-488C-9E06-D05283652938}">
   <dimension ref="A1:T230"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5074,25 +5074,25 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>9.4079266895761751E-2</v>
+        <v>2.0664375715922109E-2</v>
       </c>
       <c r="F7" s="4">
-        <v>0.59739999999999993</v>
+        <v>0.57680000000000009</v>
       </c>
       <c r="G7" s="4">
-        <v>1265</v>
+        <v>1485.0000000000002</v>
       </c>
       <c r="H7" s="4">
-        <v>36.300000000000004</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="I7" s="4">
-        <v>3.4650000000000003</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="J7" s="4">
         <v>50</v>
@@ -5127,13 +5127,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
         <v>2022</v>
       </c>
       <c r="E8" s="3">
-        <v>2.0664375715922109E-2</v>
+        <v>1.6456357388316155E-2</v>
       </c>
       <c r="F8" s="3">
         <v>0.57680000000000009</v>
@@ -5145,7 +5145,7 @@
         <v>42.900000000000006</v>
       </c>
       <c r="I8" s="3">
-        <v>3.7800000000000002</v>
+        <v>3.78</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -5180,25 +5180,25 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>1.6456357388316155E-2</v>
+        <v>9.4079266895761751E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>0.57680000000000009</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="G9" s="4">
-        <v>1485.0000000000002</v>
+        <v>1265</v>
       </c>
       <c r="H9" s="4">
-        <v>42.900000000000006</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="I9" s="4">
-        <v>3.78</v>
+        <v>3.4650000000000003</v>
       </c>
       <c r="J9" s="4">
         <v>50</v>
@@ -5557,7 +5557,7 @@
         <v>1957</v>
       </c>
       <c r="E16" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -5566,7 +5566,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H16" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I16" s="3">
         <v>2.3100000000000005</v>
@@ -5610,7 +5610,7 @@
         <v>1957</v>
       </c>
       <c r="E17" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -5619,7 +5619,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H17" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I17" s="4">
         <v>2.3100000000000005</v>
@@ -5975,25 +5975,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>8.6934803522533882E-2</v>
+        <v>1.9501591060460302E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H24" s="3">
-        <v>60.500000000000007</v>
+        <v>71.5</v>
       </c>
       <c r="I24" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -6028,25 +6028,25 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>3.1719455339302899E-2</v>
+        <v>8.7169762450973159E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H25" s="4">
-        <v>71.499999999999986</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I25" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -6081,13 +6081,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>5.9209649966698745E-2</v>
+        <v>7.0487678531784226E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -6134,25 +6134,25 @@
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>2.3495892843928074E-2</v>
+        <v>8.6934803522533882E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H27" s="4">
-        <v>71.5</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I27" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J27" s="4">
         <v>100</v>
@@ -6187,25 +6187,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>8.7169762450973159E-2</v>
+        <v>1.1043069636646195E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3162.5000000000009</v>
+        <v>3712.5</v>
       </c>
       <c r="H28" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I28" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J28" s="3">
         <v>100</v>
@@ -6240,13 +6240,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>7.0487678531784226E-2</v>
+        <v>6.3438910678605798E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -6293,19 +6293,19 @@
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>1.9501591060460302E-2</v>
+        <v>4.3702360689706218E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3712.5</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H30" s="3">
         <v>71.5</v>
@@ -6346,19 +6346,19 @@
         <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>1.1043069636646195E-2</v>
+        <v>1.6447124990749649E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3712.5</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H31" s="4">
         <v>71.5</v>
@@ -6399,25 +6399,25 @@
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>5.1690964256641762E-2</v>
+        <v>3.6888551764967074E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000009</v>
       </c>
       <c r="H32" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I32" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6452,19 +6452,19 @@
         <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>3.6888551764967074E-2</v>
+        <v>1.1747946421964037E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <v>3712.5000000000009</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H33" s="4">
         <v>71.5</v>
@@ -6505,19 +6505,19 @@
         <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>1.1747946421964037E-2</v>
+        <v>4.2292607119070534E-2</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>3712.5000000000005</v>
+        <v>3712.5000000000009</v>
       </c>
       <c r="H34" s="3">
         <v>71.5</v>
@@ -6558,25 +6558,25 @@
         <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>4.2292607119070534E-2</v>
+        <v>5.1690964256641762E-2</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>3712.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H35" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I35" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J35" s="4">
         <v>100</v>
@@ -6611,25 +6611,25 @@
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>9.1164064234440928E-2</v>
+        <v>3.4538962480574274E-2</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H36" s="3">
-        <v>60.500000000000021</v>
+        <v>71.5</v>
       </c>
       <c r="I36" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J36" s="3">
         <v>100</v>
@@ -6664,25 +6664,25 @@
         <v>21</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>1.0573151779767634E-2</v>
+        <v>5.9209649966698745E-2</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>3712.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H37" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I37" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J37" s="4">
         <v>100</v>
@@ -6717,13 +6717,13 @@
         <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>1.5272330348553248E-2</v>
+        <v>2.3495892843928074E-2</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -6770,13 +6770,13 @@
         <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D39" s="4">
         <v>2022</v>
       </c>
       <c r="E39" s="4">
-        <v>1.1747946421964037E-2</v>
+        <v>4.6521867830977587E-2</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -6829,19 +6829,19 @@
         <v>2022</v>
       </c>
       <c r="E40" s="3">
-        <v>6.3438910678605798E-2</v>
+        <v>1.268778213572116E-2</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H40" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I40" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J40" s="3">
         <v>100</v>
@@ -6876,13 +6876,13 @@
         <v>21</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D41" s="4">
         <v>2022</v>
       </c>
       <c r="E41" s="4">
-        <v>1.1747946421964037E-2</v>
+        <v>1.7152001776067495E-2</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -6929,13 +6929,13 @@
         <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D42" s="3">
         <v>2022</v>
       </c>
       <c r="E42" s="3">
-        <v>4.3937319618145496E-2</v>
+        <v>4.2292607119070534E-2</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -6982,19 +6982,19 @@
         <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D43" s="4">
         <v>2022</v>
       </c>
       <c r="E43" s="4">
-        <v>1.5037371420113967E-2</v>
+        <v>4.3937319618145496E-2</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
       </c>
       <c r="G43" s="4">
-        <v>3712.5000000000005</v>
+        <v>3712.5000000000009</v>
       </c>
       <c r="H43" s="4">
         <v>71.5</v>
@@ -7035,13 +7035,13 @@
         <v>21</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3">
         <v>2022</v>
       </c>
       <c r="E44" s="3">
-        <v>1.6447124990749649E-2</v>
+        <v>1.5037371420113967E-2</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -7088,25 +7088,25 @@
         <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4">
         <v>2022</v>
       </c>
       <c r="E45" s="4">
-        <v>3.4538962480574274E-2</v>
+        <v>9.1164064234440928E-2</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
       </c>
       <c r="G45" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H45" s="4">
-        <v>71.5</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I45" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J45" s="4">
         <v>100</v>
@@ -7141,19 +7141,19 @@
         <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46" s="3">
         <v>2022</v>
       </c>
       <c r="E46" s="3">
-        <v>4.5112114260341903E-2</v>
+        <v>1.0573151779767634E-2</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>3712.5000000000005</v>
+        <v>3712.5000000000009</v>
       </c>
       <c r="H46" s="3">
         <v>71.5</v>
@@ -7194,25 +7194,25 @@
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D47" s="4">
         <v>2022</v>
       </c>
       <c r="E47" s="4">
-        <v>5.9679567823577313E-2</v>
+        <v>1.5272330348553248E-2</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
       </c>
       <c r="G47" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H47" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I47" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J47" s="4">
         <v>100</v>
@@ -7247,25 +7247,25 @@
         <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="3">
         <v>2022</v>
       </c>
       <c r="E48" s="3">
-        <v>7.8241323170280486E-2</v>
+        <v>1.1747946421964037E-2</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H48" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I48" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -7300,13 +7300,13 @@
         <v>21</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D49" s="4">
         <v>2022</v>
       </c>
       <c r="E49" s="4">
-        <v>1.268778213572116E-2</v>
+        <v>3.1719455339302899E-2</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>3712.5000000000005</v>
       </c>
       <c r="H49" s="4">
-        <v>71.5</v>
+        <v>71.499999999999986</v>
       </c>
       <c r="I49" s="4">
         <v>2.52</v>
@@ -7353,25 +7353,25 @@
         <v>21</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3">
         <v>2022</v>
       </c>
       <c r="E50" s="3">
-        <v>8.9284392806926696E-2</v>
+        <v>4.5112114260341903E-2</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H50" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I50" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J50" s="3">
         <v>100</v>
@@ -7406,19 +7406,19 @@
         <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4">
         <v>2022</v>
       </c>
       <c r="E51" s="4">
-        <v>5.2160882113520331E-2</v>
+        <v>5.9679567823577313E-2</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
       <c r="G51" s="4">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H51" s="4">
         <v>60.500000000000014</v>
@@ -7459,25 +7459,25 @@
         <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3">
         <v>2022</v>
       </c>
       <c r="E52" s="3">
-        <v>2.3965810700806636E-2</v>
+        <v>7.8241323170280486E-2</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
       </c>
       <c r="G52" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H52" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I52" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -7512,13 +7512,13 @@
         <v>21</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D53" s="4">
         <v>2022</v>
       </c>
       <c r="E53" s="4">
-        <v>1.550728927699253E-2</v>
+        <v>1.268778213572116E-2</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -7565,25 +7565,25 @@
         <v>21</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D54" s="3">
         <v>2022</v>
       </c>
       <c r="E54" s="3">
-        <v>3.1719455339302899E-2</v>
+        <v>8.9284392806926696E-2</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
       </c>
       <c r="G54" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H54" s="3">
-        <v>71.499999999999986</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I54" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -7618,25 +7618,25 @@
         <v>21</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4">
         <v>2022</v>
       </c>
       <c r="E55" s="4">
-        <v>4.6521867830977587E-2</v>
+        <v>5.2160882113520331E-2</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
       </c>
       <c r="G55" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H55" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I55" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J55" s="4">
         <v>100</v>
@@ -7671,13 +7671,13 @@
         <v>21</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D56" s="3">
         <v>2022</v>
       </c>
       <c r="E56" s="3">
-        <v>1.268778213572116E-2</v>
+        <v>2.3965810700806636E-2</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
@@ -7724,13 +7724,13 @@
         <v>21</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D57" s="4">
         <v>2022</v>
       </c>
       <c r="E57" s="4">
-        <v>4.3702360689706218E-2</v>
+        <v>1.550728927699253E-2</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -7777,13 +7777,13 @@
         <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" s="3">
         <v>2022</v>
       </c>
       <c r="E58" s="3">
-        <v>1.7152001776067495E-2</v>
+        <v>3.1719455339302899E-2</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
@@ -7792,7 +7792,7 @@
         <v>3712.5000000000005</v>
       </c>
       <c r="H58" s="3">
-        <v>71.5</v>
+        <v>71.499999999999986</v>
       </c>
       <c r="I58" s="3">
         <v>2.52</v>
@@ -7830,19 +7830,19 @@
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D59" s="4">
         <v>2022</v>
       </c>
       <c r="E59" s="4">
-        <v>4.2292607119070534E-2</v>
+        <v>1.1747946421964037E-2</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
       </c>
       <c r="G59" s="4">
-        <v>3712.5000000000009</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H59" s="4">
         <v>71.5</v>
@@ -7889,19 +7889,19 @@
         <v>2022</v>
       </c>
       <c r="E60" s="3">
-        <v>0.39073669799452387</v>
+        <v>0.10925590172426554</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
       </c>
       <c r="G60" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H60" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I60" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -7936,13 +7936,13 @@
         <v>21</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D61" s="4">
         <v>2022</v>
       </c>
       <c r="E61" s="4">
-        <v>0.12570302671501518</v>
+        <v>0.12617294457189376</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -7989,13 +7989,13 @@
         <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3">
         <v>2022</v>
       </c>
       <c r="E62" s="3">
-        <v>0.12617294457189376</v>
+        <v>0.23777843558055212</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -8004,7 +8004,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H62" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I62" s="3">
         <v>2.3100000000000005</v>
@@ -8042,25 +8042,25 @@
         <v>21</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D63" s="4">
         <v>2022</v>
       </c>
       <c r="E63" s="4">
-        <v>0.16658588026345003</v>
+        <v>0.48918448901058248</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
       </c>
       <c r="G63" s="4">
-        <v>3162.5</v>
+        <v>2750.0000000000005</v>
       </c>
       <c r="H63" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I63" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J63" s="4">
         <v>100</v>
@@ -8095,25 +8095,25 @@
         <v>21</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="3">
         <v>2022</v>
       </c>
       <c r="E64" s="3">
-        <v>0.23777843558055212</v>
+        <v>0.39073669799452387</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H64" s="3">
-        <v>60.500000000000021</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I64" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J64" s="3">
         <v>100</v>
@@ -8148,19 +8148,19 @@
         <v>21</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4">
         <v>2022</v>
       </c>
       <c r="E65" s="4">
-        <v>0.10925590172426554</v>
+        <v>0.16658588026345003</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
       </c>
       <c r="G65" s="4">
-        <v>3162.5000000000005</v>
+        <v>3162.5</v>
       </c>
       <c r="H65" s="4">
         <v>60.500000000000014</v>
@@ -8201,25 +8201,25 @@
         <v>21</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D66" s="3">
         <v>2022</v>
       </c>
       <c r="E66" s="3">
-        <v>0.48918448901058248</v>
+        <v>0.11278028565085477</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>2750.0000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H66" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I66" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -8254,13 +8254,13 @@
         <v>21</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4">
         <v>2022</v>
       </c>
       <c r="E67" s="4">
-        <v>0.11278028565085477</v>
+        <v>0.12570302671501518</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -8307,7 +8307,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D68" s="3">
         <v>1923</v>
@@ -8413,7 +8413,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D70" s="3">
         <v>1966</v>
@@ -8466,7 +8466,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D71" s="4">
         <v>1959</v>
@@ -8572,7 +8572,7 @@
         <v>21</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D73" s="4">
         <v>1955</v>
@@ -8625,7 +8625,7 @@
         <v>21</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D74" s="3">
         <v>1969</v>
@@ -8678,7 +8678,7 @@
         <v>21</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D75" s="4">
         <v>1959</v>
@@ -8731,7 +8731,7 @@
         <v>21</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D76" s="3">
         <v>1955</v>
@@ -8784,7 +8784,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D77" s="4">
         <v>1957</v>
@@ -8837,7 +8837,7 @@
         <v>21</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D78" s="3">
         <v>1958</v>
@@ -8890,7 +8890,7 @@
         <v>21</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D79" s="4">
         <v>1965</v>
@@ -8943,7 +8943,7 @@
         <v>21</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D80" s="3">
         <v>1962</v>
@@ -8996,7 +8996,7 @@
         <v>21</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D81" s="4">
         <v>1981</v>
@@ -9261,7 +9261,7 @@
         <v>21</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D86" s="3">
         <v>1978</v>
@@ -9314,7 +9314,7 @@
         <v>21</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D87" s="4">
         <v>1976</v>
@@ -9367,7 +9367,7 @@
         <v>21</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D88" s="3">
         <v>1910</v>
@@ -9473,7 +9473,7 @@
         <v>21</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D90" s="3">
         <v>1966</v>
@@ -9526,7 +9526,7 @@
         <v>21</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D91" s="4">
         <v>1962</v>
@@ -9579,7 +9579,7 @@
         <v>21</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D92" s="3">
         <v>1970</v>
@@ -9685,7 +9685,7 @@
         <v>21</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D94" s="3">
         <v>1958</v>
@@ -9738,7 +9738,7 @@
         <v>21</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D95" s="4">
         <v>1978</v>
@@ -9791,7 +9791,7 @@
         <v>21</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D96" s="3">
         <v>1968</v>
@@ -9823,7 +9823,7 @@
         <v>21</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="4">
         <v>1961</v>
@@ -9855,7 +9855,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D98" s="3">
         <v>1965</v>
@@ -9887,7 +9887,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D99" s="4">
         <v>1962</v>
@@ -9919,7 +9919,7 @@
         <v>21</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D100" s="3">
         <v>1964</v>
@@ -9951,7 +9951,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D101" s="4">
         <v>1953</v>
@@ -9983,7 +9983,7 @@
         <v>21</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D102" s="3">
         <v>1943</v>
@@ -10015,7 +10015,7 @@
         <v>21</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" s="4">
         <v>1928</v>
@@ -10047,7 +10047,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D104" s="3">
         <v>1926</v>
@@ -10079,7 +10079,7 @@
         <v>13</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D105" s="4">
         <v>1955</v>
@@ -10111,7 +10111,7 @@
         <v>13</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D106" s="3">
         <v>1958</v>
@@ -10143,7 +10143,7 @@
         <v>13</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D107" s="4">
         <v>1966</v>
@@ -10239,7 +10239,7 @@
         <v>13</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D110" s="3">
         <v>1962</v>
@@ -10271,7 +10271,7 @@
         <v>13</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D111" s="4">
         <v>1923</v>
@@ -10303,7 +10303,7 @@
         <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D112" s="3">
         <v>2016</v>
@@ -10335,7 +10335,7 @@
         <v>13</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D113" s="4">
         <v>1977</v>
@@ -10367,7 +10367,7 @@
         <v>13</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D114" s="3">
         <v>2022</v>
@@ -10399,7 +10399,7 @@
         <v>13</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D115" s="4">
         <v>2009</v>
@@ -10463,7 +10463,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D117" s="4">
         <v>1968</v>
@@ -10559,7 +10559,7 @@
         <v>21</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D120" s="3">
         <v>1908</v>
@@ -10591,7 +10591,7 @@
         <v>21</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D121" s="4">
         <v>1920</v>
@@ -10623,7 +10623,7 @@
         <v>21</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D122" s="3">
         <v>1920</v>
@@ -10655,7 +10655,7 @@
         <v>21</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D123" s="4">
         <v>1925</v>
@@ -10687,7 +10687,7 @@
         <v>21</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D124" s="3">
         <v>1932</v>
@@ -10719,7 +10719,7 @@
         <v>21</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D125" s="4">
         <v>1947</v>
@@ -10751,7 +10751,7 @@
         <v>21</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D126" s="3">
         <v>1950</v>
@@ -10783,25 +10783,25 @@
         <v>21</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D127" s="4">
         <v>1952</v>
       </c>
       <c r="E127" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
       </c>
       <c r="G127" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H127" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I127" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J127" s="4">
         <v>103</v>
@@ -10815,25 +10815,25 @@
         <v>21</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D128" s="3">
         <v>1952</v>
       </c>
       <c r="E128" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H128" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I128" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J128" s="3">
         <v>103</v>
@@ -10847,7 +10847,7 @@
         <v>21</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D129" s="4">
         <v>1958</v>
@@ -10879,7 +10879,7 @@
         <v>21</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D130" s="3">
         <v>1959</v>
@@ -10943,7 +10943,7 @@
         <v>21</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D132" s="3">
         <v>1967</v>
@@ -10975,7 +10975,7 @@
         <v>21</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D133" s="4">
         <v>1975</v>
@@ -11237,7 +11237,7 @@
         <v>2011</v>
       </c>
       <c r="E141" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11269,13 +11269,13 @@
         <v>2011</v>
       </c>
       <c r="E142" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
       </c>
       <c r="G142" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H142" s="3">
         <v>21.450000000000003</v>
@@ -11301,13 +11301,13 @@
         <v>2011</v>
       </c>
       <c r="E143" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
       </c>
       <c r="G143" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H143" s="4">
         <v>21.450000000000003</v>
@@ -11327,13 +11327,13 @@
         <v>122</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D144" s="3">
         <v>2011</v>
       </c>
       <c r="E144" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11359,13 +11359,13 @@
         <v>122</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D145" s="4">
         <v>2011</v>
       </c>
       <c r="E145" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11391,13 +11391,13 @@
         <v>122</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D146" s="3">
         <v>2012</v>
       </c>
       <c r="E146" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11423,13 +11423,13 @@
         <v>122</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D147" s="4">
         <v>2012</v>
       </c>
       <c r="E147" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11455,13 +11455,13 @@
         <v>122</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D148" s="3">
         <v>2012</v>
       </c>
       <c r="E148" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11487,13 +11487,13 @@
         <v>122</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D149" s="4">
         <v>2012</v>
       </c>
       <c r="E149" s="4">
-        <v>5.7000000000000002E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11519,19 +11519,19 @@
         <v>122</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D150" s="3">
         <v>2012</v>
       </c>
       <c r="E150" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
       </c>
       <c r="G150" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H150" s="3">
         <v>21.450000000000003</v>
@@ -11551,13 +11551,13 @@
         <v>122</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D151" s="4">
         <v>2012</v>
       </c>
       <c r="E151" s="4">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11583,13 +11583,13 @@
         <v>122</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D152" s="3">
         <v>2012</v>
       </c>
       <c r="E152" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11621,13 +11621,13 @@
         <v>2012</v>
       </c>
       <c r="E153" s="4">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
       </c>
       <c r="G153" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H153" s="4">
         <v>21.450000000000003</v>
@@ -11711,13 +11711,13 @@
         <v>122</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D156" s="3">
         <v>2013</v>
       </c>
       <c r="E156" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11743,13 +11743,13 @@
         <v>122</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D157" s="4">
         <v>2013</v>
       </c>
       <c r="E157" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11775,13 +11775,13 @@
         <v>122</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D158" s="3">
         <v>2013</v>
       </c>
       <c r="E158" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11807,13 +11807,13 @@
         <v>122</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D159" s="4">
         <v>2013</v>
       </c>
       <c r="E159" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11839,13 +11839,13 @@
         <v>122</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D160" s="3">
         <v>2013</v>
       </c>
       <c r="E160" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11871,7 +11871,7 @@
         <v>122</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D161" s="4">
         <v>2013</v>
@@ -11903,7 +11903,7 @@
         <v>122</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D162" s="3">
         <v>2014</v>
@@ -11935,13 +11935,13 @@
         <v>122</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D163" s="4">
         <v>2015</v>
       </c>
       <c r="E163" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -12095,13 +12095,13 @@
         <v>122</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D168" s="3">
         <v>2015</v>
       </c>
       <c r="E168" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12127,13 +12127,13 @@
         <v>122</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D169" s="4">
         <v>2015</v>
       </c>
       <c r="E169" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12159,13 +12159,13 @@
         <v>122</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D170" s="3">
         <v>2015</v>
       </c>
       <c r="E170" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>122</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D173" s="4">
         <v>2016</v>
@@ -12287,7 +12287,7 @@
         <v>122</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D174" s="3">
         <v>2016</v>
@@ -12351,13 +12351,13 @@
         <v>122</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.19782569372870323</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12383,13 +12383,13 @@
         <v>122</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.21471510601685545</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12415,13 +12415,13 @@
         <v>122</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.16637932510042519</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12447,13 +12447,13 @@
         <v>122</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.13710016513395351</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12479,13 +12479,13 @@
         <v>122</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.21731537653220406</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12511,13 +12511,13 @@
         <v>122</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D181" s="4">
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12543,13 +12543,13 @@
         <v>122</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D182" s="3">
         <v>2022</v>
       </c>
       <c r="E182" s="3">
-        <v>0.16277902359433066</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F182" s="3">
         <v>1</v>
@@ -12575,13 +12575,13 @@
         <v>122</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D183" s="4">
         <v>2022</v>
       </c>
       <c r="E183" s="4">
-        <v>0.21077006448261207</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -12607,13 +12607,13 @@
         <v>122</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D184" s="3">
         <v>2022</v>
       </c>
       <c r="E184" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F184" s="3">
         <v>1</v>
@@ -12639,13 +12639,13 @@
         <v>122</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D185" s="4">
         <v>2022</v>
       </c>
       <c r="E185" s="4">
-        <v>0.211523174241075</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>2022</v>
       </c>
       <c r="E186" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F186" s="3">
         <v>1</v>
@@ -12709,7 +12709,7 @@
         <v>2022</v>
       </c>
       <c r="E187" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -12735,13 +12735,13 @@
         <v>122</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D188" s="3">
         <v>2022</v>
       </c>
       <c r="E188" s="3">
-        <v>0.1930981018275324</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
@@ -12767,13 +12767,13 @@
         <v>122</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D189" s="4">
         <v>2022</v>
       </c>
       <c r="E189" s="4">
-        <v>0.17279262926045061</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -12799,13 +12799,13 @@
         <v>122</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D190" s="3">
         <v>2022</v>
       </c>
       <c r="E190" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F190" s="3">
         <v>1</v>
@@ -12831,13 +12831,13 @@
         <v>122</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D191" s="4">
         <v>2022</v>
       </c>
       <c r="E191" s="4">
-        <v>0.16152827258311295</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -12863,13 +12863,13 @@
         <v>122</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D192" s="3">
         <v>2022</v>
       </c>
       <c r="E192" s="3">
-        <v>0.19614947844032105</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F192" s="3">
         <v>1</v>
@@ -12895,13 +12895,13 @@
         <v>122</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D193" s="4">
         <v>2022</v>
       </c>
       <c r="E193" s="4">
-        <v>0.20091315882928704</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -12927,13 +12927,13 @@
         <v>122</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D194" s="3">
         <v>2022</v>
       </c>
       <c r="E194" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F194" s="3">
         <v>1</v>
@@ -12965,7 +12965,7 @@
         <v>2022</v>
       </c>
       <c r="E195" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -12991,13 +12991,13 @@
         <v>122</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D196" s="3">
         <v>2022</v>
       </c>
       <c r="E196" s="3">
-        <v>0.18308354646436523</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F196" s="3">
         <v>1</v>
@@ -13023,13 +13023,13 @@
         <v>122</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D197" s="4">
         <v>2022</v>
       </c>
       <c r="E197" s="4">
-        <v>0.15338177131187081</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -13055,13 +13055,13 @@
         <v>122</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D198" s="3">
         <v>2022</v>
       </c>
       <c r="E198" s="3">
-        <v>0.19828629679661561</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F198" s="3">
         <v>1</v>
@@ -13087,13 +13087,13 @@
         <v>122</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D199" s="4">
         <v>2022</v>
       </c>
       <c r="E199" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -13119,13 +13119,13 @@
         <v>122</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D200" s="3">
         <v>2022</v>
       </c>
       <c r="E200" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F200" s="3">
         <v>1</v>
@@ -13247,13 +13247,13 @@
         <v>150</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D204" s="3">
         <v>2022</v>
       </c>
       <c r="E204" s="3">
-        <v>1.4544028018509782E-3</v>
+        <v>1.995984545579471E-3</v>
       </c>
       <c r="F204" s="3">
         <v>1</v>
@@ -13262,7 +13262,7 @@
         <v>2376</v>
       </c>
       <c r="H204" s="3">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I204" s="3">
         <v>2.52</v>
@@ -13279,13 +13279,13 @@
         <v>150</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D205" s="4">
         <v>2022</v>
       </c>
       <c r="E205" s="4">
-        <v>1.690330250635249E-3</v>
+        <v>1.934352727405538E-3</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -13294,7 +13294,7 @@
         <v>2376</v>
       </c>
       <c r="H205" s="4">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I205" s="4">
         <v>2.52</v>
@@ -13311,13 +13311,13 @@
         <v>150</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D206" s="3">
         <v>2022</v>
       </c>
       <c r="E206" s="3">
-        <v>2.5474215275387651E-3</v>
+        <v>1.3323227019608895E-3</v>
       </c>
       <c r="F206" s="3">
         <v>1</v>
@@ -13343,13 +13343,13 @@
         <v>150</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D207" s="4">
         <v>2022</v>
       </c>
       <c r="E207" s="4">
-        <v>1.934352727405538E-3</v>
+        <v>1.4142299914721912E-3</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
@@ -13375,13 +13375,13 @@
         <v>150</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D208" s="3">
         <v>2022</v>
       </c>
       <c r="E208" s="3">
-        <v>1.3323227019608895E-3</v>
+        <v>2.1331300002536448E-3</v>
       </c>
       <c r="F208" s="3">
         <v>1</v>
@@ -13407,13 +13407,13 @@
         <v>150</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D209" s="4">
         <v>2022</v>
       </c>
       <c r="E209" s="4">
-        <v>1.4142299914721912E-3</v>
+        <v>1.9471149127506567E-3</v>
       </c>
       <c r="F209" s="4">
         <v>1</v>
@@ -13439,13 +13439,13 @@
         <v>150</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D210" s="3">
         <v>2022</v>
       </c>
       <c r="E210" s="3">
-        <v>1.5846491049785966E-3</v>
+        <v>1.2648340199792366E-3</v>
       </c>
       <c r="F210" s="3">
         <v>1</v>
@@ -13454,7 +13454,7 @@
         <v>2376</v>
       </c>
       <c r="H210" s="3">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I210" s="3">
         <v>2.52</v>
@@ -13471,13 +13471,13 @@
         <v>150</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D211" s="4">
         <v>2022</v>
       </c>
       <c r="E211" s="4">
-        <v>1.487025085935642E-3</v>
+        <v>1.5846491049785966E-3</v>
       </c>
       <c r="F211" s="4">
         <v>1</v>
@@ -13503,13 +13503,13 @@
         <v>150</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D212" s="3">
         <v>2022</v>
       </c>
       <c r="E212" s="3">
-        <v>1.1043455067346437E-3</v>
+        <v>1.487025085935642E-3</v>
       </c>
       <c r="F212" s="3">
         <v>1</v>
@@ -13535,13 +13535,13 @@
         <v>150</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D213" s="4">
         <v>2022</v>
       </c>
       <c r="E213" s="4">
-        <v>2.5998728400519421E-3</v>
+        <v>1.2766843688204856E-3</v>
       </c>
       <c r="F213" s="4">
         <v>1</v>
@@ -13573,7 +13573,7 @@
         <v>2022</v>
       </c>
       <c r="E214" s="3">
-        <v>1.2648340199792366E-3</v>
+        <v>1.9134792076700303E-3</v>
       </c>
       <c r="F214" s="3">
         <v>1</v>
@@ -13582,7 +13582,7 @@
         <v>2376</v>
       </c>
       <c r="H214" s="3">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I214" s="3">
         <v>2.52</v>
@@ -13605,7 +13605,7 @@
         <v>2022</v>
       </c>
       <c r="E215" s="4">
-        <v>1.9471149127506567E-3</v>
+        <v>1.9458009250579126E-3</v>
       </c>
       <c r="F215" s="4">
         <v>1</v>
@@ -13637,7 +13637,7 @@
         <v>2022</v>
       </c>
       <c r="E216" s="3">
-        <v>2.4603891792050864E-3</v>
+        <v>2.0977752916527944E-3</v>
       </c>
       <c r="F216" s="3">
         <v>1</v>
@@ -13669,7 +13669,7 @@
         <v>2022</v>
       </c>
       <c r="E217" s="4">
-        <v>1.1277974215720789E-3</v>
+        <v>1.8001961925811674E-3</v>
       </c>
       <c r="F217" s="4">
         <v>1</v>
@@ -13701,7 +13701,7 @@
         <v>2022</v>
       </c>
       <c r="E218" s="3">
-        <v>1.2766843688204856E-3</v>
+        <v>1.7389570502530283E-3</v>
       </c>
       <c r="F218" s="3">
         <v>1</v>
@@ -13733,7 +13733,7 @@
         <v>2022</v>
       </c>
       <c r="E219" s="4">
-        <v>1.9134792076700303E-3</v>
+        <v>2.4603891792050864E-3</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
@@ -13765,7 +13765,7 @@
         <v>2022</v>
       </c>
       <c r="E220" s="3">
-        <v>1.9458009250579126E-3</v>
+        <v>1.1043455067346437E-3</v>
       </c>
       <c r="F220" s="3">
         <v>1</v>
@@ -13791,13 +13791,13 @@
         <v>150</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D221" s="4">
         <v>2022</v>
       </c>
       <c r="E221" s="4">
-        <v>1.995984545579471E-3</v>
+        <v>2.5998728400519421E-3</v>
       </c>
       <c r="F221" s="4">
         <v>1</v>
@@ -13829,7 +13829,7 @@
         <v>2022</v>
       </c>
       <c r="E222" s="3">
-        <v>2.7384072037362388E-3</v>
+        <v>1.690330250635249E-3</v>
       </c>
       <c r="F222" s="3">
         <v>1</v>
@@ -13838,7 +13838,7 @@
         <v>2376</v>
       </c>
       <c r="H222" s="3">
-        <v>57.199999999999996</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I222" s="3">
         <v>2.52</v>
@@ -13861,7 +13861,7 @@
         <v>2022</v>
       </c>
       <c r="E223" s="4">
-        <v>1.873956449897916E-3</v>
+        <v>2.5474215275387651E-3</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -13893,7 +13893,7 @@
         <v>2022</v>
       </c>
       <c r="E224" s="3">
-        <v>2.0565820088599379E-3</v>
+        <v>2.7384072037362388E-3</v>
       </c>
       <c r="F224" s="3">
         <v>1</v>
@@ -13902,7 +13902,7 @@
         <v>2376</v>
       </c>
       <c r="H224" s="3">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I224" s="3">
         <v>2.52</v>
@@ -13925,7 +13925,7 @@
         <v>2022</v>
       </c>
       <c r="E225" s="4">
-        <v>1.4799586835658777E-3</v>
+        <v>1.873956449897916E-3</v>
       </c>
       <c r="F225" s="4">
         <v>1</v>
@@ -13957,7 +13957,7 @@
         <v>2022</v>
       </c>
       <c r="E226" s="3">
-        <v>2.0977752916527944E-3</v>
+        <v>1.4544028018509782E-3</v>
       </c>
       <c r="F226" s="3">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>2376</v>
       </c>
       <c r="H226" s="3">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I226" s="3">
         <v>2.52</v>
@@ -13989,7 +13989,7 @@
         <v>2022</v>
       </c>
       <c r="E227" s="4">
-        <v>1.8001961925811674E-3</v>
+        <v>2.0565820088599379E-3</v>
       </c>
       <c r="F227" s="4">
         <v>1</v>
@@ -14021,7 +14021,7 @@
         <v>2022</v>
       </c>
       <c r="E228" s="3">
-        <v>1.7389570502530283E-3</v>
+        <v>1.4799586835658777E-3</v>
       </c>
       <c r="F228" s="3">
         <v>1</v>
@@ -14053,7 +14053,7 @@
         <v>2022</v>
       </c>
       <c r="E229" s="4">
-        <v>2.1331300002536448E-3</v>
+        <v>1.1277974215720789E-3</v>
       </c>
       <c r="F229" s="4">
         <v>1</v>
@@ -14079,7 +14079,7 @@
         <v>150</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D230" s="3">
         <v>2023</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{092A8FDD-A7FF-41D4-AD2B-F1B35100EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDFD854-5A4D-4472-B510-07FA23FF9394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A6F9F572-CC8A-478A-94A6-C396C3A417C6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A64DC46E-4020-4901-84FB-378A90AC0984}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="307">
   <si>
     <t>~fi_t</t>
   </si>
@@ -88,16 +88,16 @@
     <t>gas</t>
   </si>
   <si>
-    <t>r5378910-220</t>
-  </si>
-  <si>
-    <t>CH48-225</t>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
   </si>
   <si>
     <t>ep_gas_combined_cycle_</t>
   </si>
   <si>
-    <t>CH1-220</t>
+    <t>e_CH1-220</t>
   </si>
   <si>
     <t>ep_gas_gas_turbine__m</t>
@@ -109,67 +109,64 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>w207991759-380</t>
-  </si>
-  <si>
-    <t>CH19-220</t>
-  </si>
-  <si>
-    <t>CH12-220</t>
-  </si>
-  <si>
-    <t>CH32-220</t>
-  </si>
-  <si>
-    <t>CH30-380</t>
-  </si>
-  <si>
-    <t>CH21-220</t>
-  </si>
-  <si>
-    <t>w212722603-220</t>
-  </si>
-  <si>
-    <t>CH41-380</t>
-  </si>
-  <si>
-    <t>CH17-380</t>
-  </si>
-  <si>
-    <t>CH16-380</t>
-  </si>
-  <si>
-    <t>w228003081-220</t>
-  </si>
-  <si>
-    <t>CH45-220</t>
-  </si>
-  <si>
-    <t>w108257952-220</t>
-  </si>
-  <si>
-    <t>CH51-220</t>
-  </si>
-  <si>
-    <t>CH43-220</t>
-  </si>
-  <si>
-    <t>r7933294-380</t>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>e_CH12-220</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
   </si>
   <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
-    <t>CH46-220</t>
-  </si>
-  <si>
-    <t>w758943072-220</t>
-  </si>
-  <si>
-    <t>CH18-220</t>
-  </si>
-  <si>
-    <t>CH50-220</t>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
   </si>
   <si>
     <t>ep_hydro_dam_G100000603509</t>
@@ -319,6 +316,9 @@
     <t>ep_hydro_ror</t>
   </si>
   <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
     <t>ep_nuclear_G100000500087</t>
   </si>
   <si>
@@ -340,33 +340,81 @@
     <t>solar</t>
   </si>
   <si>
-    <t>w194258388-220</t>
-  </si>
-  <si>
-    <t>w26843160-220</t>
-  </si>
-  <si>
-    <t>w26166640-220</t>
-  </si>
-  <si>
-    <t>w127004407-380</t>
-  </si>
-  <si>
-    <t>CH31-220</t>
-  </si>
-  <si>
-    <t>CH4-220</t>
-  </si>
-  <si>
-    <t>w232662311-220</t>
-  </si>
-  <si>
-    <t>w122720993-220</t>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0012</t>
   </si>
   <si>
@@ -376,156 +424,108 @@
     <t>elc_spv-CHE_0008</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0022</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0025</t>
   </si>
   <si>
-    <t>elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0018</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0009</t>
   </si>
   <si>
-    <t>elc_won-CHE_0016</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -574,30 +574,33 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH21-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - relation/7933294-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CH50-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH21-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -760,79 +763,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1408,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B191C3-C936-4BC6-ADAB-5C180B0CF8A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185252FB-88C3-440A-BDA9-F8B6C7F1F497}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1475,7 +1478,7 @@
         <v>2050</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>164</v>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1525,7 +1528,7 @@
         <v>170</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -1543,7 +1546,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -1561,13 +1564,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>170</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
@@ -1585,7 +1588,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1609,7 +1612,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
@@ -1627,7 +1630,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1651,7 +1654,7 @@
         <v>170</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
@@ -1669,7 +1672,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -1687,13 +1690,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -1711,7 +1714,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1735,7 +1738,7 @@
         <v>170</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
@@ -1753,7 +1756,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1771,13 +1774,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -1795,7 +1798,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1819,7 +1822,7 @@
         <v>170</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
@@ -1837,7 +1840,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1861,7 +1864,7 @@
         <v>170</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -1879,7 +1882,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -1897,13 +1900,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>170</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
@@ -1921,7 +1924,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1945,7 +1948,7 @@
         <v>170</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -1963,7 +1966,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -1981,13 +1984,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>170</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
@@ -2005,7 +2008,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -2029,7 +2032,7 @@
         <v>170</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -2047,7 +2050,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -2071,7 +2074,7 @@
         <v>170</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
@@ -2089,7 +2092,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -2107,13 +2110,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -2131,7 +2134,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -2155,7 +2158,7 @@
         <v>170</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
@@ -2173,7 +2176,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -2191,13 +2194,13 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
@@ -2215,7 +2218,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
@@ -2239,7 +2242,7 @@
         <v>170</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
@@ -2257,7 +2260,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -2281,7 +2284,7 @@
         <v>170</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -2299,7 +2302,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -2317,13 +2320,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>170</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
@@ -2341,7 +2344,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -2365,7 +2368,7 @@
         <v>170</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -2383,7 +2386,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>15</v>
@@ -2407,7 +2410,7 @@
         <v>170</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
@@ -2425,7 +2428,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>15</v>
@@ -2449,7 +2452,7 @@
         <v>170</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -2467,7 +2470,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -2491,7 +2494,7 @@
         <v>170</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
@@ -2509,7 +2512,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>15</v>
@@ -2533,7 +2536,7 @@
         <v>170</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
@@ -2551,7 +2554,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -2575,7 +2578,7 @@
         <v>170</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
@@ -2593,7 +2596,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>15</v>
@@ -2616,7 +2619,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -2639,7 +2642,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>15</v>
@@ -2662,10 +2665,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -2685,10 +2688,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -2708,10 +2711,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
@@ -2731,7 +2734,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>99</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>99</v>
@@ -2772,12 +2775,12 @@
         <v>0.42</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>99</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>99</v>
@@ -2823,7 +2826,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>99</v>
@@ -2841,15 +2844,15 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -2869,10 +2872,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
@@ -2892,10 +2895,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -2915,7 +2918,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -2938,7 +2941,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>15</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -2984,10 +2987,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>13</v>
@@ -3007,10 +3010,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
@@ -3025,15 +3028,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>13</v>
@@ -3053,10 +3056,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
@@ -3076,10 +3079,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>13</v>
@@ -3094,12 +3097,12 @@
         <v>4</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>22</v>
@@ -3122,7 +3125,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>22</v>
@@ -3140,12 +3143,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>22</v>
@@ -3168,7 +3171,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -3191,7 +3194,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>22</v>
@@ -3209,12 +3212,12 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -3237,7 +3240,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>22</v>
@@ -3255,12 +3258,12 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>22</v>
@@ -3283,7 +3286,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>22</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>22</v>
@@ -3324,12 +3327,12 @@
         <v>4</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -3352,7 +3355,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>15</v>
@@ -3375,7 +3378,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>15</v>
@@ -3398,10 +3401,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>13</v>
@@ -3421,10 +3424,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>13</v>
@@ -3467,10 +3470,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -3490,10 +3493,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>13</v>
@@ -3508,15 +3511,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
@@ -3536,10 +3539,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>13</v>
@@ -3559,10 +3562,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
@@ -3577,12 +3580,12 @@
         <v>4</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>94</v>
@@ -3605,7 +3608,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>94</v>
@@ -3628,7 +3631,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>94</v>
@@ -3651,10 +3654,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
@@ -3674,10 +3677,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>13</v>
@@ -3697,10 +3700,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>13</v>
@@ -3720,7 +3723,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>99</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>99</v>
@@ -3761,12 +3764,12 @@
         <v>0.13</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>99</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>99</v>
@@ -3812,7 +3815,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>99</v>
@@ -3830,12 +3833,12 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>99</v>
@@ -3858,7 +3861,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>99</v>
@@ -3876,12 +3879,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>99</v>
@@ -3904,7 +3907,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>99</v>
@@ -3927,7 +3930,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>99</v>
@@ -3945,15 +3948,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>13</v>
@@ -3973,10 +3976,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>13</v>
@@ -3996,10 +3999,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>13</v>
@@ -4019,10 +4022,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>13</v>
@@ -4042,10 +4045,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>13</v>
@@ -4065,10 +4068,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>13</v>
@@ -4088,10 +4091,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>13</v>
@@ -4111,10 +4114,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>13</v>
@@ -4134,10 +4137,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>13</v>
@@ -4157,7 +4160,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>135</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>135</v>
@@ -4198,12 +4201,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>135</v>
@@ -4226,7 +4229,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>135</v>
@@ -4249,7 +4252,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>135</v>
@@ -4267,12 +4270,12 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>135</v>
@@ -4295,7 +4298,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>135</v>
@@ -4313,12 +4316,12 @@
         <v>0.3</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>135</v>
@@ -4341,7 +4344,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>135</v>
@@ -4364,7 +4367,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>135</v>
@@ -4382,7 +4385,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AFB96A-DA00-4AF6-8E4A-9181EC115D4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAC1209-D350-46DA-9BE7-F40CC83B708E}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4403,7 +4406,7 @@
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="10.59765625" customWidth="1"/>
     <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.59765625" customWidth="1"/>
@@ -4472,13 +4475,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
@@ -4507,7 +4510,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4543,10 +4546,10 @@
         <v>170</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>172</v>
@@ -4558,12 +4561,12 @@
         <v>174</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -4599,10 +4602,10 @@
         <v>170</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>172</v>
@@ -4614,12 +4617,12 @@
         <v>174</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4655,10 +4658,10 @@
         <v>170</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>172</v>
@@ -4670,12 +4673,12 @@
         <v>174</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -4717,8 +4720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E4B8FB-522C-460A-9216-D14D8F03B990}">
-  <dimension ref="A1:T209"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1471F9FC-FC3E-4CB6-B5DE-5B1B778FA0D7}">
+  <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4726,7 +4729,7 @@
   <cols>
     <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="10.59765625" customWidth="1"/>
     <col min="14" max="14" width="10.59765625" customWidth="1"/>
     <col min="15" max="15" width="23.46484375" bestFit="1" customWidth="1"/>
@@ -5122,7 +5125,7 @@
         <v>170</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>178</v>
@@ -5175,7 +5178,7 @@
         <v>170</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>179</v>
@@ -5228,7 +5231,7 @@
         <v>170</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>180</v>
@@ -5281,7 +5284,7 @@
         <v>170</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>181</v>
@@ -5334,7 +5337,7 @@
         <v>170</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>182</v>
@@ -5366,7 +5369,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5375,7 +5378,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5387,7 +5390,7 @@
         <v>170</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>183</v>
@@ -5419,7 +5422,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5428,7 +5431,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5440,7 +5443,7 @@
         <v>170</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -5466,7 +5469,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5493,7 +5496,7 @@
         <v>170</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>185</v>
@@ -5546,7 +5549,7 @@
         <v>170</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>186</v>
@@ -5561,7 +5564,7 @@
         <v>174</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
@@ -5572,7 +5575,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5599,10 +5602,10 @@
         <v>170</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>172</v>
@@ -5614,7 +5617,7 @@
         <v>174</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
@@ -5652,7 +5655,7 @@
         <v>170</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>189</v>
@@ -5667,7 +5670,7 @@
         <v>174</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
@@ -5678,7 +5681,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5705,7 +5708,7 @@
         <v>170</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>190</v>
@@ -5720,7 +5723,7 @@
         <v>174</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
@@ -5758,7 +5761,7 @@
         <v>170</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>191</v>
@@ -5773,7 +5776,7 @@
         <v>174</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
@@ -5790,7 +5793,7 @@
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>8.9284392806926696E-2</v>
+        <v>7.9568686935303057E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -5811,7 +5814,7 @@
         <v>170</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>192</v>
@@ -5826,7 +5829,7 @@
         <v>174</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
@@ -5837,25 +5840,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>5.9444608895138029E-2</v>
+        <v>3.8946778342016763E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H23" s="4">
-        <v>60.500000000000021</v>
+        <v>71.5</v>
       </c>
       <c r="I23" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
@@ -5864,7 +5867,7 @@
         <v>170</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>193</v>
@@ -5879,7 +5882,7 @@
         <v>174</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
@@ -5890,13 +5893,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>1.9031673203581741E-2</v>
+        <v>1.5494954824243228E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -5917,7 +5920,7 @@
         <v>170</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>194</v>
@@ -5932,7 +5935,7 @@
         <v>174</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
@@ -5943,25 +5946,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>1.7386960704506776E-2</v>
+        <v>5.5069907010486065E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I25" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -5970,7 +5973,7 @@
         <v>170</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>195</v>
@@ -5985,7 +5988,7 @@
         <v>174</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
@@ -5996,25 +5999,25 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>6.1794198179530836E-2</v>
+        <v>3.2874431181164683E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H26" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I26" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -6023,7 +6026,7 @@
         <v>170</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>196</v>
@@ -6038,7 +6041,7 @@
         <v>174</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
@@ -6049,13 +6052,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>3.1719455339302899E-2</v>
+        <v>3.1408692211303837E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -6064,7 +6067,7 @@
         <v>3712.5000000000005</v>
       </c>
       <c r="H27" s="4">
-        <v>71.499999999999986</v>
+        <v>71.5</v>
       </c>
       <c r="I27" s="4">
         <v>2.52</v>
@@ -6076,7 +6079,7 @@
         <v>170</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>197</v>
@@ -6091,7 +6094,7 @@
         <v>174</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
@@ -6102,13 +6105,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>4.3702360689706218E-2</v>
+        <v>1.0888346633251996E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -6129,7 +6132,7 @@
         <v>170</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>198</v>
@@ -6144,7 +6147,7 @@
         <v>174</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
@@ -6155,19 +6158,19 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>1.1043069636646195E-2</v>
+        <v>2.8267822990173462E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3712.5</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H29" s="4">
         <v>71.5</v>
@@ -6182,7 +6185,7 @@
         <v>170</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>199</v>
@@ -6197,7 +6200,7 @@
         <v>174</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
@@ -6208,25 +6211,25 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>3.5243839265892113E-2</v>
+        <v>5.2975994196399145E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H30" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I30" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J30" s="3">
         <v>100</v>
@@ -6235,7 +6238,7 @@
         <v>170</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>200</v>
@@ -6250,7 +6253,7 @@
         <v>174</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
@@ -6261,19 +6264,19 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>1.0573151779767634E-2</v>
+        <v>1.0469564070434612E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3712.5000000000009</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H31" s="4">
         <v>71.5</v>
@@ -6288,7 +6291,7 @@
         <v>170</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>201</v>
@@ -6303,7 +6306,7 @@
         <v>174</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
@@ -6314,25 +6317,25 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>9.3278694590394451E-2</v>
+        <v>1.6960693794104073E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I32" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6341,7 +6344,7 @@
         <v>170</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>202</v>
@@ -6356,7 +6359,7 @@
         <v>174</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.45">
@@ -6367,25 +6370,25 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>3.6888551764967074E-2</v>
+        <v>8.3128338719250822E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <v>3712.5000000000009</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H33" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I33" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J33" s="4">
         <v>100</v>
@@ -6394,7 +6397,7 @@
         <v>170</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>203</v>
@@ -6409,36 +6412,36 @@
         <v>174</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>1.1747946421964037E-2</v>
+        <v>0.35429004814350729</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>3712.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H34" s="3">
-        <v>71.5</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I34" s="3">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="J34" s="3">
         <v>100</v>
@@ -6447,7 +6450,7 @@
         <v>170</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>204</v>
@@ -6462,36 +6465,36 @@
         <v>174</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>1.2217864278842598E-2</v>
+        <v>1.1692409153861374</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>3712.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H35" s="4">
-        <v>71.5</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I35" s="4">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="J35" s="4">
         <v>100</v>
@@ -6500,7 +6503,7 @@
         <v>170</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>205</v>
@@ -6515,12 +6518,12 @@
         <v>174</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>22</v>
@@ -6532,7 +6535,7 @@
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.14097535706356845</v>
+        <v>0.14908659236298891</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -6553,7 +6556,7 @@
         <v>170</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>206</v>
@@ -6568,24 +6571,24 @@
         <v>174</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.39755050691926302</v>
+        <v>0.52892237683835663</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -6606,7 +6609,7 @@
         <v>170</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>207</v>
@@ -6621,24 +6624,24 @@
         <v>174</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>0.2882946051949975</v>
+        <v>0.19599023939853596</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -6659,7 +6662,7 @@
         <v>170</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>208</v>
@@ -6674,12 +6677,12 @@
         <v>174</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>22</v>
@@ -6691,7 +6694,7 @@
         <v>2022</v>
       </c>
       <c r="E39" s="4">
-        <v>0.16729075704876789</v>
+        <v>0.15013354877003235</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -6700,7 +6703,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H39" s="4">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I39" s="4">
         <v>2.3100000000000005</v>
@@ -6712,7 +6715,7 @@
         <v>170</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>209</v>
@@ -6727,12 +6730,12 @@
         <v>174</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>22</v>
@@ -6744,19 +6747,19 @@
         <v>2022</v>
       </c>
       <c r="E40" s="3">
-        <v>0.59350625323762318</v>
+        <v>0.2512695376904307</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H40" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I40" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J40" s="3">
         <v>100</v>
@@ -6765,7 +6768,7 @@
         <v>170</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>210</v>
@@ -6780,12 +6783,12 @@
         <v>174</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>22</v>
@@ -6797,7 +6800,7 @@
         <v>2022</v>
       </c>
       <c r="E41" s="4">
-        <v>0.41893176940723759</v>
+        <v>0.37334465475169831</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -6806,7 +6809,7 @@
         <v>2750</v>
       </c>
       <c r="H41" s="4">
-        <v>55.000000000000014</v>
+        <v>55</v>
       </c>
       <c r="I41" s="4">
         <v>2.1</v>
@@ -6818,7 +6821,7 @@
         <v>170</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>211</v>
@@ -6833,24 +6836,24 @@
         <v>174</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D42" s="3">
         <v>2022</v>
       </c>
       <c r="E42" s="3">
-        <v>0.16846555169096428</v>
+        <v>0.25692310228846538</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -6871,7 +6874,7 @@
         <v>170</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>212</v>
@@ -6886,45 +6889,45 @@
         <v>174</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D43" s="4">
-        <v>2022</v>
+        <v>1923</v>
       </c>
       <c r="E43" s="4">
-        <v>0.63438910678605798</v>
+        <v>0.12</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
       </c>
       <c r="G43" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H43" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I43" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J43" s="4">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>170</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>213</v>
@@ -6939,24 +6942,24 @@
         <v>174</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3">
-        <v>2022</v>
+        <v>1962</v>
       </c>
       <c r="E44" s="3">
-        <v>0.21992155701916677</v>
+        <v>0.22</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -6977,7 +6980,7 @@
         <v>170</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>214</v>
@@ -6992,24 +6995,24 @@
         <v>174</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4">
-        <v>1923</v>
+        <v>1966</v>
       </c>
       <c r="E45" s="4">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -7024,13 +7027,13 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J45" s="4">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>170</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>215</v>
@@ -7045,36 +7048,36 @@
         <v>174</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D46" s="3">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="E46" s="3">
-        <v>0.22</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H46" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I46" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -7083,7 +7086,7 @@
         <v>170</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>216</v>
@@ -7098,36 +7101,36 @@
         <v>174</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D47" s="4">
-        <v>1966</v>
+        <v>1999</v>
       </c>
       <c r="E47" s="4">
-        <v>0.14000000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
       </c>
       <c r="G47" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H47" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I47" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J47" s="4">
         <v>100</v>
@@ -7136,7 +7139,7 @@
         <v>170</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>217</v>
@@ -7151,36 +7154,36 @@
         <v>174</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D48" s="3">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E48" s="3">
-        <v>0.32400000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H48" s="3">
-        <v>55.000000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I48" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -7189,7 +7192,7 @@
         <v>170</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>218</v>
@@ -7204,24 +7207,24 @@
         <v>174</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
-        <v>1999</v>
+        <v>1969</v>
       </c>
       <c r="E49" s="4">
-        <v>1.26</v>
+        <v>0.34</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -7242,7 +7245,7 @@
         <v>170</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>219</v>
@@ -7257,21 +7260,21 @@
         <v>174</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D50" s="3">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="E50" s="3">
         <v>0.1</v>
@@ -7295,7 +7298,7 @@
         <v>170</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>220</v>
@@ -7310,36 +7313,36 @@
         <v>174</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4">
-        <v>1969</v>
+        <v>1955</v>
       </c>
       <c r="E51" s="4">
-        <v>0.34</v>
+        <v>0.114</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
       <c r="G51" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H51" s="4">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I51" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J51" s="4">
         <v>100</v>
@@ -7348,7 +7351,7 @@
         <v>170</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>221</v>
@@ -7363,36 +7366,36 @@
         <v>174</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D52" s="3">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="E52" s="3">
-        <v>0.1</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
       </c>
       <c r="G52" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H52" s="3">
-        <v>60.500000000000021</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="I52" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -7401,7 +7404,7 @@
         <v>170</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>222</v>
@@ -7416,24 +7419,24 @@
         <v>174</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D53" s="4">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="E53" s="4">
-        <v>0.114</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -7451,13 +7454,13 @@
         <v>100</v>
       </c>
       <c r="N53" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>172</v>
@@ -7469,48 +7472,48 @@
         <v>174</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="3">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="E54" s="3">
-        <v>0.30599999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
       </c>
       <c r="G54" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H54" s="3">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I54" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>172</v>
@@ -7522,24 +7525,24 @@
         <v>174</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E55" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -7557,10 +7560,10 @@
         <v>100</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>225</v>
@@ -7575,45 +7578,45 @@
         <v>174</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D56" s="3">
-        <v>1965</v>
+        <v>1981</v>
       </c>
       <c r="E56" s="3">
-        <v>0.13300000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H56" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I56" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J56" s="3">
         <v>100</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>226</v>
@@ -7628,24 +7631,24 @@
         <v>174</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57" s="4">
-        <v>1962</v>
+        <v>1928</v>
       </c>
       <c r="E57" s="4">
-        <v>0.16500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -7654,19 +7657,19 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H57" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I57" s="4">
         <v>2.3100000000000005</v>
       </c>
       <c r="J57" s="4">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>227</v>
@@ -7681,12 +7684,12 @@
         <v>174</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>22</v>
@@ -7695,31 +7698,31 @@
         <v>24</v>
       </c>
       <c r="D58" s="3">
-        <v>1981</v>
+        <v>1950</v>
       </c>
       <c r="E58" s="3">
-        <v>0.38800000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
       </c>
       <c r="G58" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H58" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I58" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>228</v>
@@ -7734,12 +7737,12 @@
         <v>174</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>22</v>
@@ -7748,10 +7751,10 @@
         <v>24</v>
       </c>
       <c r="D59" s="4">
-        <v>1928</v>
+        <v>2016</v>
       </c>
       <c r="E59" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -7760,19 +7763,19 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H59" s="4">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I59" s="4">
         <v>2.3100000000000005</v>
       </c>
       <c r="J59" s="4">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>229</v>
@@ -7787,12 +7790,12 @@
         <v>174</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>22</v>
@@ -7801,10 +7804,10 @@
         <v>24</v>
       </c>
       <c r="D60" s="3">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="E60" s="3">
-        <v>0.126</v>
+        <v>0.24</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -7819,13 +7822,13 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J60" s="3">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>230</v>
@@ -7840,30 +7843,30 @@
         <v>174</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D61" s="4">
-        <v>2016</v>
+        <v>1978</v>
       </c>
       <c r="E61" s="4">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
       </c>
       <c r="G61" s="4">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H61" s="4">
         <v>60.500000000000014</v>
@@ -7875,10 +7878,10 @@
         <v>100</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>231</v>
@@ -7893,24 +7896,24 @@
         <v>174</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D62" s="3">
-        <v>1943</v>
+        <v>1976</v>
       </c>
       <c r="E62" s="3">
-        <v>0.24</v>
+        <v>0.122</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -7925,13 +7928,13 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J62" s="3">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>232</v>
@@ -7946,45 +7949,45 @@
         <v>174</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D63" s="4">
-        <v>1978</v>
+        <v>1910</v>
       </c>
       <c r="E63" s="4">
-        <v>0.17</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
       </c>
       <c r="G63" s="4">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H63" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I63" s="4">
         <v>2.3100000000000005</v>
       </c>
       <c r="J63" s="4">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>233</v>
@@ -7999,45 +8002,45 @@
         <v>174</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D64" s="3">
-        <v>1976</v>
+        <v>1960</v>
       </c>
       <c r="E64" s="3">
-        <v>0.122</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H64" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I64" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J64" s="3">
         <v>100</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>234</v>
@@ -8052,24 +8055,24 @@
         <v>174</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D65" s="4">
-        <v>1910</v>
+        <v>1966</v>
       </c>
       <c r="E65" s="4">
-        <v>0.19800000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -8078,22 +8081,22 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H65" s="4">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I65" s="4">
         <v>2.3100000000000005</v>
       </c>
       <c r="J65" s="4">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="Q65" s="4" t="s">
         <v>172</v>
@@ -8105,36 +8108,36 @@
         <v>174</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D66" s="3">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="E66" s="3">
-        <v>0.39200000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H66" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I66" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -8143,10 +8146,10 @@
         <v>170</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>172</v>
@@ -8158,24 +8161,24 @@
         <v>174</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D67" s="4">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="E67" s="4">
-        <v>0.14099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -8196,7 +8199,7 @@
         <v>170</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>236</v>
@@ -8211,24 +8214,24 @@
         <v>174</v>
       </c>
       <c r="T67" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D68" s="3">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="E68" s="3">
-        <v>0.10199999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
@@ -8237,7 +8240,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H68" s="3">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I68" s="3">
         <v>2.3100000000000005</v>
@@ -8249,7 +8252,7 @@
         <v>170</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>237</v>
@@ -8264,24 +8267,24 @@
         <v>174</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D69" s="4">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="E69" s="4">
-        <v>0.3</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -8302,7 +8305,7 @@
         <v>170</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>238</v>
@@ -8317,24 +8320,24 @@
         <v>174</v>
       </c>
       <c r="T69" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D70" s="3">
-        <v>1956</v>
+        <v>1978</v>
       </c>
       <c r="E70" s="3">
-        <v>0.25800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -8343,7 +8346,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H70" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="I70" s="3">
         <v>2.3100000000000005</v>
@@ -8355,10 +8358,10 @@
         <v>170</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>172</v>
@@ -8367,27 +8370,27 @@
         <v>173</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D71" s="4">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="E71" s="4">
-        <v>0.13500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -8408,10 +8411,10 @@
         <v>170</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="Q71" s="4" t="s">
         <v>172</v>
@@ -8420,7 +8423,7 @@
         <v>173</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T71" s="4" t="s">
         <v>175</v>
@@ -8428,19 +8431,19 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3">
-        <v>1978</v>
+        <v>1961</v>
       </c>
       <c r="E72" s="3">
-        <v>0.1</v>
+        <v>0.247</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
@@ -8449,7 +8452,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H72" s="3">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I72" s="3">
         <v>2.3100000000000005</v>
@@ -8473,7 +8476,7 @@
         <v>173</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>175</v>
@@ -8481,19 +8484,19 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D73" s="4">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="E73" s="4">
-        <v>0.15</v>
+        <v>0.185</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -8502,7 +8505,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H73" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I73" s="4">
         <v>2.3100000000000005</v>
@@ -8526,7 +8529,7 @@
         <v>173</v>
       </c>
       <c r="S73" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T73" s="4" t="s">
         <v>175</v>
@@ -8534,19 +8537,19 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D74" s="3">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E74" s="3">
-        <v>0.247</v>
+        <v>0.18</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
@@ -8555,7 +8558,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H74" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I74" s="3">
         <v>2.3100000000000005</v>
@@ -8579,7 +8582,7 @@
         <v>173</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>175</v>
@@ -8587,31 +8590,31 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D75" s="4">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E75" s="4">
-        <v>0.185</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H75" s="4">
-        <v>60.500000000000007</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I75" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J75" s="4">
         <v>100</v>
@@ -8632,7 +8635,7 @@
         <v>173</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T75" s="4" t="s">
         <v>175</v>
@@ -8640,19 +8643,19 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D76" s="3">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="E76" s="3">
-        <v>0.18</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -8661,13 +8664,13 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H76" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I76" s="3">
         <v>2.3100000000000005</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>170</v>
@@ -8685,7 +8688,7 @@
         <v>173</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>175</v>
@@ -8693,34 +8696,34 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D77" s="4">
-        <v>1964</v>
+        <v>1943</v>
       </c>
       <c r="E77" s="4">
-        <v>0.35199999999999998</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
       </c>
       <c r="G77" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H77" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I77" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J77" s="4">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>170</v>
@@ -8738,7 +8741,7 @@
         <v>173</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T77" s="4" t="s">
         <v>175</v>
@@ -8746,19 +8749,19 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D78" s="3">
-        <v>1953</v>
+        <v>1928</v>
       </c>
       <c r="E78" s="3">
-        <v>0.11899999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -8773,7 +8776,7 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J78" s="3">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>170</v>
@@ -8791,7 +8794,7 @@
         <v>173</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>175</v>
@@ -8799,34 +8802,34 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D79" s="4">
-        <v>1943</v>
+        <v>1926</v>
       </c>
       <c r="E79" s="4">
-        <v>0.10299999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
       </c>
       <c r="G79" s="4">
-        <v>3162.5000000000005</v>
+        <v>2277</v>
       </c>
       <c r="H79" s="4">
-        <v>60.500000000000014</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I79" s="4">
-        <v>2.3100000000000005</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J79" s="4">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>170</v>
@@ -8844,7 +8847,7 @@
         <v>173</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T79" s="4" t="s">
         <v>175</v>
@@ -8855,31 +8858,31 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D80" s="3">
-        <v>1928</v>
+        <v>1955</v>
       </c>
       <c r="E80" s="3">
-        <v>0.107</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
       </c>
       <c r="G80" s="3">
-        <v>3162.5000000000005</v>
+        <v>2277</v>
       </c>
       <c r="H80" s="3">
-        <v>60.500000000000014</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I80" s="3">
-        <v>2.3100000000000005</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J80" s="3">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>170</v>
@@ -8897,7 +8900,7 @@
         <v>173</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>175</v>
@@ -8905,19 +8908,19 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D81" s="4">
-        <v>1926</v>
+        <v>1958</v>
       </c>
       <c r="E81" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -8929,10 +8932,10 @@
         <v>48.400000000000006</v>
       </c>
       <c r="I81" s="4">
-        <v>1.7325000000000002</v>
+        <v>1.7325000000000004</v>
       </c>
       <c r="J81" s="4">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>170</v>
@@ -8950,7 +8953,7 @@
         <v>173</v>
       </c>
       <c r="S81" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T81" s="4" t="s">
         <v>175</v>
@@ -8958,19 +8961,19 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D82" s="3">
-        <v>1955</v>
+        <v>1966</v>
       </c>
       <c r="E82" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -9003,7 +9006,7 @@
         <v>173</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>175</v>
@@ -9011,19 +9014,19 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D83" s="4">
-        <v>1958</v>
+        <v>1976</v>
       </c>
       <c r="E83" s="4">
-        <v>8.8999999999999996E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -9035,7 +9038,7 @@
         <v>48.400000000000006</v>
       </c>
       <c r="I83" s="4">
-        <v>1.7325000000000004</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J83" s="4">
         <v>100</v>
@@ -9056,7 +9059,7 @@
         <v>173</v>
       </c>
       <c r="S83" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T83" s="4" t="s">
         <v>175</v>
@@ -9070,13 +9073,13 @@
         <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D84" s="3">
-        <v>1966</v>
+        <v>1937</v>
       </c>
       <c r="E84" s="3">
-        <v>7.3999999999999996E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F84" s="3">
         <v>1</v>
@@ -9091,7 +9094,7 @@
         <v>1.7325000000000002</v>
       </c>
       <c r="J84" s="3">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="N84" s="3" t="s">
         <v>170</v>
@@ -9109,7 +9112,7 @@
         <v>173</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>175</v>
@@ -9117,19 +9120,19 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D85" s="4">
-        <v>1976</v>
+        <v>1962</v>
       </c>
       <c r="E85" s="4">
-        <v>5.5E-2</v>
+        <v>0.18</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -9138,7 +9141,7 @@
         <v>2277</v>
       </c>
       <c r="H85" s="4">
-        <v>48.400000000000006</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="I85" s="4">
         <v>1.7325000000000002</v>
@@ -9162,7 +9165,7 @@
         <v>173</v>
       </c>
       <c r="S85" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T85" s="4" t="s">
         <v>175</v>
@@ -9170,19 +9173,19 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D86" s="3">
-        <v>1937</v>
+        <v>1923</v>
       </c>
       <c r="E86" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
@@ -9191,13 +9194,13 @@
         <v>2277</v>
       </c>
       <c r="H86" s="3">
-        <v>48.400000000000006</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="I86" s="3">
         <v>1.7325000000000002</v>
       </c>
       <c r="J86" s="3">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>170</v>
@@ -9215,7 +9218,7 @@
         <v>173</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>175</v>
@@ -9223,31 +9226,31 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D87" s="4">
-        <v>1962</v>
+        <v>2016</v>
       </c>
       <c r="E87" s="4">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
       </c>
       <c r="G87" s="4">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H87" s="4">
-        <v>48.400000000000013</v>
+        <v>44</v>
       </c>
       <c r="I87" s="4">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J87" s="4">
         <v>100</v>
@@ -9268,7 +9271,7 @@
         <v>173</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T87" s="4" t="s">
         <v>175</v>
@@ -9276,19 +9279,19 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D88" s="3">
-        <v>1923</v>
+        <v>1977</v>
       </c>
       <c r="E88" s="3">
-        <v>0.112</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F88" s="3">
         <v>1</v>
@@ -9297,13 +9300,13 @@
         <v>2277</v>
       </c>
       <c r="H88" s="3">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I88" s="3">
         <v>1.7325000000000002</v>
       </c>
       <c r="J88" s="3">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="N88" s="3" t="s">
         <v>170</v>
@@ -9321,7 +9324,7 @@
         <v>173</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T88" s="3" t="s">
         <v>175</v>
@@ -9329,19 +9332,19 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D89" s="4">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E89" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -9374,7 +9377,7 @@
         <v>173</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T89" s="4" t="s">
         <v>175</v>
@@ -9382,19 +9385,19 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D90" s="3">
-        <v>1977</v>
+        <v>2009</v>
       </c>
       <c r="E90" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
@@ -9427,7 +9430,7 @@
         <v>173</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>175</v>
@@ -9435,31 +9438,31 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D91" s="4">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E91" s="4">
-        <v>0.9</v>
+        <v>0.12</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
       </c>
       <c r="G91" s="4">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="H91" s="4">
-        <v>44</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I91" s="4">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="J91" s="4">
         <v>100</v>
@@ -9480,7 +9483,7 @@
         <v>173</v>
       </c>
       <c r="S91" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T91" s="4" t="s">
         <v>175</v>
@@ -9488,19 +9491,19 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D92" s="3">
-        <v>2009</v>
+        <v>1968</v>
       </c>
       <c r="E92" s="3">
-        <v>0.13100000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -9533,7 +9536,7 @@
         <v>173</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T92" s="3" t="s">
         <v>175</v>
@@ -9541,19 +9544,19 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D93" s="4">
-        <v>2026</v>
+        <v>1972</v>
       </c>
       <c r="E93" s="4">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -9586,7 +9589,7 @@
         <v>173</v>
       </c>
       <c r="S93" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T93" s="4" t="s">
         <v>175</v>
@@ -9594,19 +9597,19 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D94" s="3">
-        <v>1968</v>
+        <v>2017</v>
       </c>
       <c r="E94" s="3">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="F94" s="3">
         <v>1</v>
@@ -9639,7 +9642,7 @@
         <v>173</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>175</v>
@@ -9647,34 +9650,34 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D95" s="4">
-        <v>1972</v>
+        <v>1908</v>
       </c>
       <c r="E95" s="4">
-        <v>0.24</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>2277</v>
+        <v>2783</v>
       </c>
       <c r="H95" s="4">
-        <v>48.400000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I95" s="4">
-        <v>1.7325000000000002</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J95" s="4">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="N95" s="4" t="s">
         <v>170</v>
@@ -9692,7 +9695,7 @@
         <v>173</v>
       </c>
       <c r="S95" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T95" s="4" t="s">
         <v>175</v>
@@ -9703,40 +9706,40 @@
         <v>91</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" s="3">
-        <v>2017</v>
+        <v>1920</v>
       </c>
       <c r="E96" s="3">
-        <v>0.24</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
       </c>
       <c r="G96" s="3">
-        <v>2277</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H96" s="3">
-        <v>48.400000000000006</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I96" s="3">
-        <v>1.7325000000000002</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J96" s="3">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="N96" s="3" t="s">
         <v>170</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="Q96" s="3" t="s">
         <v>172</v>
@@ -9745,123 +9748,144 @@
         <v>173</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T96" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D97" s="4">
-        <v>1908</v>
+        <v>1920</v>
       </c>
       <c r="E97" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H97" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I97" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J97" s="4">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="T97" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D98" s="3">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="E98" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H98" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I98" s="3">
-        <v>3.1500000000000008</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J98" s="3">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D99" s="4">
-        <v>1920</v>
+        <v>1932</v>
       </c>
       <c r="E99" s="4">
-        <v>4.7E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H99" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I99" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J99" s="4">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D100" s="3">
-        <v>1925</v>
+        <v>1947</v>
       </c>
       <c r="E100" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
@@ -9876,24 +9900,24 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J100" s="3">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D101" s="4">
-        <v>1932</v>
+        <v>1950</v>
       </c>
       <c r="E101" s="4">
-        <v>7.2999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -9908,56 +9932,56 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J101" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D102" s="3">
-        <v>1947</v>
+        <v>1952</v>
       </c>
       <c r="E102" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H102" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I102" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J102" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D103" s="4">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E103" s="4">
-        <v>9.2999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -9972,24 +9996,24 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J103" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D104" s="3">
-        <v>1952</v>
+        <v>1958</v>
       </c>
       <c r="E104" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -10004,56 +10028,56 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="J104" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D105" s="4">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="E105" s="4">
-        <v>0.05</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H105" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I105" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J105" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D106" s="3">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="E106" s="3">
-        <v>6.2E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -10071,21 +10095,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D107" s="4">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="E107" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -10103,21 +10127,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D108" s="3">
-        <v>1960</v>
+        <v>1975</v>
       </c>
       <c r="E108" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -10135,73 +10159,73 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D109" s="4">
-        <v>1967</v>
+        <v>1984</v>
       </c>
       <c r="E109" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
       </c>
       <c r="G109" s="4">
-        <v>2783</v>
+        <v>7150.0000000000018</v>
       </c>
       <c r="H109" s="4">
-        <v>66.550000000000011</v>
+        <v>165</v>
       </c>
       <c r="I109" s="4">
-        <v>2.8875000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J109" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D110" s="3">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="E110" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>1.06</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>2783</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H110" s="3">
-        <v>66.550000000000011</v>
+        <v>165</v>
       </c>
       <c r="I110" s="3">
-        <v>2.8875000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J110" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>94</v>
@@ -10210,16 +10234,16 @@
         <v>19</v>
       </c>
       <c r="D111" s="4">
-        <v>1984</v>
+        <v>1969</v>
       </c>
       <c r="E111" s="4">
-        <v>1.2749999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
       </c>
       <c r="G111" s="4">
-        <v>7150.0000000000018</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H111" s="4">
         <v>165</v>
@@ -10228,12 +10252,12 @@
         <v>4.2</v>
       </c>
       <c r="J111" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>94</v>
@@ -10242,10 +10266,10 @@
         <v>19</v>
       </c>
       <c r="D112" s="3">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="E112" s="3">
-        <v>1.06</v>
+        <v>0.76</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10260,71 +10284,71 @@
         <v>4.2</v>
       </c>
       <c r="J112" s="3">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D113" s="4">
-        <v>1969</v>
+        <v>2009</v>
       </c>
       <c r="E113" s="4">
-        <v>0.76</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
       </c>
       <c r="G113" s="4">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="H113" s="4">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I113" s="4">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J113" s="4">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D114" s="3">
-        <v>1972</v>
+        <v>2010</v>
       </c>
       <c r="E114" s="3">
-        <v>0.76</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
       </c>
       <c r="G114" s="3">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="H114" s="3">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I114" s="3">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J114" s="3">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
@@ -10335,19 +10359,19 @@
         <v>99</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D115" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E115" s="4">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -10356,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="4">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
@@ -10367,13 +10391,13 @@
         <v>99</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D116" s="3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E116" s="3">
-        <v>2.3999999999999998E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10388,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
@@ -10399,13 +10423,13 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D117" s="4">
         <v>2011</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10431,7 +10455,7 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D118" s="3">
         <v>2011</v>
@@ -10463,13 +10487,13 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D119" s="4">
         <v>2011</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10495,7 +10519,7 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D120" s="3">
         <v>2011</v>
@@ -10527,19 +10551,19 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D121" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H121" s="4">
         <v>21.450000000000003</v>
@@ -10548,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
@@ -10559,13 +10583,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D122" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10580,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
@@ -10591,13 +10615,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10623,19 +10647,19 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H124" s="3">
         <v>21.450000000000003</v>
@@ -10661,13 +10685,13 @@
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
       </c>
       <c r="G125" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H125" s="4">
         <v>21.450000000000003</v>
@@ -10719,7 +10743,7 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
@@ -10751,13 +10775,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>2E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10789,13 +10813,13 @@
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10815,13 +10839,13 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10847,13 +10871,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D131" s="4">
         <v>2012</v>
       </c>
       <c r="E131" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10879,13 +10903,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D132" s="3">
         <v>2012</v>
       </c>
       <c r="E132" s="3">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10911,13 +10935,13 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D133" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10932,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
@@ -10943,13 +10967,13 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D134" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>2.5999999999999994E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -10964,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
@@ -11007,13 +11031,13 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -11039,13 +11063,13 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -11071,13 +11095,13 @@
         <v>99</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D138" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E138" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -11092,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
@@ -11103,13 +11127,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D139" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11124,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.45">
@@ -11135,13 +11159,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D140" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>1E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11150,13 +11174,13 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
       </c>
       <c r="J140" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.45">
@@ -11167,13 +11191,13 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11199,13 +11223,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11231,13 +11255,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11263,13 +11287,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11295,13 +11319,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11327,13 +11351,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11359,13 +11383,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D147" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E147" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11374,13 +11398,13 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
       </c>
       <c r="J147" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.45">
@@ -11391,13 +11415,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D148" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11412,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.45">
@@ -11423,13 +11447,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11487,13 +11511,13 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
       </c>
       <c r="E151" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11519,13 +11543,13 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D152" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E152" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11540,71 +11564,71 @@
         <v>0</v>
       </c>
       <c r="J152" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D153" s="4">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>1.4E-3</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
       </c>
       <c r="G153" s="4">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H153" s="4">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I153" s="4">
         <v>0</v>
       </c>
       <c r="J153" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D154" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
       </c>
       <c r="G154" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H154" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I154" s="3">
         <v>0</v>
       </c>
       <c r="J154" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.45">
@@ -11615,13 +11639,13 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D155" s="4">
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.13606784444360143</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11647,13 +11671,13 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D156" s="3">
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11679,13 +11703,13 @@
         <v>99</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11711,13 +11735,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11743,13 +11767,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11775,13 +11799,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.13710016513395351</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11807,13 +11831,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11839,13 +11863,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.16277902359433066</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11871,13 +11895,13 @@
         <v>99</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.19782569372870323</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11903,13 +11927,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11935,13 +11959,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11967,13 +11991,13 @@
         <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D166" s="3">
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -11999,13 +12023,13 @@
         <v>99</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D167" s="4">
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12031,13 +12055,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12063,13 +12087,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12095,13 +12119,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.1930981018275324</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12127,13 +12151,13 @@
         <v>99</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.17279262926045061</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12159,13 +12183,13 @@
         <v>99</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D172" s="3">
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12191,13 +12215,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.16152827258311295</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12223,13 +12247,13 @@
         <v>99</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.19614947844032105</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12255,13 +12279,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.15291072157643879</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12287,13 +12311,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12319,13 +12343,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12345,66 +12369,66 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D178" s="3">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E178" s="3">
-        <v>0.211523174241075</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="3">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="H178" s="3">
-        <v>18.150000000000002</v>
+        <v>57.2</v>
       </c>
       <c r="I178" s="3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J178" s="3">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="D179" s="4">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E179" s="4">
-        <v>0.15521278721895346</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
       </c>
       <c r="G179" s="4">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="H179" s="4">
-        <v>18.150000000000002</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I179" s="4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="J179" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.45">
@@ -12415,13 +12439,13 @@
         <v>135</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D180" s="3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E180" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12436,7 +12460,7 @@
         <v>2.52</v>
       </c>
       <c r="J180" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.45">
@@ -12447,13 +12471,13 @@
         <v>135</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D181" s="4">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>1.2E-2</v>
+        <v>1.5846491049785966E-3</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12462,13 +12486,13 @@
         <v>2376</v>
       </c>
       <c r="H181" s="4">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I181" s="4">
         <v>2.52</v>
       </c>
       <c r="J181" s="4">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.45">
@@ -12479,13 +12503,13 @@
         <v>135</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D182" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E182" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>1.690330250635249E-3</v>
       </c>
       <c r="F182" s="3">
         <v>1</v>
@@ -12494,13 +12518,13 @@
         <v>2376</v>
       </c>
       <c r="H182" s="3">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I182" s="3">
         <v>2.52</v>
       </c>
       <c r="J182" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.45">
@@ -12511,13 +12535,13 @@
         <v>135</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D183" s="4">
         <v>2022</v>
       </c>
       <c r="E183" s="4">
-        <v>1.873956449897916E-3</v>
+        <v>2.5474215275387651E-3</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -12543,13 +12567,13 @@
         <v>135</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D184" s="3">
         <v>2022</v>
       </c>
       <c r="E184" s="3">
-        <v>1.4544028018509782E-3</v>
+        <v>2.1331300002536448E-3</v>
       </c>
       <c r="F184" s="3">
         <v>1</v>
@@ -12558,7 +12582,7 @@
         <v>2376</v>
       </c>
       <c r="H184" s="3">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I184" s="3">
         <v>2.52</v>
@@ -12575,13 +12599,13 @@
         <v>135</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D185" s="4">
         <v>2022</v>
       </c>
       <c r="E185" s="4">
-        <v>2.0565820088599379E-3</v>
+        <v>1.2766843688204856E-3</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -12607,13 +12631,13 @@
         <v>135</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D186" s="3">
         <v>2022</v>
       </c>
       <c r="E186" s="3">
-        <v>1.4799586835658777E-3</v>
+        <v>1.9134792076700303E-3</v>
       </c>
       <c r="F186" s="3">
         <v>1</v>
@@ -12639,13 +12663,13 @@
         <v>135</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D187" s="4">
         <v>2022</v>
       </c>
       <c r="E187" s="4">
-        <v>1.1277974215720789E-3</v>
+        <v>2.4603891792050864E-3</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -12671,13 +12695,13 @@
         <v>135</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D188" s="3">
         <v>2022</v>
       </c>
       <c r="E188" s="3">
-        <v>2.1331300002536448E-3</v>
+        <v>1.1043455067346437E-3</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
@@ -12703,13 +12727,13 @@
         <v>135</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D189" s="4">
         <v>2022</v>
       </c>
       <c r="E189" s="4">
-        <v>1.487025085935642E-3</v>
+        <v>2.5998728400519421E-3</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -12735,13 +12759,13 @@
         <v>135</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D190" s="3">
         <v>2022</v>
       </c>
       <c r="E190" s="3">
-        <v>2.0977752916527944E-3</v>
+        <v>1.4544028018509782E-3</v>
       </c>
       <c r="F190" s="3">
         <v>1</v>
@@ -12750,7 +12774,7 @@
         <v>2376</v>
       </c>
       <c r="H190" s="3">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I190" s="3">
         <v>2.52</v>
@@ -12767,13 +12791,13 @@
         <v>135</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D191" s="4">
         <v>2022</v>
       </c>
       <c r="E191" s="4">
-        <v>1.8001961925811674E-3</v>
+        <v>2.0565820088599379E-3</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -12799,13 +12823,13 @@
         <v>135</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D192" s="3">
         <v>2022</v>
       </c>
       <c r="E192" s="3">
-        <v>1.7389570502530283E-3</v>
+        <v>1.4799586835658777E-3</v>
       </c>
       <c r="F192" s="3">
         <v>1</v>
@@ -12831,13 +12855,13 @@
         <v>135</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D193" s="4">
         <v>2022</v>
       </c>
       <c r="E193" s="4">
-        <v>1.1043455067346437E-3</v>
+        <v>1.2648340199792366E-3</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -12846,7 +12870,7 @@
         <v>2376</v>
       </c>
       <c r="H193" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I193" s="4">
         <v>2.52</v>
@@ -12863,13 +12887,13 @@
         <v>135</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D194" s="3">
         <v>2022</v>
       </c>
       <c r="E194" s="3">
-        <v>2.5998728400519421E-3</v>
+        <v>1.1277974215720789E-3</v>
       </c>
       <c r="F194" s="3">
         <v>1</v>
@@ -12895,13 +12919,13 @@
         <v>135</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D195" s="4">
         <v>2022</v>
       </c>
       <c r="E195" s="4">
-        <v>1.9471149127506567E-3</v>
+        <v>2.0977752916527944E-3</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -12927,13 +12951,13 @@
         <v>135</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D196" s="3">
         <v>2022</v>
       </c>
       <c r="E196" s="3">
-        <v>1.690330250635249E-3</v>
+        <v>1.8001961925811674E-3</v>
       </c>
       <c r="F196" s="3">
         <v>1</v>
@@ -12942,7 +12966,7 @@
         <v>2376</v>
       </c>
       <c r="H196" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I196" s="3">
         <v>2.52</v>
@@ -12959,13 +12983,13 @@
         <v>135</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D197" s="4">
         <v>2022</v>
       </c>
       <c r="E197" s="4">
-        <v>2.5474215275387651E-3</v>
+        <v>1.7389570502530283E-3</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -12991,13 +13015,13 @@
         <v>135</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D198" s="3">
         <v>2022</v>
       </c>
       <c r="E198" s="3">
-        <v>1.2766843688204856E-3</v>
+        <v>1.934352727405538E-3</v>
       </c>
       <c r="F198" s="3">
         <v>1</v>
@@ -13023,13 +13047,13 @@
         <v>135</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D199" s="4">
         <v>2022</v>
       </c>
       <c r="E199" s="4">
-        <v>1.9134792076700303E-3</v>
+        <v>1.3323227019608895E-3</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -13055,13 +13079,13 @@
         <v>135</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D200" s="3">
         <v>2022</v>
       </c>
       <c r="E200" s="3">
-        <v>1.9458009250579126E-3</v>
+        <v>1.4142299914721912E-3</v>
       </c>
       <c r="F200" s="3">
         <v>1</v>
@@ -13087,13 +13111,13 @@
         <v>135</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D201" s="4">
         <v>2022</v>
       </c>
       <c r="E201" s="4">
-        <v>1.995984545579471E-3</v>
+        <v>1.487025085935642E-3</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -13119,13 +13143,13 @@
         <v>135</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D202" s="3">
         <v>2022</v>
       </c>
       <c r="E202" s="3">
-        <v>2.7384072037362388E-3</v>
+        <v>1.995984545579471E-3</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
@@ -13134,7 +13158,7 @@
         <v>2376</v>
       </c>
       <c r="H202" s="3">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I202" s="3">
         <v>2.52</v>
@@ -13151,13 +13175,13 @@
         <v>135</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D203" s="4">
         <v>2022</v>
       </c>
       <c r="E203" s="4">
-        <v>2.4603891792050864E-3</v>
+        <v>2.7384072037362388E-3</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -13166,7 +13190,7 @@
         <v>2376</v>
       </c>
       <c r="H203" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I203" s="4">
         <v>2.52</v>
@@ -13183,13 +13207,13 @@
         <v>135</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D204" s="3">
         <v>2022</v>
       </c>
       <c r="E204" s="3">
-        <v>1.934352727405538E-3</v>
+        <v>1.873956449897916E-3</v>
       </c>
       <c r="F204" s="3">
         <v>1</v>
@@ -13215,13 +13239,13 @@
         <v>135</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D205" s="4">
         <v>2022</v>
       </c>
       <c r="E205" s="4">
-        <v>1.3323227019608895E-3</v>
+        <v>1.9471149127506567E-3</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -13247,13 +13271,13 @@
         <v>135</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D206" s="3">
         <v>2022</v>
       </c>
       <c r="E206" s="3">
-        <v>1.4142299914721912E-3</v>
+        <v>1.9458009250579126E-3</v>
       </c>
       <c r="F206" s="3">
         <v>1</v>
@@ -13279,13 +13303,13 @@
         <v>135</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="D207" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E207" s="4">
-        <v>1.2648340199792366E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
@@ -13294,76 +13318,12 @@
         <v>2376</v>
       </c>
       <c r="H207" s="4">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I207" s="4">
         <v>2.52</v>
       </c>
       <c r="J207" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A208" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D208" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E208" s="3">
-        <v>1.5846491049785966E-3</v>
-      </c>
-      <c r="F208" s="3">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3">
-        <v>2376</v>
-      </c>
-      <c r="H208" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="I208" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="J208" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A209" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D209" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E209" s="4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F209" s="4">
-        <v>1</v>
-      </c>
-      <c r="G209" s="4">
-        <v>2376</v>
-      </c>
-      <c r="H209" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="I209" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="J209" s="4">
         <v>32</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDFD854-5A4D-4472-B510-07FA23FF9394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1633509C-4DE0-4992-AF9A-A684F6D65157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A64DC46E-4020-4901-84FB-378A90AC0984}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{750A1287-36AA-42ED-8E72-83C6D56F3569}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -133,42 +133,42 @@
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
     <t>e_CH17-380</t>
   </si>
   <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
     <t>e_w228003081-220</t>
   </si>
   <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
-    <t>e_CH43-220</t>
-  </si>
-  <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
     <t>e_CH46-220</t>
   </si>
   <si>
-    <t>e_w758943072-220</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>e_CH18-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -346,18 +346,18 @@
     <t>e_w194258388-220</t>
   </si>
   <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
     <t>e_CH4-220</t>
   </si>
   <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
     <t>e_w26166640-220</t>
   </si>
   <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
     <t>e_w232662311-220</t>
   </si>
   <si>
@@ -367,6 +367,12 @@
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -376,88 +382,136 @@
     <t>elc_spv-CHE_0006</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0007</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0019</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0011</t>
   </si>
   <si>
+    <t>elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000</t>
   </si>
   <si>
     <t>elc_won-CHE_0001</t>
   </si>
   <si>
-    <t>elc_won-CHE_0014</t>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025</t>
   </si>
   <si>
     <t>elc_won-CHE_0017</t>
@@ -466,66 +520,12 @@
     <t>elc_won-CHE_0024</t>
   </si>
   <si>
-    <t>elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003</t>
+    <t>elc_won-CHE_0009</t>
   </si>
   <si>
     <t>elc_won-CHE_0007</t>
   </si>
   <si>
-    <t>elc_won-CHE_0016</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -577,30 +577,30 @@
     <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH21-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH50-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - relation/7933294-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - relation/7933294-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH50-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -763,79 +763,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185252FB-88C3-440A-BDA9-F8B6C7F1F497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DA814F-C2FA-43A0-88D1-AB6EBF4AE4D2}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4397,7 +4397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAC1209-D350-46DA-9BE7-F40CC83B708E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37CD20-E8A6-456B-A456-4606304BF0C8}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4720,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1471F9FC-FC3E-4CB6-B5DE-5B1B778FA0D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6484BCB-BB6E-43B5-ADB2-FC41AEAABD67}">
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5793,19 +5793,19 @@
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>7.9568686935303057E-2</v>
+        <v>3.8946778342016763E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H22" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I22" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -5840,13 +5840,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>3.8946778342016763E-2</v>
+        <v>2.8267822990173462E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -5893,13 +5893,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>1.5494954824243228E-2</v>
+        <v>3.2874431181164683E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -5946,25 +5946,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>5.5069907010486065E-2</v>
+        <v>1.6960693794104073E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I25" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -5999,25 +5999,25 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>3.2874431181164683E-2</v>
+        <v>8.3128338719250822E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H26" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I26" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -6105,7 +6105,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
@@ -6158,25 +6158,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>2.8267822990173462E-2</v>
+        <v>7.9568686935303057E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H29" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I29" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J29" s="4">
         <v>100</v>
@@ -6211,25 +6211,25 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>5.2975994196399145E-2</v>
+        <v>1.5494954824243228E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H30" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I30" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J30" s="3">
         <v>100</v>
@@ -6264,25 +6264,25 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>1.0469564070434612E-2</v>
+        <v>5.2975994196399145E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H31" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I31" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J31" s="4">
         <v>100</v>
@@ -6317,13 +6317,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>1.6960693794104073E-2</v>
+        <v>1.0469564070434612E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -6370,19 +6370,19 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>8.3128338719250822E-2</v>
+        <v>5.5069907010486065E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H33" s="4">
         <v>60.500000000000014</v>
@@ -6423,13 +6423,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>0.35429004814350729</v>
+        <v>0.52892237683835663</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -6476,13 +6476,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>1.1692409153861374</v>
+        <v>0.37334465475169831</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -6491,7 +6491,7 @@
         <v>2750</v>
       </c>
       <c r="H35" s="4">
-        <v>55.000000000000007</v>
+        <v>55</v>
       </c>
       <c r="I35" s="4">
         <v>2.1</v>
@@ -6529,13 +6529,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.14908659236298891</v>
+        <v>0.2512695376904307</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -6582,25 +6582,25 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.52892237683835663</v>
+        <v>0.19599023939853596</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H37" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I37" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J37" s="4">
         <v>100</v>
@@ -6635,13 +6635,13 @@
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>0.19599023939853596</v>
+        <v>0.15013354877003235</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -6688,25 +6688,25 @@
         <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D39" s="4">
         <v>2022</v>
       </c>
       <c r="E39" s="4">
-        <v>0.15013354877003235</v>
+        <v>0.35429004814350729</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H39" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I39" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J39" s="4">
         <v>100</v>
@@ -6741,25 +6741,25 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D40" s="3">
         <v>2022</v>
       </c>
       <c r="E40" s="3">
-        <v>0.2512695376904307</v>
+        <v>1.1692409153861374</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H40" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I40" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J40" s="3">
         <v>100</v>
@@ -6800,19 +6800,19 @@
         <v>2022</v>
       </c>
       <c r="E41" s="4">
-        <v>0.37334465475169831</v>
+        <v>0.14908659236298891</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
       <c r="G41" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H41" s="4">
-        <v>55</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I41" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J41" s="4">
         <v>100</v>
@@ -6900,7 +6900,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
         <v>1923</v>
@@ -7059,7 +7059,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7112,7 +7112,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="4">
         <v>1999</v>
@@ -7218,7 +7218,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D49" s="4">
         <v>1969</v>
@@ -7271,7 +7271,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="3">
         <v>1959</v>
@@ -7377,7 +7377,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="3">
         <v>1957</v>
@@ -7430,7 +7430,7 @@
         <v>22</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="4">
         <v>1958</v>
@@ -7483,7 +7483,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" s="3">
         <v>1965</v>
@@ -7854,7 +7854,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" s="4">
         <v>1978</v>
@@ -8013,7 +8013,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" s="3">
         <v>1960</v>
@@ -8066,7 +8066,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D65" s="4">
         <v>1966</v>
@@ -8172,7 +8172,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" s="4">
         <v>1970</v>
@@ -8225,7 +8225,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" s="3">
         <v>1956</v>
@@ -8331,7 +8331,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D70" s="3">
         <v>1978</v>
@@ -8490,7 +8490,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D73" s="4">
         <v>1965</v>
@@ -8543,7 +8543,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D74" s="3">
         <v>1962</v>
@@ -8596,7 +8596,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D75" s="4">
         <v>1964</v>
@@ -8649,7 +8649,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" s="3">
         <v>1953</v>
@@ -8702,7 +8702,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D77" s="4">
         <v>1943</v>
@@ -8967,7 +8967,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D82" s="3">
         <v>1966</v>
@@ -9232,7 +9232,7 @@
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D87" s="4">
         <v>2016</v>
@@ -9285,7 +9285,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D88" s="3">
         <v>1977</v>
@@ -9391,7 +9391,7 @@
         <v>13</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D90" s="3">
         <v>2009</v>
@@ -9656,7 +9656,7 @@
         <v>22</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D95" s="4">
         <v>1908</v>
@@ -9815,7 +9815,7 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D98" s="3">
         <v>1925</v>
@@ -9943,25 +9943,25 @@
         <v>22</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D102" s="3">
         <v>1952</v>
       </c>
       <c r="E102" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H102" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I102" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J102" s="3">
         <v>103</v>
@@ -9975,25 +9975,25 @@
         <v>22</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D103" s="4">
         <v>1952</v>
       </c>
       <c r="E103" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H103" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I103" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J103" s="4">
         <v>103</v>
@@ -10007,7 +10007,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D104" s="3">
         <v>1958</v>
@@ -10039,7 +10039,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="4">
         <v>1959</v>
@@ -10071,7 +10071,7 @@
         <v>22</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="3">
         <v>1960</v>
@@ -10135,7 +10135,7 @@
         <v>22</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D108" s="3">
         <v>1975</v>
@@ -10295,7 +10295,7 @@
         <v>99</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D113" s="4">
         <v>2009</v>
@@ -10359,19 +10359,19 @@
         <v>99</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D115" s="4">
         <v>2011</v>
       </c>
       <c r="E115" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -10391,7 +10391,7 @@
         <v>99</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D116" s="3">
         <v>2011</v>
@@ -10423,19 +10423,19 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D117" s="4">
         <v>2011</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -10487,7 +10487,7 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D119" s="4">
         <v>2011</v>
@@ -10551,13 +10551,13 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10583,19 +10583,19 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H122" s="3">
         <v>21.450000000000003</v>
@@ -10615,13 +10615,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>2.5999999999999994E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10647,19 +10647,19 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1.8E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H124" s="3">
         <v>21.450000000000003</v>
@@ -10679,13 +10679,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10711,13 +10711,13 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10743,13 +10743,13 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10775,13 +10775,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10807,19 +10807,19 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10839,19 +10839,19 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H130" s="3">
         <v>21.450000000000003</v>
@@ -10871,13 +10871,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D131" s="4">
         <v>2012</v>
       </c>
       <c r="E131" s="4">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10903,13 +10903,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D132" s="3">
         <v>2012</v>
       </c>
       <c r="E132" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10935,7 +10935,7 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
@@ -11063,7 +11063,7 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
@@ -11127,13 +11127,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11159,13 +11159,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11174,7 +11174,7 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -11191,13 +11191,13 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>1E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11223,13 +11223,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11255,13 +11255,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>2.5999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11270,7 +11270,7 @@
         <v>1336.5</v>
       </c>
       <c r="H143" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I143" s="4">
         <v>0</v>
@@ -11287,13 +11287,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11319,13 +11319,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11351,13 +11351,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11383,13 +11383,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D147" s="4">
         <v>2016</v>
       </c>
       <c r="E147" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11415,13 +11415,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11447,13 +11447,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>1.4E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11511,7 +11511,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11581,7 +11581,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11613,7 +11613,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.13710016513395351</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11645,7 +11645,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11677,7 +11677,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11741,7 +11741,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.18308354646436523</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11773,7 +11773,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.17279262926045061</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11805,7 +11805,7 @@
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.17082200788742341</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11837,7 +11837,7 @@
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.16152827258311295</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11869,7 +11869,7 @@
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.19614947844032105</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11901,7 +11901,7 @@
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.21077006448261207</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11933,7 +11933,7 @@
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.19328994063107527</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11965,7 +11965,7 @@
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.211523174241075</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12061,7 +12061,7 @@
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.13606784444360143</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.1586174511333161</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12157,7 +12157,7 @@
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12189,7 +12189,7 @@
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.19782569372870323</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12221,7 +12221,7 @@
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12253,7 +12253,7 @@
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.19828629679661561</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.1930981018275324</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12317,7 +12317,7 @@
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12349,7 +12349,7 @@
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.21471510601685545</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12375,7 +12375,7 @@
         <v>135</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D178" s="3">
         <v>2010</v>
@@ -12439,7 +12439,7 @@
         <v>135</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D180" s="3">
         <v>2016</v>
@@ -12477,7 +12477,7 @@
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>1.5846491049785966E-3</v>
+        <v>1.995984545579471E-3</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>2022</v>
       </c>
       <c r="E182" s="3">
-        <v>1.690330250635249E-3</v>
+        <v>2.1331300002536448E-3</v>
       </c>
       <c r="F182" s="3">
         <v>1</v>
@@ -12518,7 +12518,7 @@
         <v>2376</v>
       </c>
       <c r="H182" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I182" s="3">
         <v>2.52</v>
@@ -12541,7 +12541,7 @@
         <v>2022</v>
       </c>
       <c r="E183" s="4">
-        <v>2.5474215275387651E-3</v>
+        <v>2.0977752916527944E-3</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>2022</v>
       </c>
       <c r="E184" s="3">
-        <v>2.1331300002536448E-3</v>
+        <v>1.8001961925811674E-3</v>
       </c>
       <c r="F184" s="3">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>2022</v>
       </c>
       <c r="E185" s="4">
-        <v>1.2766843688204856E-3</v>
+        <v>1.7389570502530283E-3</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -12637,7 +12637,7 @@
         <v>2022</v>
       </c>
       <c r="E186" s="3">
-        <v>1.9134792076700303E-3</v>
+        <v>1.5846491049785966E-3</v>
       </c>
       <c r="F186" s="3">
         <v>1</v>
@@ -12669,7 +12669,7 @@
         <v>2022</v>
       </c>
       <c r="E187" s="4">
-        <v>2.4603891792050864E-3</v>
+        <v>1.1043455067346437E-3</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -12701,7 +12701,7 @@
         <v>2022</v>
       </c>
       <c r="E188" s="3">
-        <v>1.1043455067346437E-3</v>
+        <v>2.5998728400519421E-3</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
@@ -12733,7 +12733,7 @@
         <v>2022</v>
       </c>
       <c r="E189" s="4">
-        <v>2.5998728400519421E-3</v>
+        <v>1.2648340199792366E-3</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -12742,7 +12742,7 @@
         <v>2376</v>
       </c>
       <c r="H189" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I189" s="4">
         <v>2.52</v>
@@ -12765,7 +12765,7 @@
         <v>2022</v>
       </c>
       <c r="E190" s="3">
-        <v>1.4544028018509782E-3</v>
+        <v>1.9471149127506567E-3</v>
       </c>
       <c r="F190" s="3">
         <v>1</v>
@@ -12774,7 +12774,7 @@
         <v>2376</v>
       </c>
       <c r="H190" s="3">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I190" s="3">
         <v>2.52</v>
@@ -12797,7 +12797,7 @@
         <v>2022</v>
       </c>
       <c r="E191" s="4">
-        <v>2.0565820088599379E-3</v>
+        <v>1.690330250635249E-3</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -12806,7 +12806,7 @@
         <v>2376</v>
       </c>
       <c r="H191" s="4">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I191" s="4">
         <v>2.52</v>
@@ -12829,7 +12829,7 @@
         <v>2022</v>
       </c>
       <c r="E192" s="3">
-        <v>1.4799586835658777E-3</v>
+        <v>2.5474215275387651E-3</v>
       </c>
       <c r="F192" s="3">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         <v>2022</v>
       </c>
       <c r="E193" s="4">
-        <v>1.2648340199792366E-3</v>
+        <v>2.4603891792050864E-3</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -12870,7 +12870,7 @@
         <v>2376</v>
       </c>
       <c r="H193" s="4">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I193" s="4">
         <v>2.52</v>
@@ -12925,7 +12925,7 @@
         <v>2022</v>
       </c>
       <c r="E195" s="4">
-        <v>2.0977752916527944E-3</v>
+        <v>1.934352727405538E-3</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -12957,7 +12957,7 @@
         <v>2022</v>
       </c>
       <c r="E196" s="3">
-        <v>1.8001961925811674E-3</v>
+        <v>1.3323227019608895E-3</v>
       </c>
       <c r="F196" s="3">
         <v>1</v>
@@ -12989,7 +12989,7 @@
         <v>2022</v>
       </c>
       <c r="E197" s="4">
-        <v>1.7389570502530283E-3</v>
+        <v>1.4142299914721912E-3</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>2022</v>
       </c>
       <c r="E198" s="3">
-        <v>1.934352727405538E-3</v>
+        <v>1.4544028018509782E-3</v>
       </c>
       <c r="F198" s="3">
         <v>1</v>
@@ -13030,7 +13030,7 @@
         <v>2376</v>
       </c>
       <c r="H198" s="3">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I198" s="3">
         <v>2.52</v>
@@ -13053,7 +13053,7 @@
         <v>2022</v>
       </c>
       <c r="E199" s="4">
-        <v>1.3323227019608895E-3</v>
+        <v>2.0565820088599379E-3</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -13085,7 +13085,7 @@
         <v>2022</v>
       </c>
       <c r="E200" s="3">
-        <v>1.4142299914721912E-3</v>
+        <v>1.4799586835658777E-3</v>
       </c>
       <c r="F200" s="3">
         <v>1</v>
@@ -13117,7 +13117,7 @@
         <v>2022</v>
       </c>
       <c r="E201" s="4">
-        <v>1.487025085935642E-3</v>
+        <v>2.7384072037362388E-3</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -13126,7 +13126,7 @@
         <v>2376</v>
       </c>
       <c r="H201" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I201" s="4">
         <v>2.52</v>
@@ -13149,7 +13149,7 @@
         <v>2022</v>
       </c>
       <c r="E202" s="3">
-        <v>1.995984545579471E-3</v>
+        <v>1.873956449897916E-3</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
@@ -13181,7 +13181,7 @@
         <v>2022</v>
       </c>
       <c r="E203" s="4">
-        <v>2.7384072037362388E-3</v>
+        <v>1.2766843688204856E-3</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -13190,7 +13190,7 @@
         <v>2376</v>
       </c>
       <c r="H203" s="4">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I203" s="4">
         <v>2.52</v>
@@ -13213,7 +13213,7 @@
         <v>2022</v>
       </c>
       <c r="E204" s="3">
-        <v>1.873956449897916E-3</v>
+        <v>1.9134792076700303E-3</v>
       </c>
       <c r="F204" s="3">
         <v>1</v>
@@ -13245,7 +13245,7 @@
         <v>2022</v>
       </c>
       <c r="E205" s="4">
-        <v>1.9471149127506567E-3</v>
+        <v>1.9458009250579126E-3</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -13277,7 +13277,7 @@
         <v>2022</v>
       </c>
       <c r="E206" s="3">
-        <v>1.9458009250579126E-3</v>
+        <v>1.487025085935642E-3</v>
       </c>
       <c r="F206" s="3">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1633509C-4DE0-4992-AF9A-A684F6D65157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{556ADEDD-7CFF-4AE2-884F-F188D66139D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{750A1287-36AA-42ED-8E72-83C6D56F3569}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BB4A05F7-5807-4E7E-B428-5F478999DB43}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,51 +124,51 @@
     <t>e_CH30-380</t>
   </si>
   <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
     <t>e_w212722603-220</t>
   </si>
   <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
     <t>e_CH45-220</t>
   </si>
   <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
     <t>e_CH51-220</t>
   </si>
   <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
-    <t>e_CH43-220</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
-    <t>e_w228003081-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
     <t>e_w758943072-220</t>
   </si>
   <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
     <t>e_CH18-220</t>
   </si>
   <si>
-    <t>e_r7933294-380</t>
+    <t>e_CH46-220</t>
   </si>
   <si>
     <t>e_CH50-220</t>
   </si>
   <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -346,18 +346,18 @@
     <t>e_w194258388-220</t>
   </si>
   <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
     <t>e_w127004407-380</t>
   </si>
   <si>
-    <t>e_CH4-220</t>
-  </si>
-  <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>e_w26166640-220</t>
-  </si>
-  <si>
     <t>e_w232662311-220</t>
   </si>
   <si>
@@ -367,103 +367,154 @@
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0020</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
+    <t>elc_spv-CHE_0023</t>
   </si>
   <si>
     <t>elc_spv-CHE_0001</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0000</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0014</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011</t>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
   </si>
   <si>
     <t>elc_won-CHE_0019</t>
@@ -472,60 +523,9 @@
     <t>elc_won-CHE_0006</t>
   </si>
   <si>
-    <t>elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0003</t>
   </si>
   <si>
-    <t>elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -574,33 +574,33 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH50-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - relation/7933294-380_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CH21-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH50-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - relation/7933294-380_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -763,79 +763,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DA814F-C2FA-43A0-88D1-AB6EBF4AE4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75115A21-06B5-4D5B-BC83-F277FE890B75}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4397,7 +4397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37CD20-E8A6-456B-A456-4606304BF0C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2896E7E-DDE2-4EF6-A5E4-E04C1102EA07}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4720,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6484BCB-BB6E-43B5-ADB2-FC41AEAABD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDEB804-84F4-43AD-A790-087FBFD1E69F}">
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5369,7 +5369,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5422,7 +5422,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5469,7 +5469,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5575,7 +5575,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5681,7 +5681,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5787,13 +5787,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3">
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>3.8946778342016763E-2</v>
+        <v>3.1408692211303837E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -5840,25 +5840,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>2.8267822990173462E-2</v>
+        <v>8.3128338719250822E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H23" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I23" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
@@ -5893,13 +5893,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>3.2874431181164683E-2</v>
+        <v>1.0888346633251996E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -5946,25 +5946,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>1.6960693794104073E-2</v>
+        <v>5.5069907010486065E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I25" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -5999,19 +5999,19 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>8.3128338719250822E-2</v>
+        <v>5.2975994196399145E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H26" s="3">
         <v>60.500000000000014</v>
@@ -6052,13 +6052,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>3.1408692211303837E-2</v>
+        <v>3.8946778342016763E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -6105,13 +6105,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>1.0888346633251996E-2</v>
+        <v>1.0469564070434612E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -6158,25 +6158,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>7.9568686935303057E-2</v>
+        <v>2.8267822990173462E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H29" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I29" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J29" s="4">
         <v>100</v>
@@ -6211,13 +6211,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>1.5494954824243228E-2</v>
+        <v>1.6960693794104073E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -6264,13 +6264,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>5.2975994196399145E-2</v>
+        <v>7.9568686935303057E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -6317,13 +6317,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>1.0469564070434612E-2</v>
+        <v>1.5494954824243228E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -6370,25 +6370,25 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>5.5069907010486065E-2</v>
+        <v>3.2874431181164683E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H33" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I33" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J33" s="4">
         <v>100</v>
@@ -6482,19 +6482,19 @@
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.37334465475169831</v>
+        <v>0.2512695376904307</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H35" s="4">
-        <v>55</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I35" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J35" s="4">
         <v>100</v>
@@ -6535,19 +6535,19 @@
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.2512695376904307</v>
+        <v>0.37334465475169831</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H36" s="3">
-        <v>60.500000000000014</v>
+        <v>55</v>
       </c>
       <c r="I36" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J36" s="3">
         <v>100</v>
@@ -6582,25 +6582,25 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.19599023939853596</v>
+        <v>0.35429004814350729</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H37" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I37" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J37" s="4">
         <v>100</v>
@@ -6635,25 +6635,25 @@
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>0.15013354877003235</v>
+        <v>1.1692409153861374</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H38" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I38" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J38" s="3">
         <v>100</v>
@@ -6688,25 +6688,25 @@
         <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D39" s="4">
         <v>2022</v>
       </c>
       <c r="E39" s="4">
-        <v>0.35429004814350729</v>
+        <v>0.19599023939853596</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H39" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I39" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J39" s="4">
         <v>100</v>
@@ -6741,25 +6741,25 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3">
         <v>2022</v>
       </c>
       <c r="E40" s="3">
-        <v>1.1692409153861374</v>
+        <v>0.25692310228846538</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H40" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I40" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J40" s="3">
         <v>100</v>
@@ -6794,7 +6794,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4">
         <v>2022</v>
@@ -6847,13 +6847,13 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D42" s="3">
         <v>2022</v>
       </c>
       <c r="E42" s="3">
-        <v>0.25692310228846538</v>
+        <v>0.15013354877003235</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -6900,7 +6900,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="4">
         <v>1923</v>
@@ -6953,7 +6953,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="3">
         <v>1962</v>
@@ -7059,7 +7059,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7218,7 +7218,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="4">
         <v>1969</v>
@@ -7271,7 +7271,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="3">
         <v>1959</v>
@@ -7483,7 +7483,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D54" s="3">
         <v>1965</v>
@@ -7907,7 +7907,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3">
         <v>1976</v>
@@ -7960,7 +7960,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="4">
         <v>1910</v>
@@ -8066,7 +8066,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="4">
         <v>1966</v>
@@ -8172,7 +8172,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D67" s="4">
         <v>1970</v>
@@ -8278,7 +8278,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" s="4">
         <v>1958</v>
@@ -8331,7 +8331,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="3">
         <v>1978</v>
@@ -8437,7 +8437,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3">
         <v>1961</v>
@@ -8490,7 +8490,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73" s="4">
         <v>1965</v>
@@ -8543,7 +8543,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74" s="3">
         <v>1962</v>
@@ -8596,7 +8596,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D75" s="4">
         <v>1964</v>
@@ -8649,7 +8649,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" s="3">
         <v>1953</v>
@@ -8702,7 +8702,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D77" s="4">
         <v>1943</v>
@@ -8914,7 +8914,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" s="4">
         <v>1958</v>
@@ -8967,7 +8967,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D82" s="3">
         <v>1966</v>
@@ -9232,7 +9232,7 @@
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D87" s="4">
         <v>2016</v>
@@ -9285,7 +9285,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="3">
         <v>1977</v>
@@ -9391,7 +9391,7 @@
         <v>13</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D90" s="3">
         <v>2009</v>
@@ -9815,7 +9815,7 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D98" s="3">
         <v>1925</v>
@@ -9943,25 +9943,25 @@
         <v>22</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D102" s="3">
         <v>1952</v>
       </c>
       <c r="E102" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H102" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I102" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J102" s="3">
         <v>103</v>
@@ -9975,25 +9975,25 @@
         <v>22</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D103" s="4">
         <v>1952</v>
       </c>
       <c r="E103" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H103" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I103" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J103" s="4">
         <v>103</v>
@@ -10007,7 +10007,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" s="3">
         <v>1958</v>
@@ -10039,7 +10039,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" s="4">
         <v>1959</v>
@@ -10071,7 +10071,7 @@
         <v>22</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D106" s="3">
         <v>1960</v>
@@ -10135,7 +10135,7 @@
         <v>22</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D108" s="3">
         <v>1975</v>
@@ -10295,7 +10295,7 @@
         <v>99</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D113" s="4">
         <v>2009</v>
@@ -10359,13 +10359,13 @@
         <v>99</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D115" s="4">
         <v>2011</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10391,19 +10391,19 @@
         <v>99</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D116" s="3">
         <v>2011</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -10423,19 +10423,19 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D117" s="4">
         <v>2011</v>
       </c>
       <c r="E117" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -10455,13 +10455,13 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D118" s="3">
         <v>2011</v>
       </c>
       <c r="E118" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10487,7 +10487,7 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D119" s="4">
         <v>2011</v>
@@ -10519,13 +10519,13 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D120" s="3">
         <v>2011</v>
       </c>
       <c r="E120" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10551,19 +10551,19 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H121" s="4">
         <v>21.450000000000003</v>
@@ -10583,19 +10583,19 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H122" s="3">
         <v>21.450000000000003</v>
@@ -10615,13 +10615,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10647,13 +10647,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>2.5999999999999994E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10679,13 +10679,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10711,19 +10711,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10743,13 +10743,13 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10775,13 +10775,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>2E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10807,13 +10807,13 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -10839,19 +10839,19 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1.8E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H130" s="3">
         <v>21.450000000000003</v>
@@ -10871,13 +10871,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D131" s="4">
         <v>2012</v>
       </c>
       <c r="E131" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10903,13 +10903,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="D132" s="3">
         <v>2012</v>
       </c>
       <c r="E132" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10935,22 +10935,22 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>1E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
       </c>
       <c r="G133" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10999,22 +10999,22 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>2.4400000000000005E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
       </c>
       <c r="G135" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H135" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I135" s="4">
         <v>0</v>
@@ -11031,13 +11031,13 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -11063,13 +11063,13 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -11127,13 +11127,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11159,13 +11159,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11197,7 +11197,7 @@
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11206,7 +11206,7 @@
         <v>1336.5</v>
       </c>
       <c r="H141" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I141" s="4">
         <v>0</v>
@@ -11223,13 +11223,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11255,13 +11255,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11270,7 +11270,7 @@
         <v>1336.5</v>
       </c>
       <c r="H143" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I143" s="4">
         <v>0</v>
@@ -11287,13 +11287,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11319,13 +11319,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11351,13 +11351,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11383,13 +11383,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D147" s="4">
         <v>2016</v>
       </c>
       <c r="E147" s="4">
-        <v>1.4E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
@@ -11415,13 +11415,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11479,13 +11479,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11494,7 +11494,7 @@
         <v>1336.5</v>
       </c>
       <c r="H150" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
@@ -11511,13 +11511,13 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
       </c>
       <c r="E151" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.15521278721895346</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11613,7 +11613,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11645,7 +11645,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11677,7 +11677,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.13710016513395351</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11741,7 +11741,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.19782569372870323</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11773,7 +11773,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.21077006448261207</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11805,7 +11805,7 @@
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11837,7 +11837,7 @@
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.211523174241075</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11869,7 +11869,7 @@
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11901,7 +11901,7 @@
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11933,7 +11933,7 @@
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.16699472878703805</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12157,7 +12157,7 @@
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.1586174511333161</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12189,7 +12189,7 @@
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.15409499379434963</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12221,7 +12221,7 @@
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.15338177131187081</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12253,7 +12253,7 @@
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.18308354646436523</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12317,7 +12317,7 @@
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.19828629679661561</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12349,7 +12349,7 @@
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.16554834018408843</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12375,7 +12375,7 @@
         <v>135</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D178" s="3">
         <v>2010</v>
@@ -12439,7 +12439,7 @@
         <v>135</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D180" s="3">
         <v>2016</v>
@@ -12477,7 +12477,7 @@
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>1.995984545579471E-3</v>
+        <v>1.9471149127506567E-3</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>2022</v>
       </c>
       <c r="E182" s="3">
-        <v>2.1331300002536448E-3</v>
+        <v>1.2766843688204856E-3</v>
       </c>
       <c r="F182" s="3">
         <v>1</v>
@@ -12541,7 +12541,7 @@
         <v>2022</v>
       </c>
       <c r="E183" s="4">
-        <v>2.0977752916527944E-3</v>
+        <v>1.9134792076700303E-3</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>2022</v>
       </c>
       <c r="E184" s="3">
-        <v>1.8001961925811674E-3</v>
+        <v>1.9458009250579126E-3</v>
       </c>
       <c r="F184" s="3">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>2022</v>
       </c>
       <c r="E185" s="4">
-        <v>1.7389570502530283E-3</v>
+        <v>1.934352727405538E-3</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -12637,7 +12637,7 @@
         <v>2022</v>
       </c>
       <c r="E186" s="3">
-        <v>1.5846491049785966E-3</v>
+        <v>1.3323227019608895E-3</v>
       </c>
       <c r="F186" s="3">
         <v>1</v>
@@ -12669,7 +12669,7 @@
         <v>2022</v>
       </c>
       <c r="E187" s="4">
-        <v>1.1043455067346437E-3</v>
+        <v>2.0977752916527944E-3</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -12701,7 +12701,7 @@
         <v>2022</v>
       </c>
       <c r="E188" s="3">
-        <v>2.5998728400519421E-3</v>
+        <v>1.8001961925811674E-3</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
@@ -12733,7 +12733,7 @@
         <v>2022</v>
       </c>
       <c r="E189" s="4">
-        <v>1.2648340199792366E-3</v>
+        <v>1.7389570502530283E-3</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -12742,7 +12742,7 @@
         <v>2376</v>
       </c>
       <c r="H189" s="4">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I189" s="4">
         <v>2.52</v>
@@ -12765,7 +12765,7 @@
         <v>2022</v>
       </c>
       <c r="E190" s="3">
-        <v>1.9471149127506567E-3</v>
+        <v>1.5846491049785966E-3</v>
       </c>
       <c r="F190" s="3">
         <v>1</v>
@@ -12797,7 +12797,7 @@
         <v>2022</v>
       </c>
       <c r="E191" s="4">
-        <v>1.690330250635249E-3</v>
+        <v>1.487025085935642E-3</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -12806,7 +12806,7 @@
         <v>2376</v>
       </c>
       <c r="H191" s="4">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I191" s="4">
         <v>2.52</v>
@@ -12829,7 +12829,7 @@
         <v>2022</v>
       </c>
       <c r="E192" s="3">
-        <v>2.5474215275387651E-3</v>
+        <v>1.995984545579471E-3</v>
       </c>
       <c r="F192" s="3">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         <v>2022</v>
       </c>
       <c r="E193" s="4">
-        <v>2.4603891792050864E-3</v>
+        <v>2.7384072037362388E-3</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -12870,7 +12870,7 @@
         <v>2376</v>
       </c>
       <c r="H193" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I193" s="4">
         <v>2.52</v>
@@ -12893,7 +12893,7 @@
         <v>2022</v>
       </c>
       <c r="E194" s="3">
-        <v>1.1277974215720789E-3</v>
+        <v>1.873956449897916E-3</v>
       </c>
       <c r="F194" s="3">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>2022</v>
       </c>
       <c r="E195" s="4">
-        <v>1.934352727405538E-3</v>
+        <v>1.1277974215720789E-3</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -12957,7 +12957,7 @@
         <v>2022</v>
       </c>
       <c r="E196" s="3">
-        <v>1.3323227019608895E-3</v>
+        <v>1.4544028018509782E-3</v>
       </c>
       <c r="F196" s="3">
         <v>1</v>
@@ -12966,7 +12966,7 @@
         <v>2376</v>
       </c>
       <c r="H196" s="3">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I196" s="3">
         <v>2.52</v>
@@ -12989,7 +12989,7 @@
         <v>2022</v>
       </c>
       <c r="E197" s="4">
-        <v>1.4142299914721912E-3</v>
+        <v>2.0565820088599379E-3</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>2022</v>
       </c>
       <c r="E198" s="3">
-        <v>1.4544028018509782E-3</v>
+        <v>1.4799586835658777E-3</v>
       </c>
       <c r="F198" s="3">
         <v>1</v>
@@ -13030,7 +13030,7 @@
         <v>2376</v>
       </c>
       <c r="H198" s="3">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I198" s="3">
         <v>2.52</v>
@@ -13053,7 +13053,7 @@
         <v>2022</v>
       </c>
       <c r="E199" s="4">
-        <v>2.0565820088599379E-3</v>
+        <v>2.1331300002536448E-3</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -13085,7 +13085,7 @@
         <v>2022</v>
       </c>
       <c r="E200" s="3">
-        <v>1.4799586835658777E-3</v>
+        <v>2.4603891792050864E-3</v>
       </c>
       <c r="F200" s="3">
         <v>1</v>
@@ -13117,7 +13117,7 @@
         <v>2022</v>
       </c>
       <c r="E201" s="4">
-        <v>2.7384072037362388E-3</v>
+        <v>1.2648340199792366E-3</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         <v>2022</v>
       </c>
       <c r="E202" s="3">
-        <v>1.873956449897916E-3</v>
+        <v>1.690330250635249E-3</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
@@ -13158,7 +13158,7 @@
         <v>2376</v>
       </c>
       <c r="H202" s="3">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I202" s="3">
         <v>2.52</v>
@@ -13181,7 +13181,7 @@
         <v>2022</v>
       </c>
       <c r="E203" s="4">
-        <v>1.2766843688204856E-3</v>
+        <v>2.5474215275387651E-3</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -13213,7 +13213,7 @@
         <v>2022</v>
       </c>
       <c r="E204" s="3">
-        <v>1.9134792076700303E-3</v>
+        <v>1.1043455067346437E-3</v>
       </c>
       <c r="F204" s="3">
         <v>1</v>
@@ -13245,7 +13245,7 @@
         <v>2022</v>
       </c>
       <c r="E205" s="4">
-        <v>1.9458009250579126E-3</v>
+        <v>2.5998728400519421E-3</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -13277,7 +13277,7 @@
         <v>2022</v>
       </c>
       <c r="E206" s="3">
-        <v>1.487025085935642E-3</v>
+        <v>1.4142299914721912E-3</v>
       </c>
       <c r="F206" s="3">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{556ADEDD-7CFF-4AE2-884F-F188D66139D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E30AFF8-2F1E-46CD-9EC8-136BB0440D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BB4A05F7-5807-4E7E-B428-5F478999DB43}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{07D3E0EB-622F-42D7-9B0C-185345B29AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,51 +124,51 @@
     <t>e_CH30-380</t>
   </si>
   <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
     <t>e_CH43-220</t>
   </si>
   <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
     <t>e_CH45-220</t>
   </si>
   <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
-    <t>e_w228003081-220</t>
-  </si>
-  <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
     <t>e_w758943072-220</t>
   </si>
   <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
     <t>e_r7933294-380</t>
   </si>
   <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
     <t>e_CH18-220</t>
   </si>
   <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -346,6 +346,9 @@
     <t>e_w194258388-220</t>
   </si>
   <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
     <t>e_CH4-220</t>
   </si>
   <si>
@@ -355,9 +358,6 @@
     <t>e_CH31-220</t>
   </si>
   <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
     <t>e_w232662311-220</t>
   </si>
   <si>
@@ -367,87 +367,108 @@
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0014</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0018</t>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
   </si>
   <si>
     <t>elc_spv-CHE_0011</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
   </si>
   <si>
     <t>elc_spv-CHE_0012</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0018</t>
   </si>
   <si>
@@ -466,66 +487,45 @@
     <t>elc_won-CHE_0021</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010</t>
+    <t>elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0016</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007</t>
   </si>
   <si>
     <t>elc_won-CHE_0012</t>
   </si>
   <si>
-    <t>elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0016</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -574,33 +574,33 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH46-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH50-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH21-220_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH50-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - relation/7933294-380_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH21-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -766,76 +766,76 @@
     <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75115A21-06B5-4D5B-BC83-F277FE890B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB6E7FB-B7ED-44D5-8688-7456F0C3F9A5}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4397,7 +4397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2896E7E-DDE2-4EF6-A5E4-E04C1102EA07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBAD235-92BB-4CF0-9307-6EFAEAEA5976}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4720,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDEB804-84F4-43AD-A790-087FBFD1E69F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204D2A33-4B15-4D4A-88FA-F26DC3059023}">
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5369,7 +5369,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5422,7 +5422,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5469,7 +5469,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5575,7 +5575,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5681,7 +5681,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5787,13 +5787,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3">
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>3.1408692211303837E-2</v>
+        <v>2.8267822990173462E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -5840,19 +5840,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>8.3128338719250822E-2</v>
+        <v>5.2975994196399145E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H23" s="4">
         <v>60.500000000000014</v>
@@ -5899,19 +5899,19 @@
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>1.0888346633251996E-2</v>
+        <v>7.9568686935303057E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I24" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -5946,25 +5946,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>5.5069907010486065E-2</v>
+        <v>1.5494954824243228E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I25" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -5999,25 +5999,25 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>5.2975994196399145E-2</v>
+        <v>3.1408692211303837E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H26" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I26" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -6052,13 +6052,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>3.8946778342016763E-2</v>
+        <v>1.0888346633251996E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -6105,13 +6105,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>1.0469564070434612E-2</v>
+        <v>1.6960693794104073E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -6158,25 +6158,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>2.8267822990173462E-2</v>
+        <v>8.3128338719250822E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H29" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I29" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J29" s="4">
         <v>100</v>
@@ -6211,25 +6211,25 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>1.6960693794104073E-2</v>
+        <v>5.5069907010486065E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H30" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I30" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J30" s="3">
         <v>100</v>
@@ -6264,25 +6264,25 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>7.9568686935303057E-2</v>
+        <v>1.0469564070434612E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H31" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I31" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J31" s="4">
         <v>100</v>
@@ -6323,7 +6323,7 @@
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>1.5494954824243228E-2</v>
+        <v>3.2874431181164683E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -6376,7 +6376,7 @@
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>3.2874431181164683E-2</v>
+        <v>3.8946778342016763E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -6476,25 +6476,25 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.2512695376904307</v>
+        <v>0.35429004814350729</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H35" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I35" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J35" s="4">
         <v>100</v>
@@ -6529,13 +6529,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.37334465475169831</v>
+        <v>1.1692409153861374</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -6544,7 +6544,7 @@
         <v>2750</v>
       </c>
       <c r="H36" s="3">
-        <v>55</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I36" s="3">
         <v>2.1</v>
@@ -6582,25 +6582,25 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.35429004814350729</v>
+        <v>0.25692310228846538</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H37" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I37" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J37" s="4">
         <v>100</v>
@@ -6635,25 +6635,25 @@
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>1.1692409153861374</v>
+        <v>0.19599023939853596</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H38" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I38" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J38" s="3">
         <v>100</v>
@@ -6688,13 +6688,13 @@
         <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D39" s="4">
         <v>2022</v>
       </c>
       <c r="E39" s="4">
-        <v>0.19599023939853596</v>
+        <v>0.15013354877003235</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -6741,13 +6741,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D40" s="3">
         <v>2022</v>
       </c>
       <c r="E40" s="3">
-        <v>0.25692310228846538</v>
+        <v>0.2512695376904307</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -6853,19 +6853,19 @@
         <v>2022</v>
       </c>
       <c r="E42" s="3">
-        <v>0.15013354877003235</v>
+        <v>0.37334465475169831</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H42" s="3">
-        <v>60.500000000000014</v>
+        <v>55</v>
       </c>
       <c r="I42" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
@@ -6900,7 +6900,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" s="4">
         <v>1923</v>
@@ -6953,7 +6953,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3">
         <v>1962</v>
@@ -7059,7 +7059,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7271,7 +7271,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D50" s="3">
         <v>1959</v>
@@ -7483,7 +7483,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D54" s="3">
         <v>1965</v>
@@ -7907,7 +7907,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="3">
         <v>1976</v>
@@ -7960,7 +7960,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="4">
         <v>1910</v>
@@ -8066,7 +8066,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D65" s="4">
         <v>1966</v>
@@ -8172,7 +8172,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D67" s="4">
         <v>1970</v>
@@ -8278,7 +8278,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" s="4">
         <v>1958</v>
@@ -8331,7 +8331,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D70" s="3">
         <v>1978</v>
@@ -8437,7 +8437,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3">
         <v>1961</v>
@@ -8543,7 +8543,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D74" s="3">
         <v>1962</v>
@@ -8596,7 +8596,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D75" s="4">
         <v>1964</v>
@@ -8649,7 +8649,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D76" s="3">
         <v>1953</v>
@@ -8702,7 +8702,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" s="4">
         <v>1943</v>
@@ -8914,7 +8914,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="4">
         <v>1958</v>
@@ -8967,7 +8967,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D82" s="3">
         <v>1966</v>
@@ -9232,7 +9232,7 @@
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D87" s="4">
         <v>2016</v>
@@ -9285,7 +9285,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D88" s="3">
         <v>1977</v>
@@ -9391,7 +9391,7 @@
         <v>13</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D90" s="3">
         <v>2009</v>
@@ -9656,7 +9656,7 @@
         <v>22</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" s="4">
         <v>1908</v>
@@ -9815,7 +9815,7 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D98" s="3">
         <v>1925</v>
@@ -9943,25 +9943,25 @@
         <v>22</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D102" s="3">
         <v>1952</v>
       </c>
       <c r="E102" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H102" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I102" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J102" s="3">
         <v>103</v>
@@ -9975,25 +9975,25 @@
         <v>22</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D103" s="4">
         <v>1952</v>
       </c>
       <c r="E103" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H103" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I103" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J103" s="4">
         <v>103</v>
@@ -10039,7 +10039,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D105" s="4">
         <v>1959</v>
@@ -10071,7 +10071,7 @@
         <v>22</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D106" s="3">
         <v>1960</v>
@@ -10295,7 +10295,7 @@
         <v>99</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D113" s="4">
         <v>2009</v>
@@ -10391,19 +10391,19 @@
         <v>99</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D116" s="3">
         <v>2011</v>
       </c>
       <c r="E116" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H116" s="3">
         <v>21.450000000000003</v>
@@ -10423,13 +10423,13 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D117" s="4">
         <v>2011</v>
       </c>
       <c r="E117" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10455,7 +10455,7 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D118" s="3">
         <v>2011</v>
@@ -10487,13 +10487,13 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D119" s="4">
         <v>2011</v>
       </c>
       <c r="E119" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10519,19 +10519,19 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D120" s="3">
         <v>2011</v>
       </c>
       <c r="E120" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H120" s="3">
         <v>21.450000000000003</v>
@@ -10551,19 +10551,19 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.8E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H121" s="4">
         <v>21.450000000000003</v>
@@ -10583,13 +10583,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10615,19 +10615,19 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
       </c>
       <c r="G123" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H123" s="4">
         <v>21.450000000000003</v>
@@ -10647,13 +10647,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>2E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10679,13 +10679,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10711,19 +10711,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10743,13 +10743,13 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>1.5E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10775,13 +10775,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>2.5999999999999994E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10807,19 +10807,19 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10839,13 +10839,13 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10871,13 +10871,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D131" s="4">
         <v>2012</v>
       </c>
       <c r="E131" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10903,13 +10903,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D132" s="3">
         <v>2012</v>
       </c>
       <c r="E132" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10967,13 +10967,13 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -10999,13 +10999,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -11031,13 +11031,13 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -11063,7 +11063,7 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
@@ -11127,13 +11127,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11159,13 +11159,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11191,13 +11191,13 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11206,7 +11206,7 @@
         <v>1336.5</v>
       </c>
       <c r="H141" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I141" s="4">
         <v>0</v>
@@ -11223,13 +11223,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11238,7 +11238,7 @@
         <v>1336.5</v>
       </c>
       <c r="H142" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -11255,13 +11255,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11319,13 +11319,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11351,13 +11351,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11383,13 +11383,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D147" s="4">
         <v>2016</v>
       </c>
       <c r="E147" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
@@ -11415,13 +11415,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>1.4E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11479,13 +11479,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11511,13 +11511,13 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
       </c>
       <c r="E151" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -11526,7 +11526,7 @@
         <v>1336.5</v>
       </c>
       <c r="H151" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I151" s="4">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>2022</v>
       </c>
       <c r="E153" s="4">
-        <v>0.18308354646436523</v>
+        <v>0.1586174511333161</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11613,7 +11613,7 @@
         <v>2022</v>
       </c>
       <c r="E154" s="3">
-        <v>0.19782569372870323</v>
+        <v>0.15409499379434963</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11645,7 +11645,7 @@
         <v>2022</v>
       </c>
       <c r="E155" s="4">
-        <v>0.16277902359433066</v>
+        <v>0.16699472878703805</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11677,7 +11677,7 @@
         <v>2022</v>
       </c>
       <c r="E156" s="3">
-        <v>0.15338177131187081</v>
+        <v>0.15291072157643879</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.19828629679661561</v>
+        <v>0.211523174241075</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11741,7 +11741,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.13606784444360143</v>
+        <v>0.20091315882928704</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11773,7 +11773,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.15409499379434963</v>
+        <v>0.19782569372870323</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11805,7 +11805,7 @@
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.21471510601685545</v>
+        <v>0.19328994063107527</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11837,7 +11837,7 @@
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.16637932510042519</v>
+        <v>0.18308354646436523</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11869,7 +11869,7 @@
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.13710016513395351</v>
+        <v>0.21471510601685545</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11901,7 +11901,7 @@
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.21731537653220406</v>
+        <v>0.16637932510042519</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11933,7 +11933,7 @@
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.16554834018408843</v>
+        <v>0.13710016513395351</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11965,7 +11965,7 @@
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.1930981018275324</v>
+        <v>0.21731537653220406</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.17279262926045061</v>
+        <v>0.15338177131187081</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.17082200788742341</v>
+        <v>0.19828629679661561</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12061,7 +12061,7 @@
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.16152827258311295</v>
+        <v>0.21077006448261207</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.19614947844032105</v>
+        <v>0.1930981018275324</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.15291072157643879</v>
+        <v>0.17279262926045061</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12157,7 +12157,7 @@
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.211523174241075</v>
+        <v>0.17082200788742341</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12189,7 +12189,7 @@
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.20091315882928704</v>
+        <v>0.16152827258311295</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12221,7 +12221,7 @@
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.16699472878703805</v>
+        <v>0.19614947844032105</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12253,7 +12253,7 @@
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.15521278721895346</v>
+        <v>0.16277902359433066</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.1586174511333161</v>
+        <v>0.15521278721895346</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12317,7 +12317,7 @@
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.21077006448261207</v>
+        <v>0.16554834018408843</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12349,7 +12349,7 @@
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.19328994063107527</v>
+        <v>0.13606784444360143</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12375,7 +12375,7 @@
         <v>135</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D178" s="3">
         <v>2010</v>
@@ -12439,7 +12439,7 @@
         <v>135</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D180" s="3">
         <v>2016</v>
@@ -12477,7 +12477,7 @@
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>1.9471149127506567E-3</v>
+        <v>1.1043455067346437E-3</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>2022</v>
       </c>
       <c r="E182" s="3">
-        <v>1.2766843688204856E-3</v>
+        <v>1.1277974215720789E-3</v>
       </c>
       <c r="F182" s="3">
         <v>1</v>
@@ -12541,7 +12541,7 @@
         <v>2022</v>
       </c>
       <c r="E183" s="4">
-        <v>1.9134792076700303E-3</v>
+        <v>1.690330250635249E-3</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -12550,7 +12550,7 @@
         <v>2376</v>
       </c>
       <c r="H183" s="4">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I183" s="4">
         <v>2.52</v>
@@ -12573,7 +12573,7 @@
         <v>2022</v>
       </c>
       <c r="E184" s="3">
-        <v>1.9458009250579126E-3</v>
+        <v>2.5474215275387651E-3</v>
       </c>
       <c r="F184" s="3">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>2022</v>
       </c>
       <c r="E185" s="4">
-        <v>1.934352727405538E-3</v>
+        <v>1.2648340199792366E-3</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -12614,7 +12614,7 @@
         <v>2376</v>
       </c>
       <c r="H185" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I185" s="4">
         <v>2.52</v>
@@ -12637,7 +12637,7 @@
         <v>2022</v>
       </c>
       <c r="E186" s="3">
-        <v>1.3323227019608895E-3</v>
+        <v>2.0977752916527944E-3</v>
       </c>
       <c r="F186" s="3">
         <v>1</v>
@@ -12669,7 +12669,7 @@
         <v>2022</v>
       </c>
       <c r="E187" s="4">
-        <v>2.0977752916527944E-3</v>
+        <v>1.7389570502530283E-3</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -12701,7 +12701,7 @@
         <v>2022</v>
       </c>
       <c r="E188" s="3">
-        <v>1.8001961925811674E-3</v>
+        <v>1.9471149127506567E-3</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
@@ -12733,7 +12733,7 @@
         <v>2022</v>
       </c>
       <c r="E189" s="4">
-        <v>1.7389570502530283E-3</v>
+        <v>1.2766843688204856E-3</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -12765,7 +12765,7 @@
         <v>2022</v>
       </c>
       <c r="E190" s="3">
-        <v>1.5846491049785966E-3</v>
+        <v>1.9134792076700303E-3</v>
       </c>
       <c r="F190" s="3">
         <v>1</v>
@@ -12797,7 +12797,7 @@
         <v>2022</v>
       </c>
       <c r="E191" s="4">
-        <v>1.487025085935642E-3</v>
+        <v>1.9458009250579126E-3</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -12829,7 +12829,7 @@
         <v>2022</v>
       </c>
       <c r="E192" s="3">
-        <v>1.995984545579471E-3</v>
+        <v>1.934352727405538E-3</v>
       </c>
       <c r="F192" s="3">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         <v>2022</v>
       </c>
       <c r="E193" s="4">
-        <v>2.7384072037362388E-3</v>
+        <v>1.3323227019608895E-3</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -12870,7 +12870,7 @@
         <v>2376</v>
       </c>
       <c r="H193" s="4">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I193" s="4">
         <v>2.52</v>
@@ -12893,7 +12893,7 @@
         <v>2022</v>
       </c>
       <c r="E194" s="3">
-        <v>1.873956449897916E-3</v>
+        <v>1.4142299914721912E-3</v>
       </c>
       <c r="F194" s="3">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>2022</v>
       </c>
       <c r="E195" s="4">
-        <v>1.1277974215720789E-3</v>
+        <v>1.4544028018509782E-3</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -12934,7 +12934,7 @@
         <v>2376</v>
       </c>
       <c r="H195" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I195" s="4">
         <v>2.52</v>
@@ -12957,7 +12957,7 @@
         <v>2022</v>
       </c>
       <c r="E196" s="3">
-        <v>1.4544028018509782E-3</v>
+        <v>2.0565820088599379E-3</v>
       </c>
       <c r="F196" s="3">
         <v>1</v>
@@ -12966,7 +12966,7 @@
         <v>2376</v>
       </c>
       <c r="H196" s="3">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I196" s="3">
         <v>2.52</v>
@@ -12989,7 +12989,7 @@
         <v>2022</v>
       </c>
       <c r="E197" s="4">
-        <v>2.0565820088599379E-3</v>
+        <v>1.4799586835658777E-3</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>2022</v>
       </c>
       <c r="E198" s="3">
-        <v>1.4799586835658777E-3</v>
+        <v>1.995984545579471E-3</v>
       </c>
       <c r="F198" s="3">
         <v>1</v>
@@ -13053,7 +13053,7 @@
         <v>2022</v>
       </c>
       <c r="E199" s="4">
-        <v>2.1331300002536448E-3</v>
+        <v>2.7384072037362388E-3</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -13062,7 +13062,7 @@
         <v>2376</v>
       </c>
       <c r="H199" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I199" s="4">
         <v>2.52</v>
@@ -13085,7 +13085,7 @@
         <v>2022</v>
       </c>
       <c r="E200" s="3">
-        <v>2.4603891792050864E-3</v>
+        <v>1.873956449897916E-3</v>
       </c>
       <c r="F200" s="3">
         <v>1</v>
@@ -13117,7 +13117,7 @@
         <v>2022</v>
       </c>
       <c r="E201" s="4">
-        <v>1.2648340199792366E-3</v>
+        <v>2.5998728400519421E-3</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -13126,7 +13126,7 @@
         <v>2376</v>
       </c>
       <c r="H201" s="4">
-        <v>57.199999999999996</v>
+        <v>57.2</v>
       </c>
       <c r="I201" s="4">
         <v>2.52</v>
@@ -13149,7 +13149,7 @@
         <v>2022</v>
       </c>
       <c r="E202" s="3">
-        <v>1.690330250635249E-3</v>
+        <v>2.4603891792050864E-3</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
@@ -13158,7 +13158,7 @@
         <v>2376</v>
       </c>
       <c r="H202" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I202" s="3">
         <v>2.52</v>
@@ -13181,7 +13181,7 @@
         <v>2022</v>
       </c>
       <c r="E203" s="4">
-        <v>2.5474215275387651E-3</v>
+        <v>2.1331300002536448E-3</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -13213,7 +13213,7 @@
         <v>2022</v>
       </c>
       <c r="E204" s="3">
-        <v>1.1043455067346437E-3</v>
+        <v>1.5846491049785966E-3</v>
       </c>
       <c r="F204" s="3">
         <v>1</v>
@@ -13245,7 +13245,7 @@
         <v>2022</v>
       </c>
       <c r="E205" s="4">
-        <v>2.5998728400519421E-3</v>
+        <v>1.487025085935642E-3</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -13277,7 +13277,7 @@
         <v>2022</v>
       </c>
       <c r="E206" s="3">
-        <v>1.4142299914721912E-3</v>
+        <v>1.8001961925811674E-3</v>
       </c>
       <c r="F206" s="3">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6356C5-0895-45B5-9006-A025940D6C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D350AB-CAF8-4C2C-9329-605DCF1CDD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{374B1345-8E6A-4933-9224-E4A2D71DE73D}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{A5C8EFD4-8A3D-4E6C-BEBE-4D5F6259AD79}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -133,18 +133,18 @@
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
     <t>e_CH51-220</t>
   </si>
   <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
     <t>e_CH46-220</t>
   </si>
   <si>
@@ -346,51 +346,51 @@
     <t>elc_spv-CHE_0017</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0007</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0018</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0001</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
@@ -400,45 +400,45 @@
     <t>elc_spv-CHE_0011</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0023</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0019</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0006</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0001</t>
   </si>
   <si>
-    <t>elc_won-CHE_0002</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -664,79 +664,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -994,6 +994,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEF810F-BA3E-7F90-E947-D1C5D9B983E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF708325-3BF0-9651-8A9D-88F2E6E46F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12369800" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D508800-C6D4-65E0-5398-B84F5037B280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCFFE2A-48AD-40EF-A331-7D83EEC7F099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB333F-43F8-4F2C-AA6E-AE81650A0CBA}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1330,7 +1495,7 @@
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -1348,8 +1513,6 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -4291,14 +4454,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C994E563-FDA5-43BD-B855-3B333A52F1F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475DD8F3-774A-43D3-AE65-9D15E9677F29}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4320,7 +4484,7 @@
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -4342,8 +4506,6 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -4614,14 +4776,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8783634C-D23F-455D-BF0C-1637AED964AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C4F417-0CE3-4BD3-A82F-AEBDC142FE6F}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4641,7 +4804,7 @@
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -4662,8 +4825,6 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -5688,25 +5849,25 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>9.4137044120556748E-2</v>
+        <v>3.992778473916777E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H22" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I22" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -5741,19 +5902,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>1.5086064762909735E-2</v>
+        <v>1.8706720306008073E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3712.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H23" s="4">
         <v>71.5</v>
@@ -5794,25 +5955,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>1.5790081118512187E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I24" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -5847,13 +6008,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>7.2111389566708539E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -5900,13 +6061,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>6.034425905163894E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -5953,13 +6114,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>2.5445162566774423E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -6006,19 +6167,19 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>1.8706720306008073E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3712.5</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H28" s="3">
         <v>71.5</v>
@@ -6059,25 +6220,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>3.992778473916777E-2</v>
+        <v>7.1608520741278214E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H29" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I29" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J29" s="4">
         <v>100</v>
@@ -6112,13 +6273,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>1.3577458286618762E-2</v>
+        <v>2.5445162566774423E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -6165,25 +6326,25 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>7.1608520741278214E-2</v>
+        <v>1.5086064762909735E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H31" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I31" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J31" s="4">
         <v>100</v>
@@ -6271,13 +6432,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>2.6450900217635069E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -6324,25 +6485,25 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>0.30664940974741184</v>
+        <v>0.25404933060739998</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H34" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I34" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J34" s="3">
         <v>100</v>
@@ -6377,25 +6538,25 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.25404933060739998</v>
+        <v>0.30664940974741184</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H35" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I35" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J35" s="4">
         <v>100</v>
@@ -6960,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -8391,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D73" s="4">
         <v>1943</v>
@@ -9504,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D94" s="3">
         <v>1925</v>
@@ -9632,25 +9793,25 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D98" s="3">
         <v>1952</v>
       </c>
       <c r="E98" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H98" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I98" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J98" s="3">
         <v>103</v>
@@ -9664,25 +9825,25 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
       </c>
       <c r="E99" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H99" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I99" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J99" s="4">
         <v>103</v>
@@ -9728,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D101" s="4">
         <v>1959</v>
@@ -10054,7 +10215,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="4">
-        <v>1E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10063,7 +10224,7 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -10118,7 +10279,7 @@
         <v>2011</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10150,7 +10311,7 @@
         <v>2011</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10182,7 +10343,7 @@
         <v>2011</v>
       </c>
       <c r="E115" s="4">
-        <v>2.8E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10191,7 +10352,7 @@
         <v>1336.5</v>
       </c>
       <c r="H115" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I115" s="4">
         <v>0</v>
@@ -10240,13 +10401,13 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10272,19 +10433,19 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D118" s="3">
         <v>2012</v>
       </c>
       <c r="E118" s="3">
-        <v>1.8E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -10304,13 +10465,13 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D119" s="4">
         <v>2012</v>
       </c>
       <c r="E119" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10336,13 +10497,13 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D120" s="3">
         <v>2012</v>
       </c>
       <c r="E120" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10368,13 +10529,13 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10400,13 +10561,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>2E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10432,19 +10593,19 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
       </c>
       <c r="G123" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H123" s="4">
         <v>21.450000000000003</v>
@@ -10464,13 +10625,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10496,13 +10657,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>2.7000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10528,19 +10689,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10560,19 +10721,19 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>2.5999999999999994E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
       </c>
       <c r="G127" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H127" s="4">
         <v>21.450000000000003</v>
@@ -10592,19 +10753,19 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H128" s="3">
         <v>21.450000000000003</v>
@@ -10624,19 +10785,19 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10656,13 +10817,13 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10688,7 +10849,7 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
@@ -10720,7 +10881,7 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
@@ -10752,13 +10913,13 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10784,13 +10945,13 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -10816,13 +10977,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -10848,22 +11009,22 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H136" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I136" s="3">
         <v>0</v>
@@ -10880,22 +11041,22 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>2.4400000000000005E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
       </c>
       <c r="G137" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H137" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I137" s="4">
         <v>0</v>
@@ -10912,7 +11073,7 @@
         <v>99</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D138" s="3">
         <v>2014</v>
@@ -10976,13 +11137,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -10991,7 +11152,7 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -11008,7 +11169,7 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
@@ -11040,13 +11201,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11055,7 +11216,7 @@
         <v>1336.5</v>
       </c>
       <c r="H142" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -11072,13 +11233,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>3.8E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11087,7 +11248,7 @@
         <v>1336.5</v>
       </c>
       <c r="H143" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I143" s="4">
         <v>0</v>
@@ -11104,13 +11265,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11119,7 +11280,7 @@
         <v>1336.5</v>
       </c>
       <c r="H144" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -11136,7 +11297,7 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
@@ -11168,7 +11329,7 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
@@ -11200,7 +11361,7 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
@@ -11264,7 +11425,7 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
@@ -11302,7 +11463,7 @@
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11311,7 +11472,7 @@
         <v>1336.5</v>
       </c>
       <c r="H150" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
@@ -11328,7 +11489,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11360,13 +11521,13 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
       </c>
       <c r="E152" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11375,7 +11536,7 @@
         <v>1336.5</v>
       </c>
       <c r="H152" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
@@ -11392,13 +11553,13 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
       </c>
       <c r="E153" s="4">
-        <v>1.4E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11424,13 +11585,13 @@
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D154" s="3">
         <v>2016</v>
       </c>
       <c r="E154" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11456,7 +11617,7 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
@@ -11520,13 +11681,13 @@
         <v>99</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.19562028903692719</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11552,13 +11713,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.16096432695108279</v>
+        <v>0.18104249049863588</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11584,13 +11745,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.13455092994741213</v>
+        <v>0.1516718373204449</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11616,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.156849148622487</v>
+        <v>0.19607575719972248</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11648,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.15237710864056714</v>
+        <v>0.16096432695108279</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11680,13 +11841,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.19113510152041108</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11712,13 +11873,13 @@
         <v>99</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.15348244065625796</v>
+        <v>0.19113510152041108</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11744,13 +11905,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.15120603895189552</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11776,13 +11937,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.20916506699980644</v>
+        <v>0.16452449149779813</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11814,7 +11975,7 @@
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.1986733343920766</v>
+        <v>0.13557174209784201</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -11840,13 +12001,13 @@
         <v>99</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D167" s="4">
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.1516718373204449</v>
+        <v>0.2148926965356589</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -11872,13 +12033,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.19607575719972248</v>
+        <v>0.16513303452767722</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -11904,13 +12065,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.16370277058553859</v>
+        <v>0.15120603895189552</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -11936,13 +12097,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.21232141441249713</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -11968,13 +12129,13 @@
         <v>99</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.16452449149779813</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12000,13 +12161,13 @@
         <v>99</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D172" s="3">
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.13557174209784201</v>
+        <v>0.19094540137838087</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12032,13 +12193,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.2148926965356589</v>
+        <v>0.17086629872121376</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12064,13 +12225,13 @@
         <v>99</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.19094540137838087</v>
+        <v>0.15972751958943046</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12096,13 +12257,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.17086629872121376</v>
+        <v>0.19396276056819794</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12128,13 +12289,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.16891764627214115</v>
+        <v>0.13455092994741213</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12160,13 +12321,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.15972751958943046</v>
+        <v>0.156849148622487</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12192,13 +12353,13 @@
         <v>99</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.19396276056819794</v>
+        <v>0.15237710864056714</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12224,13 +12385,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.18104249049863588</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12256,13 +12417,13 @@
         <v>99</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.20842035307589579</v>
+        <v>0.19562028903692719</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12288,13 +12449,13 @@
         <v>99</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D181" s="4">
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.16513303452767722</v>
+        <v>0.16891764627214115</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12538,8 +12699,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D350AB-CAF8-4C2C-9329-605DCF1CDD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE9F100-849B-4B96-9622-49A197D84ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{A5C8EFD4-8A3D-4E6C-BEBE-4D5F6259AD79}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{2089E6F7-8CB8-434D-8CBB-3B82861C2E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,27 +124,27 @@
     <t>e_CH30-380</t>
   </si>
   <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
     <t>e_CH45-220</t>
   </si>
   <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
     <t>e_CH50-220</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
     <t>e_CH46-220</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>ep_hydro_dam_</t>
   </si>
   <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
     <t>e_w758943072-220</t>
   </si>
   <si>
-    <t>e_CH18-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -346,99 +346,99 @@
     <t>elc_spv-CHE_0017</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0014</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
   </si>
   <si>
     <t>elc_spv-CHE_0008</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>elc_spv-CHE_0021</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>elc_spv-CHE_0006</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0011</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0010</t>
   </si>
   <si>
-    <t>elc_won-CHE_0006</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0002</t>
   </si>
   <si>
-    <t>elc_won-CHE_0001</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -664,79 +664,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1016,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEF810F-BA3E-7F90-E947-D1C5D9B983E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DB24B5-4AA8-B2E6-15AD-8930B8B2700C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF708325-3BF0-9651-8A9D-88F2E6E46F57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FA5044-0B08-026F-A3FD-374F6034E15A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D508800-C6D4-65E0-5398-B84F5037B280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCB9FEB-75EC-E6B5-9F7E-FDE73512232D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEB333F-43F8-4F2C-AA6E-AE81650A0CBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0C3ADF-2E2D-4B9B-B282-38A2C88D452F}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4462,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475DD8F3-774A-43D3-AE65-9D15E9677F29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8E785D-8466-483E-8741-FBC04A9F6621}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4784,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C4F417-0CE3-4BD3-A82F-AEBDC142FE6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0186BE8F-AC20-4E71-A63D-F2BD3647C1EA}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5431,7 +5431,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5484,7 +5484,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5637,7 +5637,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5743,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5855,19 +5855,19 @@
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>3.992778473916777E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H22" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I22" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -5961,19 +5961,19 @@
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>7.2111389566708539E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I24" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -6008,25 +6008,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>6.034425905163894E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I25" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -6067,19 +6067,19 @@
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>9.4137044120556748E-2</v>
+        <v>3.992778473916777E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H26" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I26" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -6114,13 +6114,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>1.5790081118512187E-2</v>
+        <v>1.5086064762909735E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -6167,25 +6167,25 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>2.6450900217635069E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H28" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I28" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J28" s="3">
         <v>100</v>
@@ -6220,13 +6220,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>7.1608520741278214E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -6326,13 +6326,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>1.5086064762909735E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -6379,25 +6379,25 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>3.8218030732704661E-2</v>
+        <v>7.1608520741278214E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I32" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6432,13 +6432,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>1.3577458286618762E-2</v>
+        <v>3.8218030732704661E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -6485,25 +6485,25 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>0.25404933060739998</v>
+        <v>0.30664940974741184</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H34" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I34" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J34" s="3">
         <v>100</v>
@@ -6538,25 +6538,25 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.30664940974741184</v>
+        <v>0.17932302314845372</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>2750</v>
+        <v>3162.5</v>
       </c>
       <c r="H35" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I35" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J35" s="4">
         <v>100</v>
@@ -6591,22 +6591,22 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.17932302314845372</v>
+        <v>0.17017081052562183</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>3162.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H36" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I36" s="3">
         <v>2.3100000000000005</v>
@@ -6644,13 +6644,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.17017081052562183</v>
+        <v>0.12340400976060163</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -6697,13 +6697,13 @@
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>0.12340400976060163</v>
+        <v>0.25404933060739998</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -6750,7 +6750,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="4">
         <v>1923</v>
@@ -6803,7 +6803,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3">
         <v>1962</v>
@@ -6909,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="3">
         <v>1959</v>
@@ -6962,7 +6962,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
         <v>1999</v>
@@ -7227,7 +7227,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" s="3">
         <v>1957</v>
@@ -7280,7 +7280,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="4">
         <v>1958</v>
@@ -7333,7 +7333,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="3">
         <v>1965</v>
@@ -7704,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" s="4">
         <v>1978</v>
@@ -7757,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="3">
         <v>1976</v>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4">
         <v>1910</v>
@@ -7863,7 +7863,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D60" s="3">
         <v>1960</v>
@@ -7916,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="4">
         <v>1966</v>
@@ -8022,7 +8022,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" s="4">
         <v>1970</v>
@@ -8075,7 +8075,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D64" s="3">
         <v>1956</v>
@@ -8128,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="4">
         <v>1958</v>
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3">
         <v>1961</v>
@@ -8393,7 +8393,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="3">
         <v>1962</v>
@@ -8446,7 +8446,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" s="4">
         <v>1964</v>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="3">
         <v>1953</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D73" s="4">
         <v>1943</v>
@@ -8764,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4">
         <v>1958</v>
@@ -9082,7 +9082,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D83" s="4">
         <v>2016</v>
@@ -9241,7 +9241,7 @@
         <v>13</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" s="3">
         <v>2009</v>
@@ -9665,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D94" s="3">
         <v>1925</v>
@@ -9793,25 +9793,25 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D98" s="3">
         <v>1952</v>
       </c>
       <c r="E98" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H98" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I98" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J98" s="3">
         <v>103</v>
@@ -9825,25 +9825,25 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
       </c>
       <c r="E99" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H99" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I99" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J99" s="4">
         <v>103</v>
@@ -10215,7 +10215,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="4">
-        <v>2.8E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10224,7 +10224,7 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>2011</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>2011</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>2011</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10384,7 +10384,7 @@
         <v>1336.5</v>
       </c>
       <c r="H116" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
@@ -10401,19 +10401,19 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
       </c>
       <c r="E117" s="4">
-        <v>2.5999999999999994E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -10433,13 +10433,13 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D118" s="3">
         <v>2012</v>
       </c>
       <c r="E118" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10465,7 +10465,7 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D119" s="4">
         <v>2012</v>
@@ -10497,7 +10497,7 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D120" s="3">
         <v>2012</v>
@@ -10529,19 +10529,19 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H121" s="4">
         <v>21.450000000000003</v>
@@ -10561,13 +10561,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10593,13 +10593,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10625,13 +10625,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10657,13 +10657,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>2E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10689,19 +10689,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10721,19 +10721,19 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>1.8E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
       </c>
       <c r="G127" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H127" s="4">
         <v>21.450000000000003</v>
@@ -10759,13 +10759,13 @@
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H128" s="3">
         <v>21.450000000000003</v>
@@ -10785,19 +10785,19 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10817,13 +10817,13 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10849,13 +10849,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
       </c>
       <c r="E131" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10881,13 +10881,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
       </c>
       <c r="E132" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10913,22 +10913,22 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
       </c>
       <c r="G133" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10945,13 +10945,13 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -10977,13 +10977,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -11015,16 +11015,16 @@
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>2.4400000000000005E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H136" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I136" s="3">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
@@ -11073,7 +11073,7 @@
         <v>99</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D138" s="3">
         <v>2014</v>
@@ -11105,13 +11105,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11137,7 +11137,7 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
@@ -11169,13 +11169,13 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11184,7 +11184,7 @@
         <v>1336.5</v>
       </c>
       <c r="H141" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I141" s="4">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
@@ -11233,13 +11233,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11248,7 +11248,7 @@
         <v>1336.5</v>
       </c>
       <c r="H143" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I143" s="4">
         <v>0</v>
@@ -11265,13 +11265,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>3.8E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11280,7 +11280,7 @@
         <v>1336.5</v>
       </c>
       <c r="H144" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11312,7 +11312,7 @@
         <v>1336.5</v>
       </c>
       <c r="H145" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I145" s="4">
         <v>0</v>
@@ -11329,7 +11329,7 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
@@ -11361,7 +11361,7 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
@@ -11393,13 +11393,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11408,7 +11408,7 @@
         <v>1336.5</v>
       </c>
       <c r="H148" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
@@ -11425,13 +11425,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11440,7 +11440,7 @@
         <v>1336.5</v>
       </c>
       <c r="H149" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I149" s="4">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11472,7 +11472,7 @@
         <v>1336.5</v>
       </c>
       <c r="H150" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11521,7 +11521,7 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
@@ -11553,13 +11553,13 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
       </c>
       <c r="E153" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11585,13 +11585,13 @@
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D154" s="3">
         <v>2016</v>
       </c>
       <c r="E154" s="3">
-        <v>1.4E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>1336.5</v>
       </c>
       <c r="H154" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I154" s="3">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
@@ -11649,7 +11649,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D156" s="3">
         <v>2021</v>
@@ -11681,13 +11681,13 @@
         <v>99</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.20842035307589579</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11713,13 +11713,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.18104249049863588</v>
+        <v>0.13455092994741213</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11745,13 +11745,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.1516718373204449</v>
+        <v>0.156849148622487</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11777,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.19607575719972248</v>
+        <v>0.15237710864056714</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11809,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.16096432695108279</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11841,13 +11841,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.15348244065625796</v>
+        <v>0.16452449149779813</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11873,13 +11873,13 @@
         <v>99</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.19113510152041108</v>
+        <v>0.13557174209784201</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11905,13 +11905,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.21232141441249713</v>
+        <v>0.2148926965356589</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11937,13 +11937,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.16452449149779813</v>
+        <v>0.15120603895189552</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11969,13 +11969,13 @@
         <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D166" s="3">
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.13557174209784201</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12001,13 +12001,13 @@
         <v>99</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D167" s="4">
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.2148926965356589</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12033,13 +12033,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.16513303452767722</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12065,13 +12065,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.15120603895189552</v>
+        <v>0.19094540137838087</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12097,13 +12097,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.20916506699980644</v>
+        <v>0.17086629872121376</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12129,13 +12129,13 @@
         <v>99</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.1986733343920766</v>
+        <v>0.16891764627214115</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12167,7 +12167,7 @@
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.19094540137838087</v>
+        <v>0.15972751958943046</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.17086629872121376</v>
+        <v>0.19396276056819794</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12225,13 +12225,13 @@
         <v>99</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.15972751958943046</v>
+        <v>0.19562028903692719</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12257,13 +12257,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.19396276056819794</v>
+        <v>0.16096432695108279</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12289,13 +12289,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.13455092994741213</v>
+        <v>0.18104249049863588</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12321,13 +12321,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.156849148622487</v>
+        <v>0.1516718373204449</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12353,13 +12353,13 @@
         <v>99</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.15237710864056714</v>
+        <v>0.19607575719972248</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12385,13 +12385,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.16370277058553859</v>
+        <v>0.16513303452767722</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12417,13 +12417,13 @@
         <v>99</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.19562028903692719</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12449,13 +12449,13 @@
         <v>99</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D181" s="4">
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.16891764627214115</v>
+        <v>0.19113510152041108</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12577,7 +12577,7 @@
         <v>127</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D185" s="4">
         <v>2016</v>
@@ -12609,7 +12609,7 @@
         <v>127</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D186" s="3">
         <v>2016</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE9F100-849B-4B96-9622-49A197D84ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9EC2FF9-58DA-454F-AD1D-C572F4C08FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{2089E6F7-8CB8-434D-8CBB-3B82861C2E5E}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{BF132AE2-FB3F-41E9-AD87-078A86E49B77}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,30 +124,30 @@
     <t>e_CH30-380</t>
   </si>
   <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
     <t>e_w212722603-220</t>
   </si>
   <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
     <t>e_CH45-220</t>
   </si>
   <si>
     <t>e_CH51-220</t>
   </si>
   <si>
-    <t>e_CH50-220</t>
+    <t>e_CH46-220</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
     <t>e_CH17-380</t>
   </si>
   <si>
@@ -346,90 +346,90 @@
     <t>elc_spv-CHE_0017</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0007</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0014</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0022</t>
   </si>
   <si>
     <t>elc_spv-CHE_0001</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
   </si>
   <si>
     <t>elc_spv-CHE_0009</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0020</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0011</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0006</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
@@ -487,18 +487,18 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
   </si>
   <si>
@@ -664,79 +664,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1016,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DB24B5-4AA8-B2E6-15AD-8930B8B2700C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950F32C7-CFB9-AD44-5B3B-1DE858D6D656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FA5044-0B08-026F-A3FD-374F6034E15A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941F0DE8-026C-EDE5-8C7E-2FDBE6F49C32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCB9FEB-75EC-E6B5-9F7E-FDE73512232D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D7C54B-4466-8E17-F3FB-A2E3938D2815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0C3ADF-2E2D-4B9B-B282-38A2C88D452F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34D9E1E-1AC6-42D0-BCAA-5A95778915E8}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4462,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8E785D-8466-483E-8741-FBC04A9F6621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5355EBAA-3758-4C1A-9972-B32BFD3B136D}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4784,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0186BE8F-AC20-4E71-A63D-F2BD3647C1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D26267-3CC1-417F-A186-BD228DFE90C7}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5431,7 +5431,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5484,7 +5484,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5637,7 +5637,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5743,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5849,25 +5849,25 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3">
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>9.4137044120556748E-2</v>
+        <v>1.5086064762909735E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H22" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I22" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -5908,19 +5908,19 @@
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>1.8706720306008073E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H23" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I23" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
@@ -5955,13 +5955,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>1.5790081118512187E-2</v>
+        <v>2.5445162566774423E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -6008,13 +6008,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>1.3577458286618762E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -6061,13 +6061,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>3.992778473916777E-2</v>
+        <v>1.8706720306008073E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -6114,25 +6114,25 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>1.5086064762909735E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H27" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I27" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J27" s="4">
         <v>100</v>
@@ -6173,19 +6173,19 @@
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>7.2111389566708539E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H28" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I28" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J28" s="3">
         <v>100</v>
@@ -6220,25 +6220,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>6.034425905163894E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H29" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I29" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J29" s="4">
         <v>100</v>
@@ -6273,25 +6273,25 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>2.5445162566774423E-2</v>
+        <v>7.1608520741278214E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H30" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I30" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J30" s="3">
         <v>100</v>
@@ -6326,25 +6326,25 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>2.6450900217635069E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H31" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I31" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J31" s="4">
         <v>100</v>
@@ -6379,25 +6379,25 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>7.1608520741278214E-2</v>
+        <v>3.8218030732704661E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I32" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6432,19 +6432,19 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>3.8218030732704661E-2</v>
+        <v>3.992778473916777E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <v>3712.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H33" s="4">
         <v>71.5</v>
@@ -6485,25 +6485,25 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>0.30664940974741184</v>
+        <v>0.17932302314845372</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>2750</v>
+        <v>3162.5</v>
       </c>
       <c r="H34" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I34" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J34" s="3">
         <v>100</v>
@@ -6538,22 +6538,22 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.17932302314845372</v>
+        <v>0.17017081052562183</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>3162.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H35" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I35" s="4">
         <v>2.3100000000000005</v>
@@ -6591,25 +6591,25 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.17017081052562183</v>
+        <v>0.30664940974741184</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H36" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I36" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J36" s="3">
         <v>100</v>
@@ -6803,7 +6803,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3">
         <v>1962</v>
@@ -6909,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="3">
         <v>1959</v>
@@ -7068,7 +7068,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="4">
         <v>1969</v>
@@ -7121,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7333,7 +7333,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D50" s="3">
         <v>1965</v>
@@ -7757,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3">
         <v>1976</v>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="4">
         <v>1910</v>
@@ -7916,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D61" s="4">
         <v>1966</v>
@@ -8022,7 +8022,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="4">
         <v>1970</v>
@@ -8128,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="4">
         <v>1958</v>
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="3">
         <v>1961</v>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="4">
         <v>1965</v>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D72" s="3">
         <v>1953</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="4">
         <v>1943</v>
@@ -8764,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="4">
         <v>1958</v>
@@ -9559,13 +9559,13 @@
         <v>22</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D92" s="3">
         <v>1920</v>
       </c>
       <c r="E92" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I92" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J92" s="3">
         <v>135</v>
@@ -9612,13 +9612,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D93" s="4">
         <v>1920</v>
       </c>
       <c r="E93" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -9630,7 +9630,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I93" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J93" s="4">
         <v>135</v>
@@ -9665,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" s="3">
         <v>1925</v>
@@ -9793,25 +9793,25 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D98" s="3">
         <v>1952</v>
       </c>
       <c r="E98" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H98" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I98" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J98" s="3">
         <v>103</v>
@@ -9825,25 +9825,25 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
       </c>
       <c r="E99" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H99" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I99" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J99" s="4">
         <v>103</v>
@@ -9857,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="3">
         <v>1958</v>
@@ -9889,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" s="4">
         <v>1959</v>
@@ -9985,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="3">
         <v>1975</v>
@@ -10215,7 +10215,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10247,7 +10247,7 @@
         <v>2011</v>
       </c>
       <c r="E112" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10401,19 +10401,19 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
       </c>
       <c r="E117" s="4">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H117" s="4">
         <v>21.450000000000003</v>
@@ -10433,13 +10433,13 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D118" s="3">
         <v>2012</v>
       </c>
       <c r="E118" s="3">
-        <v>1E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10465,13 +10465,13 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D119" s="4">
         <v>2012</v>
       </c>
       <c r="E119" s="4">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10497,13 +10497,13 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D120" s="3">
         <v>2012</v>
       </c>
       <c r="E120" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10529,7 +10529,7 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
@@ -10561,13 +10561,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10593,13 +10593,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1.5E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10625,19 +10625,19 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H124" s="3">
         <v>21.450000000000003</v>
@@ -10657,13 +10657,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10689,13 +10689,13 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -10721,13 +10721,13 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>2.5999999999999994E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10753,7 +10753,7 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
@@ -10785,7 +10785,7 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
@@ -10817,13 +10817,13 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10849,22 +10849,22 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
       </c>
       <c r="E131" s="4">
-        <v>1E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
       </c>
       <c r="G131" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H131" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -10881,13 +10881,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
       </c>
       <c r="E132" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10913,22 +10913,22 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>2.4400000000000005E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
       </c>
       <c r="G133" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H133" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -10977,13 +10977,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -11009,13 +11009,13 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -11041,13 +11041,13 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -11105,13 +11105,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11120,7 +11120,7 @@
         <v>1336.5</v>
       </c>
       <c r="H139" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I139" s="4">
         <v>0</v>
@@ -11137,13 +11137,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11152,7 +11152,7 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -11201,13 +11201,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>1336.5</v>
       </c>
       <c r="H142" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -11233,13 +11233,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11248,7 +11248,7 @@
         <v>1336.5</v>
       </c>
       <c r="H143" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I143" s="4">
         <v>0</v>
@@ -11265,13 +11265,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11297,13 +11297,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>3.8E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11312,7 +11312,7 @@
         <v>1336.5</v>
       </c>
       <c r="H145" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I145" s="4">
         <v>0</v>
@@ -11329,13 +11329,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11361,13 +11361,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
       </c>
       <c r="E147" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11376,7 +11376,7 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
@@ -11425,13 +11425,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11457,13 +11457,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11521,13 +11521,13 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
       </c>
       <c r="E152" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11536,7 +11536,7 @@
         <v>1336.5</v>
       </c>
       <c r="H152" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
@@ -11553,13 +11553,13 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
       </c>
       <c r="E153" s="4">
-        <v>1.4E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11585,13 +11585,13 @@
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D154" s="3">
         <v>2016</v>
       </c>
       <c r="E154" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>1336.5</v>
       </c>
       <c r="H154" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I154" s="3">
         <v>0</v>
@@ -11617,13 +11617,13 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
       </c>
       <c r="E155" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11649,7 +11649,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D156" s="3">
         <v>2021</v>
@@ -11681,13 +11681,13 @@
         <v>99</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.15348244065625796</v>
+        <v>0.19113510152041108</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11713,13 +11713,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.13455092994741213</v>
+        <v>0.18104249049863588</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11745,13 +11745,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.156849148622487</v>
+        <v>0.16096432695108279</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11777,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.15237710864056714</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11809,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.21232141441249713</v>
+        <v>0.16452449149779813</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11847,7 +11847,7 @@
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.16452449149779813</v>
+        <v>0.13557174209784201</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11873,13 +11873,13 @@
         <v>99</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.13557174209784201</v>
+        <v>0.2148926965356589</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11905,13 +11905,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.2148926965356589</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11937,13 +11937,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.15120603895189552</v>
+        <v>0.13455092994741213</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11969,13 +11969,13 @@
         <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D166" s="3">
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.20916506699980644</v>
+        <v>0.156849148622487</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12001,13 +12001,13 @@
         <v>99</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D167" s="4">
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.1986733343920766</v>
+        <v>0.15237710864056714</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12033,13 +12033,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.16370277058553859</v>
+        <v>0.1516718373204449</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12065,13 +12065,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.19094540137838087</v>
+        <v>0.19607575719972248</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12097,13 +12097,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.17086629872121376</v>
+        <v>0.19094540137838087</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12129,13 +12129,13 @@
         <v>99</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.16891764627214115</v>
+        <v>0.17086629872121376</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12161,13 +12161,13 @@
         <v>99</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D172" s="3">
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.15972751958943046</v>
+        <v>0.16891764627214115</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.19396276056819794</v>
+        <v>0.15972751958943046</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12257,13 +12257,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.16096432695108279</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12289,13 +12289,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.18104249049863588</v>
+        <v>0.16513303452767722</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12321,13 +12321,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.1516718373204449</v>
+        <v>0.15120603895189552</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12353,13 +12353,13 @@
         <v>99</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.19607575719972248</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12385,13 +12385,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.16513303452767722</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12417,13 +12417,13 @@
         <v>99</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.20842035307589579</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12449,13 +12449,13 @@
         <v>99</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D181" s="4">
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.19113510152041108</v>
+        <v>0.19396276056819794</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12577,7 +12577,7 @@
         <v>127</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D185" s="4">
         <v>2016</v>
@@ -12609,7 +12609,7 @@
         <v>127</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D186" s="3">
         <v>2016</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9EC2FF9-58DA-454F-AD1D-C572F4C08FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A482F3-78C1-49C7-90C9-300D2E2E38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{BF132AE2-FB3F-41E9-AD87-078A86E49B77}"/>
+    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{A302FEB1-FB15-4BFA-B1DA-E1DECE65AFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -133,24 +133,24 @@
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
     <t>e_CH50-220</t>
   </si>
   <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
     <t>e_CH45-220</t>
   </si>
   <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
     <t>e_CH46-220</t>
   </si>
   <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
@@ -346,90 +346,90 @@
     <t>elc_spv-CHE_0017</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>elc_spv-CHE_0004</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0014</t>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
   </si>
   <si>
     <t>elc_spv-CHE_0000</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0021</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0011</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
+    <t>elc_spv-CHE_0019</t>
   </si>
   <si>
     <t>elc_spv-CHE_0023</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0006</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0010</t>
   </si>
   <si>
-    <t>elc_won-CHE_0006</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -667,76 +667,76 @@
     <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1016,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950F32C7-CFB9-AD44-5B3B-1DE858D6D656}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FF4F31-6F53-D702-FF56-D85316C52F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941F0DE8-026C-EDE5-8C7E-2FDBE6F49C32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6644E12C-85C4-7DEF-A6A4-FD36E11FB5E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D7C54B-4466-8E17-F3FB-A2E3938D2815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84DB5DA-24A7-C82E-2DAF-30B8EBB89CC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34D9E1E-1AC6-42D0-BCAA-5A95778915E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73BA9D6-ABCF-4FD1-B639-BFE4B12F17DB}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4462,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5355EBAA-3758-4C1A-9972-B32BFD3B136D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D1197D-6460-40CC-977F-6BCD4CCFBBEF}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4784,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D26267-3CC1-417F-A186-BD228DFE90C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB74A6B-6075-4C12-9B5A-342C52E0C354}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5908,19 +5908,19 @@
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>7.2111389566708539E-2</v>
+        <v>3.8218030732704661E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H23" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I23" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
@@ -5955,25 +5955,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>2.5445162566774423E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I24" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -6008,25 +6008,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>2.6450900217635069E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I25" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -6061,25 +6061,25 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>1.8706720306008073E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H26" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I26" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -6114,25 +6114,25 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>9.4137044120556748E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H27" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I27" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J27" s="4">
         <v>100</v>
@@ -6167,13 +6167,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>1.5790081118512187E-2</v>
+        <v>2.5445162566774423E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -6220,13 +6220,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>1.3577458286618762E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -6273,25 +6273,25 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>7.1608520741278214E-2</v>
+        <v>1.8706720306008073E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H30" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I30" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J30" s="3">
         <v>100</v>
@@ -6326,25 +6326,25 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>6.034425905163894E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H31" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I31" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J31" s="4">
         <v>100</v>
@@ -6385,19 +6385,19 @@
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>3.8218030732704661E-2</v>
+        <v>7.1608520741278214E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I32" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6909,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" s="3">
         <v>1959</v>
@@ -7068,7 +7068,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4">
         <v>1969</v>
@@ -7121,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7333,7 +7333,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="3">
         <v>1965</v>
@@ -7916,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="4">
         <v>1966</v>
@@ -8022,7 +8022,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D63" s="4">
         <v>1970</v>
@@ -8181,7 +8181,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D66" s="3">
         <v>1978</v>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D69" s="4">
         <v>1965</v>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" s="3">
         <v>1953</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" s="4">
         <v>1943</v>
@@ -9135,7 +9135,7 @@
         <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D84" s="3">
         <v>1977</v>
@@ -9559,13 +9559,13 @@
         <v>22</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D92" s="3">
         <v>1920</v>
       </c>
       <c r="E92" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I92" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J92" s="3">
         <v>135</v>
@@ -9612,13 +9612,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
         <v>1920</v>
       </c>
       <c r="E93" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -9630,7 +9630,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I93" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J93" s="4">
         <v>135</v>
@@ -9665,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" s="3">
         <v>1925</v>
@@ -9825,7 +9825,7 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
@@ -9857,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D100" s="3">
         <v>1958</v>
@@ -9889,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D101" s="4">
         <v>1959</v>
@@ -9985,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D104" s="3">
         <v>1975</v>
@@ -10215,7 +10215,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10247,7 +10247,7 @@
         <v>2011</v>
       </c>
       <c r="E112" s="3">
-        <v>1E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10256,7 +10256,7 @@
         <v>1336.5</v>
       </c>
       <c r="H112" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I112" s="3">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>2011</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>2011</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10343,7 +10343,7 @@
         <v>2011</v>
       </c>
       <c r="E115" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>2011</v>
       </c>
       <c r="E116" s="3">
-        <v>2.8E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10384,7 +10384,7 @@
         <v>1336.5</v>
       </c>
       <c r="H116" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
@@ -10439,13 +10439,13 @@
         <v>2012</v>
       </c>
       <c r="E118" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -10465,13 +10465,13 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D119" s="4">
         <v>2012</v>
       </c>
       <c r="E119" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10497,13 +10497,13 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D120" s="3">
         <v>2012</v>
       </c>
       <c r="E120" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10529,19 +10529,19 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H121" s="4">
         <v>21.450000000000003</v>
@@ -10561,7 +10561,7 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
@@ -10593,7 +10593,7 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
@@ -10625,19 +10625,19 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H124" s="3">
         <v>21.450000000000003</v>
@@ -10657,13 +10657,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>2.5999999999999994E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10689,19 +10689,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10721,13 +10721,13 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>1E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10753,13 +10753,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>2E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10791,13 +10791,13 @@
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10823,7 +10823,7 @@
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10849,22 +10849,22 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
       </c>
       <c r="E131" s="4">
-        <v>2.4400000000000005E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
       </c>
       <c r="G131" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H131" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -10881,13 +10881,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
       </c>
       <c r="E132" s="3">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10913,13 +10913,13 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10945,22 +10945,22 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H134" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
@@ -10977,7 +10977,7 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
@@ -11009,7 +11009,7 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
@@ -11041,13 +11041,13 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -11073,7 +11073,7 @@
         <v>99</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D138" s="3">
         <v>2014</v>
@@ -11105,13 +11105,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11120,7 +11120,7 @@
         <v>1336.5</v>
       </c>
       <c r="H139" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I139" s="4">
         <v>0</v>
@@ -11137,13 +11137,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11152,7 +11152,7 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -11169,13 +11169,13 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11201,13 +11201,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11233,13 +11233,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>1E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11265,13 +11265,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11297,13 +11297,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11312,7 +11312,7 @@
         <v>1336.5</v>
       </c>
       <c r="H145" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I145" s="4">
         <v>0</v>
@@ -11329,13 +11329,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11344,7 +11344,7 @@
         <v>1336.5</v>
       </c>
       <c r="H146" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I146" s="3">
         <v>0</v>
@@ -11361,13 +11361,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
       </c>
       <c r="E147" s="4">
-        <v>3.8E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11376,7 +11376,7 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
@@ -11425,13 +11425,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11457,7 +11457,7 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
@@ -11489,7 +11489,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11521,13 +11521,13 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
       </c>
       <c r="E152" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11536,7 +11536,7 @@
         <v>1336.5</v>
       </c>
       <c r="H152" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
@@ -11553,7 +11553,7 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
@@ -11585,13 +11585,13 @@
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D154" s="3">
         <v>2016</v>
       </c>
       <c r="E154" s="3">
-        <v>1.4E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>1336.5</v>
       </c>
       <c r="H154" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I154" s="3">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
@@ -11649,7 +11649,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D156" s="3">
         <v>2021</v>
@@ -11687,7 +11687,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.19113510152041108</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11713,13 +11713,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.18104249049863588</v>
+        <v>0.16452449149779813</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11745,13 +11745,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.16096432695108279</v>
+        <v>0.13557174209784201</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11777,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.21232141441249713</v>
+        <v>0.2148926965356589</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11809,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.16452449149779813</v>
+        <v>0.15120603895189552</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11841,13 +11841,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.13557174209784201</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11873,13 +11873,13 @@
         <v>99</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.2148926965356589</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11905,13 +11905,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.20842035307589579</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11937,13 +11937,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.13455092994741213</v>
+        <v>0.19562028903692719</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11969,13 +11969,13 @@
         <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D166" s="3">
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.156849148622487</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12001,13 +12001,13 @@
         <v>99</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D167" s="4">
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.15237710864056714</v>
+        <v>0.18104249049863588</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12033,13 +12033,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.1516718373204449</v>
+        <v>0.16096432695108279</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12065,13 +12065,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.19607575719972248</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12097,13 +12097,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.19094540137838087</v>
+        <v>0.16513303452767722</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12129,13 +12129,13 @@
         <v>99</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.17086629872121376</v>
+        <v>0.13455092994741213</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12161,13 +12161,13 @@
         <v>99</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D172" s="3">
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.16891764627214115</v>
+        <v>0.156849148622487</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.15972751958943046</v>
+        <v>0.15237710864056714</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12225,13 +12225,13 @@
         <v>99</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.19562028903692719</v>
+        <v>0.19607575719972248</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12257,13 +12257,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.16370277058553859</v>
+        <v>0.19094540137838087</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12289,13 +12289,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.16513303452767722</v>
+        <v>0.17086629872121376</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12321,13 +12321,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.15120603895189552</v>
+        <v>0.16891764627214115</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12353,13 +12353,13 @@
         <v>99</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.20916506699980644</v>
+        <v>0.15972751958943046</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12385,13 +12385,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.1986733343920766</v>
+        <v>0.19396276056819794</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12417,13 +12417,13 @@
         <v>99</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.15348244065625796</v>
+        <v>0.19113510152041108</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12455,7 +12455,7 @@
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.19396276056819794</v>
+        <v>0.1516718373204449</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A482F3-78C1-49C7-90C9-300D2E2E38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1A0C5E-7DA8-462E-8E3A-CFD29AE2085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{A302FEB1-FB15-4BFA-B1DA-E1DECE65AFCD}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{7D4DC14C-EB38-4F0E-85BC-E9CC6A3AA008}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,33 +124,33 @@
     <t>e_CH30-380</t>
   </si>
   <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
     <t>e_CH17-380</t>
   </si>
   <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
     <t>e_CH50-220</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
@@ -346,78 +346,78 @@
     <t>elc_spv-CHE_0017</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0007</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
+    <t>elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
   </si>
   <si>
     <t>elc_spv-CHE_0022</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0024</t>
   </si>
   <si>
     <t>elc_spv-CHE_0025</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0020</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
@@ -490,18 +490,18 @@
     <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -664,79 +664,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1016,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FF4F31-6F53-D702-FF56-D85316C52F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C39DFE-968F-6033-A31C-E7CD0676D6A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6644E12C-85C4-7DEF-A6A4-FD36E11FB5E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A93A3C3-1A83-DB90-E22B-5126C0EF3239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84DB5DA-24A7-C82E-2DAF-30B8EBB89CC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4238E87F-EC3B-2BFB-1F1C-94ED66F72045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73BA9D6-ABCF-4FD1-B639-BFE4B12F17DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292FF848-F82D-4896-98F1-15635A798449}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4462,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D1197D-6460-40CC-977F-6BCD4CCFBBEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11C82C-61AD-4B29-A3A1-F60F55F97C89}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4784,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB74A6B-6075-4C12-9B5A-342C52E0C354}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5512BFD-D131-4E6F-9013-2F3F5473C09F}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5431,7 +5431,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5484,7 +5484,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5637,7 +5637,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5743,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5849,13 +5849,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3">
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>1.5086064762909735E-2</v>
+        <v>3.8218030732704661E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -5902,13 +5902,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>3.8218030732704661E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -5955,25 +5955,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>7.2111389566708539E-2</v>
+        <v>2.5445162566774423E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I24" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -6008,25 +6008,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>6.034425905163894E-2</v>
+        <v>1.8706720306008073E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H25" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I25" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -6061,13 +6061,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>9.4137044120556748E-2</v>
+        <v>7.1608520741278214E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -6114,13 +6114,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>1.5790081118512187E-2</v>
+        <v>1.5086064762909735E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -6167,25 +6167,25 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>2.5445162566774423E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H28" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I28" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J28" s="3">
         <v>100</v>
@@ -6220,13 +6220,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>2.6450900217635069E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -6273,13 +6273,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>1.8706720306008073E-2</v>
+        <v>3.992778473916777E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -6326,25 +6326,25 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>1.3577458286618762E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H31" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I31" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J31" s="4">
         <v>100</v>
@@ -6385,7 +6385,7 @@
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>7.1608520741278214E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -6432,19 +6432,19 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>3.992778473916777E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <v>3712.5</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H33" s="4">
         <v>71.5</v>
@@ -6591,25 +6591,25 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.30664940974741184</v>
+        <v>0.12340400976060163</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H36" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I36" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J36" s="3">
         <v>100</v>
@@ -6644,25 +6644,25 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.12340400976060163</v>
+        <v>0.30664940974741184</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H37" s="4">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I37" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J37" s="4">
         <v>100</v>
@@ -6803,7 +6803,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3">
         <v>1962</v>
@@ -6909,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>1959</v>
@@ -7068,7 +7068,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D45" s="4">
         <v>1969</v>
@@ -7121,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7333,7 +7333,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D50" s="3">
         <v>1965</v>
@@ -7757,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="3">
         <v>1976</v>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4">
         <v>1910</v>
@@ -7916,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D61" s="4">
         <v>1966</v>
@@ -8022,7 +8022,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D63" s="4">
         <v>1970</v>
@@ -8128,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="4">
         <v>1958</v>
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3">
         <v>1961</v>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D69" s="4">
         <v>1965</v>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D72" s="3">
         <v>1953</v>
@@ -8764,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4">
         <v>1958</v>
@@ -9559,13 +9559,13 @@
         <v>22</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D92" s="3">
         <v>1920</v>
       </c>
       <c r="E92" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I92" s="3">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J92" s="3">
         <v>135</v>
@@ -9612,13 +9612,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D93" s="4">
         <v>1920</v>
       </c>
       <c r="E93" s="4">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -9630,7 +9630,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I93" s="4">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J93" s="4">
         <v>135</v>
@@ -9793,25 +9793,25 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D98" s="3">
         <v>1952</v>
       </c>
       <c r="E98" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H98" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I98" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J98" s="3">
         <v>103</v>
@@ -9825,25 +9825,25 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
       </c>
       <c r="E99" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H99" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I99" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J99" s="4">
         <v>103</v>
@@ -9857,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D100" s="3">
         <v>1958</v>
@@ -9889,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D101" s="4">
         <v>1959</v>
@@ -9985,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D104" s="3">
         <v>1975</v>
@@ -10215,7 +10215,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>2011</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10343,7 +10343,7 @@
         <v>2011</v>
       </c>
       <c r="E115" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10401,13 +10401,13 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
       </c>
       <c r="E117" s="4">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10433,19 +10433,19 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D118" s="3">
         <v>2012</v>
       </c>
       <c r="E118" s="3">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -10465,7 +10465,7 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D119" s="4">
         <v>2012</v>
@@ -10529,13 +10529,13 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10561,13 +10561,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>1.5E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10593,13 +10593,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>2.7000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10631,13 +10631,13 @@
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H124" s="3">
         <v>21.450000000000003</v>
@@ -10663,7 +10663,7 @@
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>2E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10689,19 +10689,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10721,13 +10721,13 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10753,13 +10753,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10791,13 +10791,13 @@
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10823,13 +10823,13 @@
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H130" s="3">
         <v>21.450000000000003</v>
@@ -10849,13 +10849,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
       </c>
       <c r="E131" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10881,13 +10881,13 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
       </c>
       <c r="E132" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -10913,13 +10913,13 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10945,22 +10945,22 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>2.4400000000000005E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H134" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
@@ -10977,13 +10977,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -11009,7 +11009,7 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
@@ -11041,22 +11041,22 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>1E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
       </c>
       <c r="G137" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H137" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I137" s="4">
         <v>0</v>
@@ -11105,13 +11105,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11143,7 +11143,7 @@
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11152,7 +11152,7 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -11169,13 +11169,13 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11184,7 +11184,7 @@
         <v>1336.5</v>
       </c>
       <c r="H141" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I141" s="4">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
@@ -11233,7 +11233,7 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
@@ -11265,13 +11265,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11297,13 +11297,13 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>3.8E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11312,7 +11312,7 @@
         <v>1336.5</v>
       </c>
       <c r="H145" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I145" s="4">
         <v>0</v>
@@ -11329,13 +11329,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11344,7 +11344,7 @@
         <v>1336.5</v>
       </c>
       <c r="H146" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I146" s="3">
         <v>0</v>
@@ -11361,13 +11361,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
       </c>
       <c r="E147" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11376,7 +11376,7 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.45</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11408,7 +11408,7 @@
         <v>1336.5</v>
       </c>
       <c r="H148" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
@@ -11425,13 +11425,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>1.4E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11440,7 +11440,7 @@
         <v>1336.5</v>
       </c>
       <c r="H149" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I149" s="4">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11521,13 +11521,13 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
       </c>
       <c r="E152" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11536,7 +11536,7 @@
         <v>1336.5</v>
       </c>
       <c r="H152" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
@@ -11553,13 +11553,13 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
       </c>
       <c r="E153" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11585,13 +11585,13 @@
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D154" s="3">
         <v>2016</v>
       </c>
       <c r="E154" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>1336.5</v>
       </c>
       <c r="H154" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I154" s="3">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
@@ -11649,7 +11649,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D156" s="3">
         <v>2021</v>
@@ -11681,13 +11681,13 @@
         <v>99</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.21232141441249713</v>
+        <v>0.16513303452767722</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11719,7 +11719,7 @@
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.16452449149779813</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11751,7 +11751,7 @@
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.13557174209784201</v>
+        <v>0.16096432695108279</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11777,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.2148926965356589</v>
+        <v>0.1516718373204449</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11809,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.15120603895189552</v>
+        <v>0.19607575719972248</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11841,13 +11841,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.20916506699980644</v>
+        <v>0.19113510152041108</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11873,13 +11873,13 @@
         <v>99</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.1986733343920766</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11905,13 +11905,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.15348244065625796</v>
+        <v>0.15120603895189552</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11937,13 +11937,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.19562028903692719</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11969,13 +11969,13 @@
         <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D166" s="3">
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.20842035307589579</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12001,13 +12001,13 @@
         <v>99</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D167" s="4">
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.18104249049863588</v>
+        <v>0.13455092994741213</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12033,13 +12033,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.16096432695108279</v>
+        <v>0.156849148622487</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12065,13 +12065,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.16370277058553859</v>
+        <v>0.15237710864056714</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12097,13 +12097,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.16513303452767722</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12129,13 +12129,13 @@
         <v>99</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.13455092994741213</v>
+        <v>0.16452449149779813</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12161,13 +12161,13 @@
         <v>99</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D172" s="3">
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.156849148622487</v>
+        <v>0.13557174209784201</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.15237710864056714</v>
+        <v>0.2148926965356589</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12225,13 +12225,13 @@
         <v>99</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.19607575719972248</v>
+        <v>0.19094540137838087</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12257,13 +12257,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.19094540137838087</v>
+        <v>0.17086629872121376</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12289,13 +12289,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.17086629872121376</v>
+        <v>0.16891764627214115</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12321,13 +12321,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.16891764627214115</v>
+        <v>0.15972751958943046</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12353,13 +12353,13 @@
         <v>99</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.15972751958943046</v>
+        <v>0.19396276056819794</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12385,13 +12385,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.19396276056819794</v>
+        <v>0.18104249049863588</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12417,13 +12417,13 @@
         <v>99</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.19113510152041108</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12449,13 +12449,13 @@
         <v>99</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D181" s="4">
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.1516718373204449</v>
+        <v>0.19562028903692719</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -12577,7 +12577,7 @@
         <v>127</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D185" s="4">
         <v>2016</v>
@@ -12609,7 +12609,7 @@
         <v>127</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D186" s="3">
         <v>2016</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1A0C5E-7DA8-462E-8E3A-CFD29AE2085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3189DF41-A842-4851-B7EC-C5F1E7AECBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{7D4DC14C-EB38-4F0E-85BC-E9CC6A3AA008}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{85271D15-4EFE-4A00-8BEE-8628464A4003}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,33 +124,33 @@
     <t>e_CH30-380</t>
   </si>
   <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
     <t>e_w212722603-220</t>
   </si>
   <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
     <t>e_CH17-380</t>
   </si>
   <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
     <t>e_CH51-220</t>
   </si>
   <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
@@ -346,51 +346,51 @@
     <t>elc_spv-CHE_0017</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0018</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0007</t>
+    <t>elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0009</t>
   </si>
   <si>
     <t>elc_spv-CHE_0001</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0010</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
@@ -400,24 +400,24 @@
     <t>elc_spv-CHE_0019</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0011</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0023</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
@@ -433,12 +433,12 @@
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
+    <t>elc_won-CHE_0002</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0001</t>
   </si>
   <si>
-    <t>elc_won-CHE_0002</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -664,79 +664,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1016,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C39DFE-968F-6033-A31C-E7CD0676D6A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D613098C-85F8-D046-A497-4C0B31822E77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A93A3C3-1A83-DB90-E22B-5126C0EF3239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42A5BB6-5990-4ABD-228F-16739AF4F7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4238E87F-EC3B-2BFB-1F1C-94ED66F72045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B841244-5F57-B2A9-2C17-B0025B68F12D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292FF848-F82D-4896-98F1-15635A798449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774FE3D8-4742-4AFE-B0C5-65177232A87D}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4462,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11C82C-61AD-4B29-A3A1-F60F55F97C89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A79AA4-8B8D-4279-99CD-48C0626C9A81}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4784,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5512BFD-D131-4E6F-9013-2F3F5473C09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3E15A8-C79C-4C38-9C01-B27CA1A4FBB8}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5431,7 +5431,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5484,7 +5484,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5637,7 +5637,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5743,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5855,13 +5855,13 @@
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>3.8218030732704661E-2</v>
+        <v>1.8706720306008073E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3712.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H22" s="3">
         <v>71.5</v>
@@ -5902,19 +5902,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>1.3577458286618762E-2</v>
+        <v>3.992778473916777E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3712.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H23" s="4">
         <v>71.5</v>
@@ -5955,25 +5955,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>2.5445162566774423E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I24" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -6008,25 +6008,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>1.8706720306008073E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I25" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -6061,7 +6061,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
@@ -6114,13 +6114,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>1.5086064762909735E-2</v>
+        <v>2.5445162566774423E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -6167,25 +6167,25 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>9.4137044120556748E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H28" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I28" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J28" s="3">
         <v>100</v>
@@ -6220,13 +6220,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>1.5790081118512187E-2</v>
+        <v>3.8218030732704661E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -6273,19 +6273,19 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>3.992778473916777E-2</v>
+        <v>1.5086064762909735E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3712.5</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H30" s="3">
         <v>71.5</v>
@@ -6326,13 +6326,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>7.2111389566708539E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -6385,19 +6385,19 @@
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>6.034425905163894E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I32" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6432,13 +6432,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>2.6450900217635069E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -6485,22 +6485,22 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>0.17932302314845372</v>
+        <v>0.12340400976060163</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>3162.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H34" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I34" s="3">
         <v>2.3100000000000005</v>
@@ -6538,22 +6538,22 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.17017081052562183</v>
+        <v>0.17932302314845372</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>3162.5000000000005</v>
+        <v>3162.5</v>
       </c>
       <c r="H35" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I35" s="4">
         <v>2.3100000000000005</v>
@@ -6591,13 +6591,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.12340400976060163</v>
+        <v>0.17017081052562183</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -6644,25 +6644,25 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.30664940974741184</v>
+        <v>0.25404933060739998</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H37" s="4">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I37" s="4">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J37" s="4">
         <v>100</v>
@@ -6697,25 +6697,25 @@
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>0.25404933060739998</v>
+        <v>0.30664940974741184</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H38" s="3">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I38" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J38" s="3">
         <v>100</v>
@@ -6803,7 +6803,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3">
         <v>1962</v>
@@ -6909,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D42" s="3">
         <v>1959</v>
@@ -7068,7 +7068,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="4">
         <v>1969</v>
@@ -7121,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7333,7 +7333,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D50" s="3">
         <v>1965</v>
@@ -7757,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3">
         <v>1976</v>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="4">
         <v>1910</v>
@@ -7916,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D61" s="4">
         <v>1966</v>
@@ -8022,7 +8022,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D63" s="4">
         <v>1970</v>
@@ -8128,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="4">
         <v>1958</v>
@@ -8181,7 +8181,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D66" s="3">
         <v>1978</v>
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="3">
         <v>1961</v>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" s="4">
         <v>1965</v>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D72" s="3">
         <v>1953</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D73" s="4">
         <v>1943</v>
@@ -8764,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="4">
         <v>1958</v>
@@ -9135,7 +9135,7 @@
         <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D84" s="3">
         <v>1977</v>
@@ -9559,13 +9559,13 @@
         <v>22</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D92" s="3">
         <v>1920</v>
       </c>
       <c r="E92" s="3">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I92" s="3">
-        <v>3.1500000000000004</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="J92" s="3">
         <v>135</v>
@@ -9612,13 +9612,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
         <v>1920</v>
       </c>
       <c r="E93" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -9630,7 +9630,7 @@
         <v>78.650000000000006</v>
       </c>
       <c r="I93" s="4">
-        <v>3.1500000000000008</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J93" s="4">
         <v>135</v>
@@ -9665,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D94" s="3">
         <v>1925</v>
@@ -9793,25 +9793,25 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D98" s="3">
         <v>1952</v>
       </c>
       <c r="E98" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H98" s="3">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I98" s="3">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J98" s="3">
         <v>103</v>
@@ -9825,25 +9825,25 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
       </c>
       <c r="E99" s="4">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H99" s="4">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I99" s="4">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J99" s="4">
         <v>103</v>
@@ -9857,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100" s="3">
         <v>1958</v>
@@ -9889,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101" s="4">
         <v>1959</v>
@@ -9985,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" s="3">
         <v>1975</v>
@@ -10215,7 +10215,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10224,7 +10224,7 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -10247,7 +10247,7 @@
         <v>2011</v>
       </c>
       <c r="E112" s="3">
-        <v>2.8E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10256,7 +10256,7 @@
         <v>1336.5</v>
       </c>
       <c r="H112" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I112" s="3">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>2011</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>2011</v>
       </c>
       <c r="E114" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10343,7 +10343,7 @@
         <v>2011</v>
       </c>
       <c r="E115" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>2011</v>
       </c>
       <c r="E116" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10401,13 +10401,13 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
       </c>
       <c r="E117" s="4">
-        <v>1E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10433,19 +10433,19 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D118" s="3">
         <v>2012</v>
       </c>
       <c r="E118" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H118" s="3">
         <v>21.450000000000003</v>
@@ -10465,13 +10465,13 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D119" s="4">
         <v>2012</v>
       </c>
       <c r="E119" s="4">
-        <v>2.5999999999999994E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -10497,13 +10497,13 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D120" s="3">
         <v>2012</v>
       </c>
       <c r="E120" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10529,13 +10529,13 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.5E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -10561,13 +10561,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10593,13 +10593,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10631,7 +10631,7 @@
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10663,7 +10663,7 @@
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10689,19 +10689,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10721,19 +10721,19 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
       </c>
       <c r="G127" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H127" s="4">
         <v>21.450000000000003</v>
@@ -10753,13 +10753,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>2E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10785,7 +10785,7 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
@@ -10817,19 +10817,19 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H130" s="3">
         <v>21.450000000000003</v>
@@ -10849,13 +10849,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
       </c>
       <c r="E131" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10881,22 +10881,22 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
       </c>
       <c r="E132" s="3">
-        <v>1E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H132" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
@@ -10945,13 +10945,13 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -10977,13 +10977,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -11009,13 +11009,13 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -11041,22 +11041,22 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>2.4400000000000005E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
       </c>
       <c r="G137" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H137" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I137" s="4">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>99</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D138" s="3">
         <v>2014</v>
@@ -11105,13 +11105,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11137,13 +11137,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11152,7 +11152,7 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
@@ -11201,13 +11201,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>1E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>1336.5</v>
       </c>
       <c r="H142" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -11233,13 +11233,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11271,7 +11271,7 @@
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11280,7 +11280,7 @@
         <v>1336.5</v>
       </c>
       <c r="H144" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
@@ -11329,13 +11329,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11361,13 +11361,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
       </c>
       <c r="E147" s="4">
-        <v>3.8E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11376,7 +11376,7 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11408,7 +11408,7 @@
         <v>1336.5</v>
       </c>
       <c r="H148" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
@@ -11425,13 +11425,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11440,7 +11440,7 @@
         <v>1336.5</v>
       </c>
       <c r="H149" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I149" s="4">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11521,7 +11521,7 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
@@ -11553,13 +11553,13 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
       </c>
       <c r="E153" s="4">
-        <v>1.4E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11585,7 +11585,7 @@
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D154" s="3">
         <v>2016</v>
@@ -11617,7 +11617,7 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
@@ -11649,7 +11649,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D156" s="3">
         <v>2021</v>
@@ -11681,13 +11681,13 @@
         <v>99</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.16513303452767722</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11713,13 +11713,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.16370277058553859</v>
+        <v>0.19562028903692719</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11745,13 +11745,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.16096432695108279</v>
+        <v>0.1516718373204449</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11777,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.1516718373204449</v>
+        <v>0.19607575719972248</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11809,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.19607575719972248</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11841,13 +11841,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.19113510152041108</v>
+        <v>0.16452449149779813</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11873,13 +11873,13 @@
         <v>99</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D163" s="4">
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.20842035307589579</v>
+        <v>0.13557174209784201</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11905,13 +11905,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.15120603895189552</v>
+        <v>0.2148926965356589</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11937,13 +11937,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.20916506699980644</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11969,13 +11969,13 @@
         <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D166" s="3">
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.1986733343920766</v>
+        <v>0.18104249049863588</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12007,7 +12007,7 @@
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.13455092994741213</v>
+        <v>0.16513303452767722</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12033,13 +12033,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.156849148622487</v>
+        <v>0.19113510152041108</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12065,13 +12065,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.15237710864056714</v>
+        <v>0.15120603895189552</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12097,13 +12097,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.21232141441249713</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12135,7 +12135,7 @@
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.16452449149779813</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12161,13 +12161,13 @@
         <v>99</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D172" s="3">
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.13557174209784201</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.2148926965356589</v>
+        <v>0.13455092994741213</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12225,13 +12225,13 @@
         <v>99</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.19094540137838087</v>
+        <v>0.15237710864056714</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12257,13 +12257,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.17086629872121376</v>
+        <v>0.19094540137838087</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12289,13 +12289,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.16891764627214115</v>
+        <v>0.17086629872121376</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12321,13 +12321,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.15972751958943046</v>
+        <v>0.16891764627214115</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12353,13 +12353,13 @@
         <v>99</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.19396276056819794</v>
+        <v>0.15972751958943046</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12385,13 +12385,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.18104249049863588</v>
+        <v>0.19396276056819794</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12417,13 +12417,13 @@
         <v>99</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.15348244065625796</v>
+        <v>0.16096432695108279</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12449,13 +12449,13 @@
         <v>99</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D181" s="4">
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.19562028903692719</v>
+        <v>0.156849148622487</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3189DF41-A842-4851-B7EC-C5F1E7AECBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB558B1-CC62-4DF5-85B2-4BFD2A3B8606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{85271D15-4EFE-4A00-8BEE-8628464A4003}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{51590CF8-8EC9-4B1D-AB1F-4200A59F329D}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -133,18 +133,18 @@
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
     <t>e_CH45-220</t>
   </si>
   <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
     <t>e_CH17-380</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>ep_hydro_dam_</t>
   </si>
   <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
     <t>e_CH18-220</t>
   </si>
   <si>
-    <t>e_w758943072-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_G100000603509</t>
   </si>
   <si>
@@ -349,96 +349,96 @@
     <t>elc_spv-CHE_0014</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>elc_spv-CHE_0004</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0007</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0013</t>
   </si>
   <si>
     <t>elc_spv-CHE_0018</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0006</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>elc_spv-CHE_0021</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0009</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0001</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0011</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0019</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0025</t>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0023</t>
   </si>
   <si>
     <t>elc_spv-CHE_0020</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
+    <t>elc_won-CHE_0010</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0006</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0016</t>
   </si>
   <si>
+    <t>elc_won-CHE_0001</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0002</t>
   </si>
   <si>
-    <t>elc_won-CHE_0001</t>
-  </si>
-  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -664,19 +664,34 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
@@ -691,52 +706,37 @@
     <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1016,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D613098C-85F8-D046-A497-4C0B31822E77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FFEF24-70F9-53B9-C422-A7F03FEF38CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42A5BB6-5990-4ABD-228F-16739AF4F7F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A33F0-3DD2-A96C-A480-77F609BFE992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B841244-5F57-B2A9-2C17-B0025B68F12D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033A2EC2-0420-B10B-BBD4-72F60E6E5C7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774FE3D8-4742-4AFE-B0C5-65177232A87D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AE8A63-6631-440B-82F8-8FA7957BEF4A}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4462,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A79AA4-8B8D-4279-99CD-48C0626C9A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38BFE64-E82C-43D9-A489-E8BA3B3A2752}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4784,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3E15A8-C79C-4C38-9C01-B27CA1A4FBB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68742378-8075-4E22-9001-D0E887CCD11A}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5855,19 +5855,19 @@
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>1.8706720306008073E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H22" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I22" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -5902,25 +5902,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>3.992778473916777E-2</v>
+        <v>7.1608520741278214E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H23" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I23" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
@@ -5955,13 +5955,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>7.2111389566708539E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -6008,25 +6008,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>6.034425905163894E-2</v>
+        <v>1.5086064762909735E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I25" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -6061,25 +6061,25 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>7.1608520741278214E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H26" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I26" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -6114,19 +6114,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>2.5445162566774423E-2</v>
+        <v>1.8706720306008073E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>3712.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H27" s="4">
         <v>71.5</v>
@@ -6167,13 +6167,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>2.6450900217635069E-2</v>
+        <v>3.8218030732704661E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -6220,19 +6220,19 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>3.8218030732704661E-2</v>
+        <v>3.992778473916777E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3712.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H29" s="4">
         <v>71.5</v>
@@ -6273,13 +6273,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>1.5086064762909735E-2</v>
+        <v>2.5445162566774423E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -6326,25 +6326,25 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>9.4137044120556748E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H31" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I31" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J31" s="4">
         <v>100</v>
@@ -6379,25 +6379,25 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>1.5790081118512187E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I32" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6432,13 +6432,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4">
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>1.3577458286618762E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -6544,16 +6544,16 @@
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.17932302314845372</v>
+        <v>0.25404933060739998</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>3162.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H35" s="4">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I35" s="4">
         <v>2.3100000000000005</v>
@@ -6591,22 +6591,22 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.17017081052562183</v>
+        <v>0.17932302314845372</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>3162.5000000000005</v>
+        <v>3162.5</v>
       </c>
       <c r="H36" s="3">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I36" s="3">
         <v>2.3100000000000005</v>
@@ -6644,13 +6644,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.25404933060739998</v>
+        <v>0.17017081052562183</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -6750,7 +6750,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="4">
         <v>1923</v>
@@ -6909,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="3">
         <v>1959</v>
@@ -6962,7 +6962,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4">
         <v>1999</v>
@@ -7068,7 +7068,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="4">
         <v>1969</v>
@@ -7121,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7227,7 +7227,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="3">
         <v>1957</v>
@@ -7280,7 +7280,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
         <v>1958</v>
@@ -7333,7 +7333,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="3">
         <v>1965</v>
@@ -7704,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" s="4">
         <v>1978</v>
@@ -7863,7 +7863,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D60" s="3">
         <v>1960</v>
@@ -7916,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="4">
         <v>1966</v>
@@ -8075,7 +8075,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" s="3">
         <v>1956</v>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" s="4">
         <v>1965</v>
@@ -8393,7 +8393,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D70" s="3">
         <v>1962</v>
@@ -8446,7 +8446,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D71" s="4">
         <v>1964</v>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="3">
         <v>1953</v>
@@ -9082,7 +9082,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D83" s="4">
         <v>2016</v>
@@ -9241,7 +9241,7 @@
         <v>13</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D86" s="3">
         <v>2009</v>
@@ -9825,7 +9825,7 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
@@ -9857,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" s="3">
         <v>1958</v>
@@ -9889,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D101" s="4">
         <v>1959</v>
@@ -9985,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D104" s="3">
         <v>1975</v>
@@ -10247,7 +10247,7 @@
         <v>2011</v>
       </c>
       <c r="E112" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
@@ -10279,7 +10279,7 @@
         <v>2011</v>
       </c>
       <c r="E113" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10401,7 +10401,7 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
@@ -10471,13 +10471,13 @@
         <v>2012</v>
       </c>
       <c r="E119" s="4">
-        <v>5.8000000000000005E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
       </c>
       <c r="G119" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H119" s="4">
         <v>21.450000000000003</v>
@@ -10503,7 +10503,7 @@
         <v>2012</v>
       </c>
       <c r="E120" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10529,19 +10529,19 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H121" s="4">
         <v>21.450000000000003</v>
@@ -10561,13 +10561,13 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>1.5E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -10593,13 +10593,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10625,13 +10625,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10657,13 +10657,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>2E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10689,19 +10689,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10721,19 +10721,19 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
       </c>
       <c r="G127" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H127" s="4">
         <v>21.450000000000003</v>
@@ -10753,13 +10753,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10785,7 +10785,7 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
@@ -10817,13 +10817,13 @@
         <v>99</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D130" s="3">
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10849,13 +10849,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
       </c>
       <c r="E131" s="4">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10881,22 +10881,22 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
       </c>
       <c r="E132" s="3">
-        <v>2.4400000000000005E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H132" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10945,22 +10945,22 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>1E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H134" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
@@ -10977,13 +10977,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -11009,13 +11009,13 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
@@ -11105,7 +11105,7 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
@@ -11137,7 +11137,7 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
@@ -11169,13 +11169,13 @@
         <v>99</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11184,7 +11184,7 @@
         <v>1336.5</v>
       </c>
       <c r="H141" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I141" s="4">
         <v>0</v>
@@ -11201,13 +11201,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>1336.5</v>
       </c>
       <c r="H142" s="3">
-        <v>21.45</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -11233,13 +11233,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11248,7 +11248,7 @@
         <v>1336.5</v>
       </c>
       <c r="H143" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I143" s="4">
         <v>0</v>
@@ -11265,13 +11265,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>3.8E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11280,7 +11280,7 @@
         <v>1336.5</v>
       </c>
       <c r="H144" s="3">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>99</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
@@ -11329,13 +11329,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11361,13 +11361,13 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
       </c>
       <c r="E147" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -11393,13 +11393,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11408,7 +11408,7 @@
         <v>1336.5</v>
       </c>
       <c r="H148" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
@@ -11425,13 +11425,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11457,13 +11457,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11521,7 +11521,7 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
@@ -11553,7 +11553,7 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
@@ -11585,13 +11585,13 @@
         <v>99</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D154" s="3">
         <v>2016</v>
       </c>
       <c r="E154" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11617,13 +11617,13 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
       </c>
       <c r="E155" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11632,7 +11632,7 @@
         <v>1336.5</v>
       </c>
       <c r="H155" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I155" s="4">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D156" s="3">
         <v>2021</v>
@@ -11687,7 +11687,7 @@
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.16370277058553859</v>
+        <v>0.16452449149779813</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11713,13 +11713,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.19562028903692719</v>
+        <v>0.13557174209784201</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11745,13 +11745,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.1516718373204449</v>
+        <v>0.2148926965356589</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11777,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.19607575719972248</v>
+        <v>0.19562028903692719</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11809,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.21232141441249713</v>
+        <v>0.19113510152041108</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11841,13 +11841,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.16452449149779813</v>
+        <v>0.18104249049863588</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -11879,7 +11879,7 @@
         <v>2022</v>
       </c>
       <c r="E163" s="4">
-        <v>0.13557174209784201</v>
+        <v>0.16096432695108279</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -11905,13 +11905,13 @@
         <v>99</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D164" s="3">
         <v>2022</v>
       </c>
       <c r="E164" s="3">
-        <v>0.2148926965356589</v>
+        <v>0.16513303452767722</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -11937,13 +11937,13 @@
         <v>99</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D165" s="4">
         <v>2022</v>
       </c>
       <c r="E165" s="4">
-        <v>0.15348244065625796</v>
+        <v>0.19094540137838087</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -11969,13 +11969,13 @@
         <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D166" s="3">
         <v>2022</v>
       </c>
       <c r="E166" s="3">
-        <v>0.18104249049863588</v>
+        <v>0.17086629872121376</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -12001,13 +12001,13 @@
         <v>99</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D167" s="4">
         <v>2022</v>
       </c>
       <c r="E167" s="4">
-        <v>0.16513303452767722</v>
+        <v>0.16891764627214115</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -12033,13 +12033,13 @@
         <v>99</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D168" s="3">
         <v>2022</v>
       </c>
       <c r="E168" s="3">
-        <v>0.19113510152041108</v>
+        <v>0.15972751958943046</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -12065,13 +12065,13 @@
         <v>99</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D169" s="4">
         <v>2022</v>
       </c>
       <c r="E169" s="4">
-        <v>0.15120603895189552</v>
+        <v>0.19396276056819794</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -12097,13 +12097,13 @@
         <v>99</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D170" s="3">
         <v>2022</v>
       </c>
       <c r="E170" s="3">
-        <v>0.20916506699980644</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -12129,13 +12129,13 @@
         <v>99</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
       </c>
       <c r="E171" s="4">
-        <v>0.1986733343920766</v>
+        <v>0.15120603895189552</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -12161,13 +12161,13 @@
         <v>99</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D172" s="3">
         <v>2022</v>
       </c>
       <c r="E172" s="3">
-        <v>0.20842035307589579</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>99</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
       </c>
       <c r="E173" s="4">
-        <v>0.13455092994741213</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -12225,13 +12225,13 @@
         <v>99</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>0.15237710864056714</v>
+        <v>0.1516718373204449</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -12257,13 +12257,13 @@
         <v>99</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.19094540137838087</v>
+        <v>0.19607575719972248</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -12289,13 +12289,13 @@
         <v>99</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>0.17086629872121376</v>
+        <v>0.13455092994741213</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -12321,13 +12321,13 @@
         <v>99</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.16891764627214115</v>
+        <v>0.156849148622487</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -12353,13 +12353,13 @@
         <v>99</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D178" s="3">
         <v>2022</v>
       </c>
       <c r="E178" s="3">
-        <v>0.15972751958943046</v>
+        <v>0.15237710864056714</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -12385,13 +12385,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D179" s="4">
         <v>2022</v>
       </c>
       <c r="E179" s="4">
-        <v>0.19396276056819794</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -12417,13 +12417,13 @@
         <v>99</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D180" s="3">
         <v>2022</v>
       </c>
       <c r="E180" s="3">
-        <v>0.16096432695108279</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -12455,7 +12455,7 @@
         <v>2022</v>
       </c>
       <c r="E181" s="4">
-        <v>0.156849148622487</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>

--- a/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
+++ b/VerveStacks_CHE_grids/vt_vervestacks_CHE_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB558B1-CC62-4DF5-85B2-4BFD2A3B8606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE96D5F4-24B3-4F4E-9FE4-CEF51B3DE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{51590CF8-8EC9-4B1D-AB1F-4200A59F329D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C38892C4-B200-47D6-BB11-C594AF9669FC}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -124,33 +124,33 @@
     <t>e_CH30-380</t>
   </si>
   <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
     <t>e_CH21-220</t>
   </si>
   <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
     <t>e_CH50-220</t>
   </si>
   <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
     <t>e_CH46-220</t>
   </si>
   <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
     <t>e_CH17-380</t>
   </si>
   <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
     <t>ep_hydro_dam_</t>
   </si>
   <si>
@@ -346,27 +346,39 @@
     <t>elc_spv-CHE_0017</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0018</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0014</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0007</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>elc_spv-CHE_0004</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0018</t>
+    <t>elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0001</t>
   </si>
   <si>
     <t>elc_spv-CHE_0022</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0010</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0003</t>
   </si>
   <si>
@@ -379,45 +391,33 @@
     <t>elc_spv-CHE_0021</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0001</t>
-  </si>
-  <si>
     <t>elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE_0020</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0024</t>
   </si>
   <si>
     <t>elc_spv-CHE_0025</t>
   </si>
   <si>
+    <t>elc_spv-CHE_0023</t>
+  </si>
+  <si>
     <t>elc_spv-CHE_0011</t>
   </si>
   <si>
-    <t>elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE_0020</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
@@ -487,10 +487,13 @@
     <t>Aggregated Plant - EMBER Gap - CH1-220_Missing Gas Capacity</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CH32-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH18-220_Missing Hydro Capacity</t>
+    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CH19-220_Missing Hydro Capacity</t>
@@ -499,9 +502,6 @@
     <t>Aggregated Plant - IRENA Gap - way/758943072-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - CH48-225_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Amsteg hydroelectric plant_</t>
   </si>
   <si>
@@ -664,79 +664,79 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - CHE_11_Missing Solar Capacity</t>
   </si>
   <si>
     <t>Aggregated Plant - IRENA Gap - CHE_7_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_12_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_17_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_5_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_4_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_8_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_6_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_23_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_13_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_20_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_25_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_22_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_9_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_3_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_24_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_15_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_18_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_2_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_0_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_14_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_10_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_19_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_21_Missing Solar Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - CHE_1_Missing Solar Capacity</t>
   </si>
   <si>
     <t>AF</t>
@@ -1016,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FFEF24-70F9-53B9-C422-A7F03FEF38CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFEB82B-A8B3-4F93-F05F-437CF256219F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A33F0-3DD2-A96C-A480-77F609BFE992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B56716-C20B-6219-BC50-CF69A5A6042E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1126,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033A2EC2-0420-B10B-BBD4-72F60E6E5C7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5527B16-18CB-BC8E-89AB-8F6B7D112BBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AE8A63-6631-440B-82F8-8FA7957BEF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2134151E-CD2C-4091-BB49-CCD9A4180D9F}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4462,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38BFE64-E82C-43D9-A489-E8BA3B3A2752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1039E940-06E8-4856-87CF-20EFF88DFF4E}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4784,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68742378-8075-4E22-9001-D0E887CCD11A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83429958-F57F-4759-9276-E1BA5DD0589F}">
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5431,7 +5431,7 @@
         <v>1957</v>
       </c>
       <c r="E14" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I14" s="3">
         <v>2.3100000000000005</v>
@@ -5484,7 +5484,7 @@
         <v>1957</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I15" s="4">
         <v>2.3100000000000005</v>
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>1958</v>
@@ -5637,7 +5637,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>1992</v>
@@ -5743,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3">
         <v>2014</v>
@@ -5849,25 +5849,25 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3">
         <v>2022</v>
       </c>
       <c r="E22" s="3">
-        <v>7.2111389566708539E-2</v>
+        <v>3.992778473916777E-2</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H22" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I22" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -5902,25 +5902,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4">
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>7.1608520741278214E-2</v>
+        <v>1.8706720306008073E-2</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>3162.5000000000005</v>
+        <v>3712.5</v>
       </c>
       <c r="H23" s="4">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I23" s="4">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
@@ -5955,25 +5955,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3">
         <v>2022</v>
       </c>
       <c r="E24" s="3">
-        <v>6.034425905163894E-2</v>
+        <v>2.5445162566774423E-2</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I24" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -6008,25 +6008,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>1.5086064762909735E-2</v>
+        <v>9.4137044120556748E-2</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H25" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I25" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -6061,13 +6061,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3">
         <v>2022</v>
       </c>
       <c r="E26" s="3">
-        <v>2.6450900217635069E-2</v>
+        <v>1.5790081118512187E-2</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -6114,19 +6114,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>1.8706720306008073E-2</v>
+        <v>1.3577458286618762E-2</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>3712.5</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H27" s="4">
         <v>71.5</v>
@@ -6167,25 +6167,25 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3">
         <v>2022</v>
       </c>
       <c r="E28" s="3">
-        <v>3.8218030732704661E-2</v>
+        <v>7.2111389566708539E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H28" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I28" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J28" s="3">
         <v>100</v>
@@ -6220,25 +6220,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>3.992778473916777E-2</v>
+        <v>6.034425905163894E-2</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>3712.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H29" s="4">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I29" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J29" s="4">
         <v>100</v>
@@ -6273,25 +6273,25 @@
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3">
         <v>2022</v>
       </c>
       <c r="E30" s="3">
-        <v>2.5445162566774423E-2</v>
+        <v>7.1608520741278214E-2</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H30" s="3">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I30" s="3">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J30" s="3">
         <v>100</v>
@@ -6326,13 +6326,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4">
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>1.3577458286618762E-2</v>
+        <v>2.6450900217635069E-2</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -6379,25 +6379,25 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D32" s="3">
         <v>2022</v>
       </c>
       <c r="E32" s="3">
-        <v>9.4137044120556748E-2</v>
+        <v>1.5086064762909735E-2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>60.500000000000014</v>
+        <v>71.5</v>
       </c>
       <c r="I32" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -6438,7 +6438,7 @@
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>1.5790081118512187E-2</v>
+        <v>3.8218030732704661E-2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -6485,13 +6485,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
         <v>2022</v>
       </c>
       <c r="E34" s="3">
-        <v>0.12340400976060163</v>
+        <v>0.25404933060739998</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -6538,13 +6538,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4">
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>0.25404933060739998</v>
+        <v>0.12340400976060163</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -6591,25 +6591,25 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3">
         <v>2022</v>
       </c>
       <c r="E36" s="3">
-        <v>0.17932302314845372</v>
+        <v>0.30664940974741184</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>3162.5</v>
+        <v>2750</v>
       </c>
       <c r="H36" s="3">
-        <v>60.500000000000007</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I36" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J36" s="3">
         <v>100</v>
@@ -6644,22 +6644,22 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>0.17017081052562183</v>
+        <v>0.17932302314845372</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>3162.5000000000005</v>
+        <v>3162.5</v>
       </c>
       <c r="H37" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I37" s="4">
         <v>2.3100000000000005</v>
@@ -6697,25 +6697,25 @@
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D38" s="3">
         <v>2022</v>
       </c>
       <c r="E38" s="3">
-        <v>0.30664940974741184</v>
+        <v>0.17017081052562183</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H38" s="3">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I38" s="3">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J38" s="3">
         <v>100</v>
@@ -6803,7 +6803,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3">
         <v>1962</v>
@@ -6909,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" s="3">
         <v>1959</v>
@@ -7068,7 +7068,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D45" s="4">
         <v>1969</v>
@@ -7121,7 +7121,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D46" s="3">
         <v>1959</v>
@@ -7333,7 +7333,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" s="3">
         <v>1965</v>
@@ -7757,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="3">
         <v>1976</v>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4">
         <v>1910</v>
@@ -7916,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" s="4">
         <v>1966</v>
@@ -8022,7 +8022,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" s="4">
         <v>1970</v>
@@ -8128,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="4">
         <v>1958</v>
@@ -8181,7 +8181,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" s="3">
         <v>1978</v>
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3">
         <v>1961</v>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D69" s="4">
         <v>1965</v>
@@ -8499,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D72" s="3">
         <v>1953</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D73" s="4">
         <v>1943</v>
@@ -8764,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4">
         <v>1958</v>
@@ -9135,7 +9135,7 @@
         <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" s="3">
         <v>1977</v>
@@ -9665,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D94" s="3">
         <v>1925</v>
@@ -9793,25 +9793,25 @@
         <v>22</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D98" s="3">
         <v>1952</v>
       </c>
       <c r="E98" s="3">
-        <v>0.05</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H98" s="3">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I98" s="3">
-        <v>3.1500000000000004</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J98" s="3">
         <v>103</v>
@@ -9825,25 +9825,25 @@
         <v>22</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D99" s="4">
         <v>1952</v>
       </c>
       <c r="E99" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>2783</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="H99" s="4">
-        <v>66.550000000000011</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="I99" s="4">
-        <v>2.8875000000000002</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="J99" s="4">
         <v>103</v>
@@ -9857,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D100" s="3">
         <v>1958</v>
@@ -9889,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D101" s="4">
         <v>1959</v>
@@ -9985,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D104" s="3">
         <v>1975</v>
@@ -10215,7 +10215,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="4">
-        <v>2.8E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -10224,7 +10224,7 @@
         <v>1336.5</v>
       </c>
       <c r="H111" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>2011</v>
       </c>
       <c r="E113" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>2011</v>
       </c>
       <c r="E114" s="3">
-        <v>1E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -10320,7 +10320,7 @@
         <v>1336.5</v>
       </c>
       <c r="H114" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I114" s="3">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>2011</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -10401,13 +10401,13 @@
         <v>99</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D117" s="4">
         <v>2012</v>
       </c>
       <c r="E117" s="4">
-        <v>2.5999999999999994E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -10433,13 +10433,13 @@
         <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D118" s="3">
         <v>2012</v>
       </c>
       <c r="E118" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -10465,19 +10465,19 @@
         <v>99</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D119" s="4">
         <v>2012</v>
       </c>
       <c r="E119" s="4">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
       </c>
       <c r="G119" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H119" s="4">
         <v>21.450000000000003</v>
@@ -10497,13 +10497,13 @@
         <v>99</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D120" s="3">
         <v>2012</v>
       </c>
       <c r="E120" s="3">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -10529,19 +10529,19 @@
         <v>99</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D121" s="4">
         <v>2012</v>
       </c>
       <c r="E121" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H121" s="4">
         <v>21.450000000000003</v>
@@ -10561,19 +10561,19 @@
         <v>99</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D122" s="3">
         <v>2012</v>
       </c>
       <c r="E122" s="3">
-        <v>5.8000000000000005E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H122" s="3">
         <v>21.450000000000003</v>
@@ -10593,13 +10593,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D123" s="4">
         <v>2012</v>
       </c>
       <c r="E123" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>2.5999999999999994E-3</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -10625,13 +10625,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D124" s="3">
         <v>2012</v>
       </c>
       <c r="E124" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -10657,13 +10657,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D125" s="4">
         <v>2012</v>
       </c>
       <c r="E125" s="4">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -10689,19 +10689,19 @@
         <v>99</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="3">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H126" s="3">
         <v>21.450000000000003</v>
@@ -10721,13 +10721,13 @@
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D127" s="4">
         <v>2012</v>
       </c>
       <c r="E127" s="4">
-        <v>2.7000000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -10753,13 +10753,13 @@
         <v>99</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D128" s="3">
         <v>2012</v>
       </c>
       <c r="E128" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -10785,19 +10785,19 @@
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D129" s="4">
         <v>2012</v>
       </c>
       <c r="E129" s="4">
-        <v>1.6999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
       </c>
       <c r="G129" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H129" s="4">
         <v>21.450000000000003</v>
@@ -10823,7 +10823,7 @@
         <v>2012</v>
       </c>
       <c r="E130" s="3">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -10849,13 +10849,13 @@
         <v>99</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D131" s="4">
         <v>2013</v>
       </c>
       <c r="E131" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -10881,22 +10881,22 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D132" s="3">
         <v>2013</v>
       </c>
       <c r="E132" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.4400000000000005E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H132" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>99</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D133" s="4">
         <v>2013</v>
       </c>
       <c r="E133" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -10945,22 +10945,22 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D134" s="3">
         <v>2013</v>
       </c>
       <c r="E134" s="3">
-        <v>2.4400000000000005E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H134" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
@@ -10977,13 +10977,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D135" s="4">
         <v>2013</v>
       </c>
       <c r="E135" s="4">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -11009,13 +11009,13 @@
         <v>99</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -11041,13 +11041,13 @@
         <v>99</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D137" s="4">
         <v>2013</v>
       </c>
       <c r="E137" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -11073,7 +11073,7 @@
         <v>99</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D138" s="3">
         <v>2014</v>
@@ -11105,13 +11105,13 @@
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
       </c>
       <c r="E139" s="4">
-        <v>1E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -11137,13 +11137,13 @@
         <v>99</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>2.1000000000000003E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -11175,7 +11175,7 @@
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -11184,7 +11184,7 @@
         <v>1336.5</v>
       </c>
       <c r="H141" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I141" s="4">
         <v>0</v>
@@ -11201,13 +11201,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>3.8E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>1336.5</v>
       </c>
       <c r="H142" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -11233,13 +11233,13 @@
         <v>99</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>7.9000000000000008E-3</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -11248,7 +11248,7 @@
         <v>1336.5</v>
       </c>
       <c r="H143" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I143" s="4">
         <v>0</v>
@@ -11265,13 +11265,13 @@
         <v>99</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -11280,7 +11280,7 @@
         <v>1336.5</v>
       </c>
       <c r="H144" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>2.4000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -11312,7 +11312,7 @@
         <v>1336.5</v>
       </c>
       <c r="H145" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I145" s="4">
         <v>0</v>
@@ -11329,13 +11329,13 @@
         <v>99</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -11344,7 +11344,7 @@
         <v>1336.5</v>
       </c>
       <c r="H146" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I146" s="3">
         <v>0</v>
@@ -11361,7 +11361,7 @@
         <v>99</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
@@ -11393,13 +11393,13 @@
         <v>99</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D148" s="3">
         <v>2016</v>
       </c>
       <c r="E148" s="3">
-        <v>1.4E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -11425,13 +11425,13 @@
         <v>99</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D149" s="4">
         <v>2016</v>
       </c>
       <c r="E149" s="4">
-        <v>4.9000000000000007E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -11457,13 +11457,13 @@
         <v>99</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D150" s="3">
         <v>2016</v>
       </c>
       <c r="E150" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
@@ -11472,7 +11472,7 @@
         <v>1336.5</v>
       </c>
       <c r="H150" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>99</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D151" s="4">
         <v>2016</v>
@@ -11521,13 +11521,13 @@
         <v>99</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D152" s="3">
         <v>2016</v>
       </c>
       <c r="E152" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -11536,7 +11536,7 @@
         <v>1336.5</v>
       </c>
       <c r="H152" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
@@ -11553,13 +11553,13 @@
         <v>99</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D153" s="4">
         <v>2016</v>
       </c>
       <c r="E153" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -11591,7 +11591,7 @@
         <v>2016</v>
       </c>
       <c r="E154" s="3">
-        <v>4.9000000000000007E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>1336.5</v>
       </c>
       <c r="H154" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I154" s="3">
         <v>0</v>
@@ -11617,13 +11617,13 @@
         <v>99</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D155" s="4">
         <v>2016</v>
       </c>
       <c r="E155" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -11632,7 +11632,7 @@
         <v>1336.5</v>
       </c>
       <c r="H155" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I155" s="4">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D156" s="3">
         <v>2021</v>
@@ -11681,13 +11681,13 @@
         <v>99</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D157" s="4">
         <v>2022</v>
       </c>
       <c r="E157" s="4">
-        <v>0.16452449149779813</v>
+        <v>0.20916506699980644</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -11713,13 +11713,13 @@
         <v>99</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D158" s="3">
         <v>2022</v>
       </c>
       <c r="E158" s="3">
-        <v>0.13557174209784201</v>
+        <v>0.1986733343920766</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -11745,13 +11745,13 @@
         <v>99</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D159" s="4">
         <v>2022</v>
       </c>
       <c r="E159" s="4">
-        <v>0.2148926965356589</v>
+        <v>0.16370277058553859</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -11777,13 +11777,13 @@
         <v>99</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D160" s="3">
         <v>2022</v>
       </c>
       <c r="E160" s="3">
-        <v>0.19562028903692719</v>
+        <v>0.20842035307589579</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -11809,13 +11809,13 @@
         <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D161" s="4">
         <v>2022</v>
       </c>
       <c r="E161" s="4">
-        <v>0.19113510152041108</v>
+        <v>0.15348244065625796</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -11841,13 +11841,13 @@
         <v>99</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D162" s="3">
         <v>2022</v>
       </c>
       <c r="E162" s="3">
-        <v>0.18104249049863588</v>
+        <v>0.21232141441249713</v>
       </c>
       <c r="F162"